--- a/JupyterNotebooks/AvgHW/BrassA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,24 +82,30 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
   </si>
   <si>
@@ -95,12 +113,6 @@
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,16 +653,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.016421340582036</v>
+        <v>1.00387172680866</v>
       </c>
       <c r="D3">
-        <v>0.9991325295795968</v>
+        <v>0.9962865034509609</v>
       </c>
       <c r="E3">
-        <v>0.9953852549261134</v>
+        <v>1.016421340582037</v>
       </c>
       <c r="F3">
-        <v>1.016421340582036</v>
+        <v>1.016421340582037</v>
       </c>
       <c r="G3">
         <v>0.9971344667981248</v>
@@ -719,31 +671,31 @@
         <v>1.001605103480004</v>
       </c>
       <c r="I3">
-        <v>1.016421340582036</v>
+        <v>0.9953852549261133</v>
       </c>
       <c r="J3">
         <v>0.9991325295795968</v>
       </c>
       <c r="K3">
+        <v>1.016421340582037</v>
+      </c>
+      <c r="L3">
+        <v>0.9991325295795968</v>
+      </c>
+      <c r="M3">
         <v>0.9938585013301442</v>
       </c>
-      <c r="L3">
-        <v>1.00387172680866</v>
-      </c>
-      <c r="M3">
-        <v>0.9962865034509609</v>
-      </c>
       <c r="N3">
-        <v>1.016421340582036</v>
+        <v>1.016421340582037</v>
       </c>
       <c r="O3">
-        <v>0.9953852549261134</v>
+        <v>0.9953852549261133</v>
       </c>
       <c r="P3">
-        <v>0.9972588922528551</v>
+        <v>0.997258892252855</v>
       </c>
       <c r="Q3">
-        <v>0.9962598608621192</v>
+        <v>0.996259860862119</v>
       </c>
       <c r="R3">
         <v>1.003646375029249</v>
@@ -764,7 +716,7 @@
         <v>1.000461928369455</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,13 +724,13 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.007556517055868</v>
+      </c>
+      <c r="D4">
+        <v>0.9927496651930401</v>
+      </c>
+      <c r="E4">
         <v>1.03123331480209</v>
-      </c>
-      <c r="D4">
-        <v>0.9976467536335345</v>
-      </c>
-      <c r="E4">
-        <v>0.9911151812728898</v>
       </c>
       <c r="F4">
         <v>1.03123331480209</v>
@@ -790,19 +742,19 @@
         <v>1.003029873997071</v>
       </c>
       <c r="I4">
-        <v>1.03123331480209</v>
+        <v>0.9911151812728898</v>
       </c>
       <c r="J4">
         <v>0.9976467536335345</v>
       </c>
       <c r="K4">
-        <v>0.9883996718456332</v>
+        <v>1.03123331480209</v>
       </c>
       <c r="L4">
-        <v>1.007556517055868</v>
+        <v>0.9976467536335345</v>
       </c>
       <c r="M4">
-        <v>0.9927496651930401</v>
+        <v>0.988399671845633</v>
       </c>
       <c r="N4">
         <v>1.03123331480209</v>
@@ -835,7 +787,7 @@
         <v>1.000804455029169</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,13 +795,13 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.013890409468209</v>
+      </c>
+      <c r="D5">
+        <v>0.9858907144437271</v>
+      </c>
+      <c r="E5">
         <v>1.059156922107634</v>
-      </c>
-      <c r="D5">
-        <v>0.9956948813813081</v>
-      </c>
-      <c r="E5">
-        <v>0.9843358210631572</v>
       </c>
       <c r="F5">
         <v>1.059156922107634</v>
@@ -861,19 +813,19 @@
         <v>1.00633071712673</v>
       </c>
       <c r="I5">
-        <v>1.059156922107634</v>
+        <v>0.9843358210631572</v>
       </c>
       <c r="J5">
         <v>0.9956948813813081</v>
       </c>
       <c r="K5">
+        <v>1.059156922107634</v>
+      </c>
+      <c r="L5">
+        <v>0.9956948813813081</v>
+      </c>
+      <c r="M5">
         <v>0.9779617751290299</v>
-      </c>
-      <c r="L5">
-        <v>1.013890409468209</v>
-      </c>
-      <c r="M5">
-        <v>0.9858907144437271</v>
       </c>
       <c r="N5">
         <v>1.059156922107634</v>
@@ -894,7 +846,7 @@
         <v>0.9897959564212592</v>
       </c>
       <c r="T5">
-        <v>1.013062541517366</v>
+        <v>1.013062541517367</v>
       </c>
       <c r="U5">
         <v>1.007136197842853</v>
@@ -903,10 +855,10 @@
         <v>1.017540342695809</v>
       </c>
       <c r="W5">
-        <v>1.001577300942388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>1.001577300942389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,55 +866,55 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.020185042023071</v>
+      </c>
+      <c r="D6">
+        <v>0.9792631889486066</v>
+      </c>
+      <c r="E6">
         <v>1.086265267232081</v>
-      </c>
-      <c r="D6">
-        <v>0.9938665846233086</v>
-      </c>
-      <c r="E6">
-        <v>0.9781742537745725</v>
       </c>
       <c r="F6">
         <v>1.086265267232081</v>
       </c>
       <c r="G6">
-        <v>0.9843302767069039</v>
+        <v>0.9843302767069035</v>
       </c>
       <c r="H6">
         <v>1.009580667013567</v>
       </c>
       <c r="I6">
-        <v>1.086265267232081</v>
+        <v>0.9781742537745723</v>
       </c>
       <c r="J6">
         <v>0.9938665846233086</v>
       </c>
       <c r="K6">
+        <v>1.086265267232081</v>
+      </c>
+      <c r="L6">
+        <v>0.9938665846233086</v>
+      </c>
+      <c r="M6">
         <v>0.9675159691619543</v>
-      </c>
-      <c r="L6">
-        <v>1.020185042023071</v>
-      </c>
-      <c r="M6">
-        <v>0.9792631889486066</v>
       </c>
       <c r="N6">
         <v>1.086265267232081</v>
       </c>
       <c r="O6">
-        <v>0.9781742537745725</v>
+        <v>0.9781742537745723</v>
       </c>
       <c r="P6">
-        <v>0.9860204191989406</v>
+        <v>0.9860204191989405</v>
       </c>
       <c r="Q6">
-        <v>0.9812522652407382</v>
+        <v>0.9812522652407379</v>
       </c>
       <c r="R6">
         <v>1.019435368543321</v>
       </c>
       <c r="S6">
-        <v>0.9854570383682617</v>
+        <v>0.9854570383682614</v>
       </c>
       <c r="T6">
         <v>1.019435368543321</v>
@@ -977,7 +929,7 @@
         <v>1.002397656185508</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,16 +937,16 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997625979937265</v>
+        <v>0.9998821283470487</v>
       </c>
       <c r="D7">
-        <v>0.9990697219279134</v>
+        <v>0.9993720869409428</v>
       </c>
       <c r="E7">
-        <v>1.000986371767127</v>
+        <v>0.9997625979937256</v>
       </c>
       <c r="F7">
-        <v>0.9997625979937265</v>
+        <v>0.9997625979937256</v>
       </c>
       <c r="G7">
         <v>0.9996895889947981</v>
@@ -1003,22 +955,22 @@
         <v>1.000543209599094</v>
       </c>
       <c r="I7">
-        <v>0.9997625979937265</v>
+        <v>1.000986371767127</v>
       </c>
       <c r="J7">
-        <v>0.9990697219279134</v>
+        <v>0.9990697219279138</v>
       </c>
       <c r="K7">
+        <v>0.9997625979937256</v>
+      </c>
+      <c r="L7">
+        <v>0.9990697219279138</v>
+      </c>
+      <c r="M7">
         <v>1.00010119688614</v>
       </c>
-      <c r="L7">
-        <v>0.999882128347049</v>
-      </c>
-      <c r="M7">
-        <v>0.9993720869409428</v>
-      </c>
       <c r="N7">
-        <v>0.9997625979937265</v>
+        <v>0.9997625979937256</v>
       </c>
       <c r="O7">
         <v>1.000986371767127</v>
@@ -1030,25 +982,25 @@
         <v>1.000337980380962</v>
       </c>
       <c r="R7">
-        <v>0.9999395638962555</v>
+        <v>0.9999395638962554</v>
       </c>
       <c r="S7">
-        <v>0.9999152275632793</v>
+        <v>0.9999152275632796</v>
       </c>
       <c r="T7">
-        <v>0.9999395638962555</v>
+        <v>0.9999395638962554</v>
       </c>
       <c r="U7">
-        <v>0.9998770701708912</v>
+        <v>0.999877070170891</v>
       </c>
       <c r="V7">
-        <v>0.9998541757354582</v>
+        <v>0.9998541757354579</v>
       </c>
       <c r="W7">
-        <v>0.9999258628070987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999258628070986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1008,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9996898892476951</v>
+        <v>0.9998258957608835</v>
       </c>
       <c r="D8">
-        <v>0.997421418383615</v>
+        <v>0.9982727561479944</v>
       </c>
       <c r="E8">
+        <v>0.9996898892476953</v>
+      </c>
+      <c r="F8">
+        <v>0.9996898892476953</v>
+      </c>
+      <c r="G8">
+        <v>0.9991933817415414</v>
+      </c>
+      <c r="H8">
+        <v>1.001412849582889</v>
+      </c>
+      <c r="I8">
         <v>1.002394473898902</v>
-      </c>
-      <c r="F8">
-        <v>0.9996898892476951</v>
-      </c>
-      <c r="G8">
-        <v>0.9991933817415416</v>
-      </c>
-      <c r="H8">
-        <v>1.001412849582888</v>
-      </c>
-      <c r="I8">
-        <v>0.9996898892476951</v>
       </c>
       <c r="J8">
         <v>0.997421418383615</v>
       </c>
       <c r="K8">
+        <v>0.9996898892476953</v>
+      </c>
+      <c r="L8">
+        <v>0.997421418383615</v>
+      </c>
+      <c r="M8">
         <v>1.000168353179532</v>
       </c>
-      <c r="L8">
-        <v>0.9998258957608839</v>
-      </c>
-      <c r="M8">
-        <v>0.9982727561479945</v>
-      </c>
       <c r="N8">
-        <v>0.9996898892476951</v>
+        <v>0.9996898892476953</v>
       </c>
       <c r="O8">
         <v>1.002394473898902</v>
       </c>
       <c r="P8">
-        <v>0.9999079461412586</v>
+        <v>0.9999079461412587</v>
       </c>
       <c r="Q8">
         <v>1.000793927820222</v>
       </c>
       <c r="R8">
-        <v>0.9998352605100708</v>
+        <v>0.9998352605100709</v>
       </c>
       <c r="S8">
         <v>0.9996697580080195</v>
       </c>
       <c r="T8">
-        <v>0.9998352605100708</v>
+        <v>0.9998352605100709</v>
       </c>
       <c r="U8">
-        <v>0.9996747908179384</v>
+        <v>0.9996747908179385</v>
       </c>
       <c r="V8">
-        <v>0.9996778105038897</v>
+        <v>0.9996778105038899</v>
       </c>
       <c r="W8">
         <v>0.9997973772428815</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,13 +1079,13 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9999511865547378</v>
+      </c>
+      <c r="D9">
+        <v>0.9976921624683397</v>
+      </c>
+      <c r="E9">
         <v>0.9997901013639848</v>
-      </c>
-      <c r="D9">
-        <v>0.9964453436298707</v>
-      </c>
-      <c r="E9">
-        <v>1.002909503100483</v>
       </c>
       <c r="F9">
         <v>0.9997901013639848</v>
@@ -1145,19 +1097,19 @@
         <v>1.001803156761627</v>
       </c>
       <c r="I9">
-        <v>0.9997901013639848</v>
+        <v>1.002909503100483</v>
       </c>
       <c r="J9">
         <v>0.9964453436298707</v>
       </c>
       <c r="K9">
+        <v>0.9997901013639848</v>
+      </c>
+      <c r="L9">
+        <v>0.9964453436298707</v>
+      </c>
+      <c r="M9">
         <v>1.000127244341979</v>
-      </c>
-      <c r="L9">
-        <v>0.9999511865547378</v>
-      </c>
-      <c r="M9">
-        <v>0.9976921624683397</v>
       </c>
       <c r="N9">
         <v>0.9997901013639848</v>
@@ -1190,7 +1142,7 @@
         <v>0.999719487976815</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,13 +1150,13 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9997022456024759</v>
+      </c>
+      <c r="D10">
+        <v>0.9949354015100674</v>
+      </c>
+      <c r="E10">
         <v>0.9993053944382768</v>
-      </c>
-      <c r="D10">
-        <v>0.9923094057506371</v>
-      </c>
-      <c r="E10">
-        <v>1.006709563269323</v>
       </c>
       <c r="F10">
         <v>0.9993053944382768</v>
@@ -1216,19 +1168,19 @@
         <v>1.004051860431201</v>
       </c>
       <c r="I10">
-        <v>0.9993053944382768</v>
+        <v>1.006709563269323</v>
       </c>
       <c r="J10">
         <v>0.9923094057506371</v>
       </c>
       <c r="K10">
+        <v>0.9993053944382768</v>
+      </c>
+      <c r="L10">
+        <v>0.9923094057506371</v>
+      </c>
+      <c r="M10">
         <v>1.000375772064097</v>
-      </c>
-      <c r="L10">
-        <v>0.9997022456024759</v>
-      </c>
-      <c r="M10">
-        <v>0.9949354015100674</v>
       </c>
       <c r="N10">
         <v>0.9993053944382768</v>
@@ -1261,7 +1213,7 @@
         <v>0.9993953292509811</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,13 +1221,13 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.000001291884228</v>
+      </c>
+      <c r="D11">
+        <v>0.9917682481732576</v>
+      </c>
+      <c r="E11">
         <v>0.9997819117626465</v>
-      </c>
-      <c r="D11">
-        <v>0.9873678988866682</v>
-      </c>
-      <c r="E11">
-        <v>1.009966695237587</v>
       </c>
       <c r="F11">
         <v>0.9997819117626465</v>
@@ -1287,19 +1239,19 @@
         <v>1.00633787450157</v>
       </c>
       <c r="I11">
-        <v>0.9997819117626465</v>
+        <v>1.009966695237587</v>
       </c>
       <c r="J11">
         <v>0.9873678988866682</v>
       </c>
       <c r="K11">
+        <v>0.9997819117626465</v>
+      </c>
+      <c r="L11">
+        <v>0.9873678988866682</v>
+      </c>
+      <c r="M11">
         <v>1.000286567777674</v>
-      </c>
-      <c r="L11">
-        <v>1.000001291884228</v>
-      </c>
-      <c r="M11">
-        <v>0.9917682481732576</v>
       </c>
       <c r="N11">
         <v>0.9997819117626465</v>
@@ -1332,7 +1284,7 @@
         <v>0.9990116585965568</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,13 +1292,13 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.033949634534164</v>
+      </c>
+      <c r="D12">
+        <v>1.161706436847033</v>
+      </c>
+      <c r="E12">
         <v>1.217105385593193</v>
-      </c>
-      <c r="D12">
-        <v>1.348156913744501</v>
-      </c>
-      <c r="E12">
-        <v>0.7128589889762401</v>
       </c>
       <c r="F12">
         <v>1.217105385593193</v>
@@ -1358,19 +1310,19 @@
         <v>0.872903140839448</v>
       </c>
       <c r="I12">
-        <v>1.217105385593193</v>
+        <v>0.7128589889762401</v>
       </c>
       <c r="J12">
         <v>1.348156913744501</v>
       </c>
       <c r="K12">
-        <v>0.9074179376914524</v>
+        <v>1.217105385593193</v>
       </c>
       <c r="L12">
-        <v>1.033949634534164</v>
+        <v>1.348156913744501</v>
       </c>
       <c r="M12">
-        <v>1.161706436847032</v>
+        <v>0.9074179376914521</v>
       </c>
       <c r="N12">
         <v>1.217105385593193</v>
@@ -1382,7 +1334,7 @@
         <v>1.030507951360371</v>
       </c>
       <c r="Q12">
-        <v>0.8713544047387323</v>
+        <v>0.8713544047387325</v>
       </c>
       <c r="R12">
         <v>1.092707096104645</v>
@@ -1403,7 +1355,7 @@
         <v>1.035493532340907</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,13 +1363,13 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9761776961990948</v>
+      </c>
+      <c r="D13">
+        <v>0.9950978225115312</v>
+      </c>
+      <c r="E13">
         <v>0.828940782361655</v>
-      </c>
-      <c r="D13">
-        <v>0.9225558066167451</v>
-      </c>
-      <c r="E13">
-        <v>1.079846537532788</v>
       </c>
       <c r="F13">
         <v>0.828940782361655</v>
@@ -1429,19 +1381,19 @@
         <v>1.00892995531492</v>
       </c>
       <c r="I13">
-        <v>0.828940782361655</v>
+        <v>1.079846537532788</v>
       </c>
       <c r="J13">
         <v>0.9225558066167451</v>
       </c>
       <c r="K13">
+        <v>0.828940782361655</v>
+      </c>
+      <c r="L13">
+        <v>0.9225558066167451</v>
+      </c>
+      <c r="M13">
         <v>1.062067058705677</v>
-      </c>
-      <c r="L13">
-        <v>0.9761776961990947</v>
-      </c>
-      <c r="M13">
-        <v>0.9950978225115312</v>
       </c>
       <c r="N13">
         <v>0.828940782361655</v>
@@ -1474,7 +1426,7 @@
         <v>0.9876132715822734</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,13 +1434,13 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9219487779012226</v>
+      </c>
+      <c r="D14">
+        <v>1.295290460465664</v>
+      </c>
+      <c r="E14">
         <v>0.7015374210446996</v>
-      </c>
-      <c r="D14">
-        <v>1.391790061090266</v>
-      </c>
-      <c r="E14">
-        <v>0.8310496254017812</v>
       </c>
       <c r="F14">
         <v>0.7015374210446996</v>
@@ -1500,19 +1452,19 @@
         <v>0.805875710571074</v>
       </c>
       <c r="I14">
+        <v>0.8310496254017812</v>
+      </c>
+      <c r="J14">
+        <v>1.391790061090267</v>
+      </c>
+      <c r="K14">
         <v>0.7015374210446996</v>
       </c>
-      <c r="J14">
-        <v>1.391790061090266</v>
-      </c>
-      <c r="K14">
+      <c r="L14">
+        <v>1.391790061090267</v>
+      </c>
+      <c r="M14">
         <v>1.0955653914674</v>
-      </c>
-      <c r="L14">
-        <v>0.9219487779012226</v>
-      </c>
-      <c r="M14">
-        <v>1.295290460465664</v>
       </c>
       <c r="N14">
         <v>0.7015374210446996</v>
@@ -1527,25 +1479,25 @@
         <v>0.9836430945738879</v>
       </c>
       <c r="R14">
-        <v>0.9747923691789158</v>
+        <v>0.9747923691789159</v>
       </c>
       <c r="S14">
         <v>1.119692083412681</v>
       </c>
       <c r="T14">
-        <v>0.9747923691789158</v>
+        <v>0.9747923691789159</v>
       </c>
       <c r="U14">
-        <v>1.015153417820685</v>
+        <v>1.015153417820686</v>
       </c>
       <c r="V14">
-        <v>0.9524302184654883</v>
+        <v>0.9524302184654884</v>
       </c>
       <c r="W14">
         <v>1.022411751461013</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,13 +1505,13 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9325502504588224</v>
+      </c>
+      <c r="D15">
+        <v>1.074553356201719</v>
+      </c>
+      <c r="E15">
         <v>0.9374712188066278</v>
-      </c>
-      <c r="D15">
-        <v>1.193867717543105</v>
-      </c>
-      <c r="E15">
-        <v>1.026561633756653</v>
       </c>
       <c r="F15">
         <v>0.9374712188066278</v>
@@ -1568,22 +1520,22 @@
         <v>0.9766400781447774</v>
       </c>
       <c r="H15">
-        <v>0.9857736381519673</v>
+        <v>0.9857736381519674</v>
       </c>
       <c r="I15">
-        <v>0.9374712188066278</v>
+        <v>1.026561633756653</v>
       </c>
       <c r="J15">
         <v>1.193867717543105</v>
       </c>
       <c r="K15">
+        <v>0.9374712188066278</v>
+      </c>
+      <c r="L15">
+        <v>1.193867717543105</v>
+      </c>
+      <c r="M15">
         <v>1.011818744426101</v>
-      </c>
-      <c r="L15">
-        <v>0.9325502504588224</v>
-      </c>
-      <c r="M15">
-        <v>1.074553356201719</v>
       </c>
       <c r="N15">
         <v>0.9374712188066278</v>
@@ -1616,7 +1568,7 @@
         <v>1.017404579686222</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.00083840824404</v>
+        <v>1.072336514318615</v>
       </c>
       <c r="D16">
-        <v>1.000786003710523</v>
+        <v>0.9225607601385811</v>
       </c>
       <c r="E16">
-        <v>0.9997786757532786</v>
+        <v>1.29686017042893</v>
       </c>
       <c r="F16">
-        <v>1.00083840824404</v>
+        <v>1.29686017042893</v>
       </c>
       <c r="G16">
-        <v>0.9997040263101532</v>
+        <v>0.9467880673625586</v>
       </c>
       <c r="H16">
-        <v>0.9999987020581947</v>
+        <v>1.034788200111894</v>
       </c>
       <c r="I16">
-        <v>1.00083840824404</v>
+        <v>0.9244589431065839</v>
       </c>
       <c r="J16">
-        <v>1.000786003710523</v>
+        <v>0.9629752241015628</v>
       </c>
       <c r="K16">
-        <v>0.9997064938301879</v>
+        <v>1.29686017042893</v>
       </c>
       <c r="L16">
-        <v>0.9999265387079517</v>
+        <v>0.9629752241015628</v>
       </c>
       <c r="M16">
-        <v>1.000101587856418</v>
+        <v>0.8904687191705125</v>
       </c>
       <c r="N16">
-        <v>1.00083840824404</v>
+        <v>1.29686017042893</v>
       </c>
       <c r="O16">
-        <v>0.9997786757532786</v>
+        <v>0.9244589431065839</v>
       </c>
       <c r="P16">
-        <v>1.000282339731901</v>
+        <v>0.9437170836040734</v>
       </c>
       <c r="Q16">
-        <v>0.9997413510317159</v>
+        <v>0.9356235052345713</v>
       </c>
       <c r="R16">
-        <v>1.000467695902614</v>
+        <v>1.061431445879026</v>
       </c>
       <c r="S16">
-        <v>1.000089568591318</v>
+        <v>0.9447407448569018</v>
       </c>
       <c r="T16">
-        <v>1.000467695902614</v>
+        <v>1.061431445879026</v>
       </c>
       <c r="U16">
-        <v>1.000276778504499</v>
+        <v>1.032770601249909</v>
       </c>
       <c r="V16">
-        <v>1.000389104452407</v>
+        <v>1.085588515085713</v>
       </c>
       <c r="W16">
-        <v>1.000105054558843</v>
+        <v>1.006404574842405</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9979613041418012</v>
+        <v>1.045383150227498</v>
       </c>
       <c r="D17">
-        <v>0.9976617490141112</v>
+        <v>0.9249055361032003</v>
       </c>
       <c r="E17">
-        <v>1.00222171654902</v>
+        <v>1.192260723911668</v>
       </c>
       <c r="F17">
-        <v>0.9979613041418012</v>
+        <v>1.192260723911668</v>
       </c>
       <c r="G17">
-        <v>0.999858094052237</v>
+        <v>0.9536650857880967</v>
       </c>
       <c r="H17">
-        <v>1.000934691535845</v>
+        <v>1.042466327861212</v>
       </c>
       <c r="I17">
-        <v>0.9979613041418012</v>
+        <v>0.9830096790427154</v>
       </c>
       <c r="J17">
-        <v>0.9976617490141112</v>
+        <v>0.9395512277997345</v>
       </c>
       <c r="K17">
-        <v>1.00070828851611</v>
+        <v>1.192260723911668</v>
       </c>
       <c r="L17">
-        <v>0.9996897879347689</v>
+        <v>0.9395512277997345</v>
       </c>
       <c r="M17">
-        <v>0.9989486485769007</v>
+        <v>0.9300183128185383</v>
       </c>
       <c r="N17">
-        <v>0.9979613041418012</v>
+        <v>1.192260723911668</v>
       </c>
       <c r="O17">
-        <v>1.00222171654902</v>
+        <v>0.9830096790427154</v>
       </c>
       <c r="P17">
-        <v>0.9999417327815658</v>
+        <v>0.9612804534212249</v>
       </c>
       <c r="Q17">
-        <v>1.001039905300629</v>
+        <v>0.968337382415406</v>
       </c>
       <c r="R17">
-        <v>0.9992815899016443</v>
+        <v>1.038273876918039</v>
       </c>
       <c r="S17">
-        <v>0.9999138532051228</v>
+        <v>0.9587419975435155</v>
       </c>
       <c r="T17">
-        <v>0.9992815899016442</v>
+        <v>1.038273876918039</v>
       </c>
       <c r="U17">
-        <v>0.9994257159392923</v>
+        <v>1.017121679135554</v>
       </c>
       <c r="V17">
-        <v>0.9991328335797942</v>
+        <v>1.052149488090776</v>
       </c>
       <c r="W17">
-        <v>0.9997480350400993</v>
+        <v>1.001407505444083</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00893285724104</v>
+        <v>0.9920527470682139</v>
       </c>
       <c r="D18">
-        <v>1.002558626827209</v>
+        <v>0.9300757341463965</v>
       </c>
       <c r="E18">
-        <v>0.9961798494967057</v>
+        <v>0.9845217857265035</v>
       </c>
       <c r="F18">
-        <v>1.00893285724104</v>
+        <v>0.9845217857265035</v>
       </c>
       <c r="G18">
-        <v>0.998642645885893</v>
+        <v>0.9677451444960421</v>
       </c>
       <c r="H18">
-        <v>0.9997968813840361</v>
+        <v>1.0571926213585</v>
       </c>
       <c r="I18">
-        <v>1.00893285724104</v>
+        <v>1.09837230081805</v>
       </c>
       <c r="J18">
-        <v>1.002558626827209</v>
+        <v>0.8935146182478862</v>
       </c>
       <c r="K18">
-        <v>0.9968157784088825</v>
+        <v>0.9845217857265035</v>
       </c>
       <c r="L18">
-        <v>1.001580981631601</v>
+        <v>0.8935146182478862</v>
       </c>
       <c r="M18">
-        <v>0.9995792895407628</v>
+        <v>1.008560536492494</v>
       </c>
       <c r="N18">
-        <v>1.00893285724104</v>
+        <v>0.9845217857265035</v>
       </c>
       <c r="O18">
-        <v>0.9961798494967057</v>
+        <v>1.09837230081805</v>
       </c>
       <c r="P18">
-        <v>0.9993692381619572</v>
+        <v>0.9959434595329684</v>
       </c>
       <c r="Q18">
-        <v>0.9974112476912993</v>
+        <v>1.033058722657046</v>
       </c>
       <c r="R18">
-        <v>1.002557111188318</v>
+        <v>0.9921362349308134</v>
       </c>
       <c r="S18">
-        <v>0.9991270407366025</v>
+        <v>0.9865440211873263</v>
       </c>
       <c r="T18">
-        <v>1.002557111188318</v>
+        <v>0.9921362349308134</v>
       </c>
       <c r="U18">
-        <v>1.001578494862712</v>
+        <v>0.9860384623221206</v>
       </c>
       <c r="V18">
-        <v>1.003049367338378</v>
+        <v>0.9857351270029971</v>
       </c>
       <c r="W18">
-        <v>1.000510863802016</v>
+        <v>0.9915044360442609</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9785751432987887</v>
+      </c>
+      <c r="D19">
+        <v>0.9163596220995974</v>
+      </c>
+      <c r="E19">
+        <v>0.9624967610013692</v>
+      </c>
+      <c r="F19">
+        <v>0.9624967610013692</v>
+      </c>
+      <c r="G19">
+        <v>0.9544469059718588</v>
+      </c>
+      <c r="H19">
+        <v>1.075389940565219</v>
+      </c>
+      <c r="I19">
+        <v>1.139876858418984</v>
+      </c>
+      <c r="J19">
+        <v>0.8811225654583277</v>
+      </c>
+      <c r="K19">
+        <v>0.9624967610013692</v>
+      </c>
+      <c r="L19">
+        <v>0.8811225654583277</v>
+      </c>
+      <c r="M19">
+        <v>1.01591441300503</v>
+      </c>
+      <c r="N19">
+        <v>0.9624967610013692</v>
+      </c>
+      <c r="O19">
+        <v>1.139876858418984</v>
+      </c>
+      <c r="P19">
+        <v>1.010499711938656</v>
+      </c>
+      <c r="Q19">
+        <v>1.047161882195422</v>
+      </c>
+      <c r="R19">
+        <v>0.9944987282928937</v>
+      </c>
+      <c r="S19">
+        <v>0.9918154432830568</v>
+      </c>
+      <c r="T19">
+        <v>0.9944987282928937</v>
+      </c>
+      <c r="U19">
+        <v>0.9844857727126349</v>
+      </c>
+      <c r="V19">
+        <v>0.9800879703703818</v>
+      </c>
+      <c r="W19">
+        <v>0.9905227762273969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999265387079517</v>
+      </c>
+      <c r="D20">
+        <v>1.000101587856418</v>
+      </c>
+      <c r="E20">
+        <v>1.00083840824404</v>
+      </c>
+      <c r="F20">
+        <v>1.00083840824404</v>
+      </c>
+      <c r="G20">
+        <v>0.9997040263101528</v>
+      </c>
+      <c r="H20">
+        <v>0.9999987020581944</v>
+      </c>
+      <c r="I20">
+        <v>0.9997786757532786</v>
+      </c>
+      <c r="J20">
+        <v>1.000786003710524</v>
+      </c>
+      <c r="K20">
+        <v>1.00083840824404</v>
+      </c>
+      <c r="L20">
+        <v>1.000786003710524</v>
+      </c>
+      <c r="M20">
+        <v>0.9997064938301876</v>
+      </c>
+      <c r="N20">
+        <v>1.00083840824404</v>
+      </c>
+      <c r="O20">
+        <v>0.9997786757532786</v>
+      </c>
+      <c r="P20">
+        <v>1.000282339731901</v>
+      </c>
+      <c r="Q20">
+        <v>0.9997413510317157</v>
+      </c>
+      <c r="R20">
+        <v>1.000467695902614</v>
+      </c>
+      <c r="S20">
+        <v>1.000089568591318</v>
+      </c>
+      <c r="T20">
+        <v>1.000467695902614</v>
+      </c>
+      <c r="U20">
+        <v>1.000276778504499</v>
+      </c>
+      <c r="V20">
+        <v>1.000389104452407</v>
+      </c>
+      <c r="W20">
+        <v>1.000105054558843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9996897879347689</v>
+      </c>
+      <c r="D21">
+        <v>0.9989486485769008</v>
+      </c>
+      <c r="E21">
+        <v>0.9979613041418013</v>
+      </c>
+      <c r="F21">
+        <v>0.9979613041418013</v>
+      </c>
+      <c r="G21">
+        <v>0.999858094052237</v>
+      </c>
+      <c r="H21">
+        <v>1.000934691535844</v>
+      </c>
+      <c r="I21">
+        <v>1.00222171654902</v>
+      </c>
+      <c r="J21">
+        <v>0.9976617490141108</v>
+      </c>
+      <c r="K21">
+        <v>0.9979613041418013</v>
+      </c>
+      <c r="L21">
+        <v>0.9976617490141108</v>
+      </c>
+      <c r="M21">
+        <v>1.00070828851611</v>
+      </c>
+      <c r="N21">
+        <v>0.9979613041418013</v>
+      </c>
+      <c r="O21">
+        <v>1.00222171654902</v>
+      </c>
+      <c r="P21">
+        <v>0.9999417327815656</v>
+      </c>
+      <c r="Q21">
+        <v>1.001039905300629</v>
+      </c>
+      <c r="R21">
+        <v>0.9992815899016442</v>
+      </c>
+      <c r="S21">
+        <v>0.9999138532051228</v>
+      </c>
+      <c r="T21">
+        <v>0.9992815899016442</v>
+      </c>
+      <c r="U21">
+        <v>0.9994257159392923</v>
+      </c>
+      <c r="V21">
+        <v>0.9991328335797942</v>
+      </c>
+      <c r="W21">
+        <v>0.9997480350400991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.001580981631601</v>
+      </c>
+      <c r="D22">
+        <v>0.9995792895407628</v>
+      </c>
+      <c r="E22">
+        <v>1.00893285724104</v>
+      </c>
+      <c r="F22">
+        <v>1.00893285724104</v>
+      </c>
+      <c r="G22">
+        <v>0.998642645885893</v>
+      </c>
+      <c r="H22">
+        <v>0.9997968813840361</v>
+      </c>
+      <c r="I22">
+        <v>0.9961798494967055</v>
+      </c>
+      <c r="J22">
+        <v>1.002558626827209</v>
+      </c>
+      <c r="K22">
+        <v>1.00893285724104</v>
+      </c>
+      <c r="L22">
+        <v>1.002558626827209</v>
+      </c>
+      <c r="M22">
+        <v>0.9968157784088828</v>
+      </c>
+      <c r="N22">
+        <v>1.00893285724104</v>
+      </c>
+      <c r="O22">
+        <v>0.9961798494967055</v>
+      </c>
+      <c r="P22">
+        <v>0.9993692381619572</v>
+      </c>
+      <c r="Q22">
+        <v>0.9974112476912993</v>
+      </c>
+      <c r="R22">
+        <v>1.002557111188318</v>
+      </c>
+      <c r="S22">
+        <v>0.9991270407366025</v>
+      </c>
+      <c r="T22">
+        <v>1.002557111188318</v>
+      </c>
+      <c r="U22">
+        <v>1.001578494862712</v>
+      </c>
+      <c r="V22">
+        <v>1.003049367338378</v>
+      </c>
+      <c r="W22">
+        <v>1.000510863802016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.005088711487063</v>
+      </c>
+      <c r="D23">
+        <v>1.001273106352097</v>
+      </c>
+      <c r="E23">
         <v>1.032069807598054</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.032069807598054</v>
+      </c>
+      <c r="G23">
+        <v>0.9956451957695673</v>
+      </c>
+      <c r="H23">
+        <v>0.9976073728906452</v>
+      </c>
+      <c r="I23">
+        <v>0.9837251662284302</v>
+      </c>
+      <c r="J23">
         <v>1.0143468277888</v>
       </c>
-      <c r="E19">
-        <v>0.9837251662284303</v>
-      </c>
-      <c r="F19">
+      <c r="K23">
         <v>1.032069807598054</v>
       </c>
-      <c r="G19">
-        <v>0.9956451957695673</v>
-      </c>
-      <c r="H19">
-        <v>0.9976073728906454</v>
-      </c>
-      <c r="I19">
+      <c r="L23">
+        <v>1.0143468277888</v>
+      </c>
+      <c r="M23">
+        <v>0.9883837538752742</v>
+      </c>
+      <c r="N23">
         <v>1.032069807598054</v>
       </c>
-      <c r="J19">
-        <v>1.0143468277888</v>
-      </c>
-      <c r="K19">
-        <v>0.9883837538752742</v>
-      </c>
-      <c r="L19">
-        <v>1.005088711487063</v>
-      </c>
-      <c r="M19">
-        <v>1.001273106352097</v>
-      </c>
-      <c r="N19">
-        <v>1.032069807598054</v>
-      </c>
-      <c r="O19">
-        <v>0.9837251662284303</v>
-      </c>
-      <c r="P19">
-        <v>0.9990359970086152</v>
-      </c>
-      <c r="Q19">
+      <c r="O23">
+        <v>0.9837251662284302</v>
+      </c>
+      <c r="P23">
+        <v>0.9990359970086151</v>
+      </c>
+      <c r="Q23">
         <v>0.9896851809989988</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.010047267205095</v>
       </c>
-      <c r="S19">
-        <v>0.9979057299289327</v>
-      </c>
-      <c r="T19">
+      <c r="S23">
+        <v>0.9979057299289326</v>
+      </c>
+      <c r="T23">
         <v>1.010047267205095</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.006446749346213</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.011571360996581</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.002267492748741</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BrassA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00387172680866</v>
+        <v>0.9906922023559095</v>
       </c>
       <c r="D3">
-        <v>0.9962865034509609</v>
+        <v>0.9134233029538927</v>
       </c>
       <c r="E3">
-        <v>1.016421340582037</v>
+        <v>0.9861159815201725</v>
       </c>
       <c r="F3">
-        <v>1.016421340582037</v>
+        <v>0.9861159815201725</v>
       </c>
       <c r="G3">
-        <v>0.9971344667981248</v>
+        <v>0.9587449987680112</v>
       </c>
       <c r="H3">
-        <v>1.001605103480004</v>
+        <v>1.071099055864551</v>
       </c>
       <c r="I3">
-        <v>0.9953852549261133</v>
+        <v>1.120289108357346</v>
       </c>
       <c r="J3">
-        <v>0.9991325295795968</v>
+        <v>0.8714259964596565</v>
       </c>
       <c r="K3">
-        <v>1.016421340582037</v>
+        <v>0.9861159815201725</v>
       </c>
       <c r="L3">
-        <v>0.9991325295795968</v>
+        <v>0.8714259964596565</v>
       </c>
       <c r="M3">
-        <v>0.9938585013301442</v>
+        <v>1.008186577788185</v>
       </c>
       <c r="N3">
-        <v>1.016421340582037</v>
+        <v>0.9861159815201725</v>
       </c>
       <c r="O3">
-        <v>0.9953852549261133</v>
+        <v>1.120289108357346</v>
       </c>
       <c r="P3">
-        <v>0.997258892252855</v>
+        <v>0.995857552408501</v>
       </c>
       <c r="Q3">
-        <v>0.996259860862119</v>
+        <v>1.039517053562678</v>
       </c>
       <c r="R3">
-        <v>1.003646375029249</v>
+        <v>0.9926103621123916</v>
       </c>
       <c r="S3">
-        <v>0.9972174171012783</v>
+        <v>0.9834867011950044</v>
       </c>
       <c r="T3">
-        <v>1.003646375029249</v>
+        <v>0.9926103621123916</v>
       </c>
       <c r="U3">
-        <v>1.002018397971468</v>
+        <v>0.9841440212762965</v>
       </c>
       <c r="V3">
-        <v>1.004898986493582</v>
+        <v>0.9845384133250719</v>
       </c>
       <c r="W3">
-        <v>1.000461928369455</v>
+        <v>0.9899971530084655</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.007556517055868</v>
+        <v>0.9909899936759239</v>
       </c>
       <c r="D4">
-        <v>0.9927496651930401</v>
+        <v>0.922176703110322</v>
       </c>
       <c r="E4">
-        <v>1.03123331480209</v>
+        <v>0.9841392410072699</v>
       </c>
       <c r="F4">
-        <v>1.03123331480209</v>
+        <v>0.9841392410072699</v>
       </c>
       <c r="G4">
-        <v>0.9947046624332286</v>
+        <v>0.9634133239265791</v>
       </c>
       <c r="H4">
-        <v>1.003029873997071</v>
+        <v>1.063969685218033</v>
       </c>
       <c r="I4">
-        <v>0.9911151812728898</v>
+        <v>1.109615474544356</v>
       </c>
       <c r="J4">
-        <v>0.9976467536335345</v>
+        <v>0.8829215387104005</v>
       </c>
       <c r="K4">
-        <v>1.03123331480209</v>
+        <v>0.9841392410072699</v>
       </c>
       <c r="L4">
-        <v>0.9976467536335345</v>
+        <v>0.8829215387104005</v>
       </c>
       <c r="M4">
-        <v>0.988399671845633</v>
+        <v>1.008812910114609</v>
       </c>
       <c r="N4">
-        <v>1.03123331480209</v>
+        <v>0.9841392410072699</v>
       </c>
       <c r="O4">
-        <v>0.9911151812728898</v>
+        <v>1.109615474544356</v>
       </c>
       <c r="P4">
-        <v>0.9943809674532121</v>
+        <v>0.9962685066273784</v>
       </c>
       <c r="Q4">
-        <v>0.9929099218530593</v>
+        <v>1.036514399235468</v>
       </c>
       <c r="R4">
-        <v>1.006665083236171</v>
+        <v>0.9922254180873423</v>
       </c>
       <c r="S4">
-        <v>0.9944888657798843</v>
+        <v>0.9853167790604452</v>
       </c>
       <c r="T4">
-        <v>1.006665083236171</v>
+        <v>0.9922254180873423</v>
       </c>
       <c r="U4">
-        <v>1.003674978035436</v>
+        <v>0.9850223945471515</v>
       </c>
       <c r="V4">
-        <v>1.009186645388767</v>
+        <v>0.9848457638391752</v>
       </c>
       <c r="W4">
-        <v>1.000804455029169</v>
+        <v>0.9907548587884368</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.013890409468209</v>
+        <v>0.9900620150673848</v>
       </c>
       <c r="D5">
-        <v>0.9858907144437271</v>
+        <v>0.8967943293261448</v>
       </c>
       <c r="E5">
-        <v>1.059156922107634</v>
+        <v>0.9894883184636105</v>
       </c>
       <c r="F5">
-        <v>1.059156922107634</v>
+        <v>0.9894883184636105</v>
       </c>
       <c r="G5">
-        <v>0.989357166819312</v>
+        <v>0.9499336291644206</v>
       </c>
       <c r="H5">
-        <v>1.00633071712673</v>
+        <v>1.084655841024258</v>
       </c>
       <c r="I5">
-        <v>0.9843358210631572</v>
+        <v>1.140744876226414</v>
       </c>
       <c r="J5">
-        <v>0.9956948813813081</v>
+        <v>0.8494397748625334</v>
       </c>
       <c r="K5">
-        <v>1.059156922107634</v>
+        <v>0.9894883184636105</v>
       </c>
       <c r="L5">
-        <v>0.9956948813813081</v>
+        <v>0.8494397748625334</v>
       </c>
       <c r="M5">
-        <v>0.9779617751290299</v>
+        <v>1.007141737493263</v>
       </c>
       <c r="N5">
-        <v>1.059156922107634</v>
+        <v>0.9894883184636105</v>
       </c>
       <c r="O5">
-        <v>0.9843358210631572</v>
+        <v>1.140744876226414</v>
       </c>
       <c r="P5">
-        <v>0.9900153512222327</v>
+        <v>0.9950923255444737</v>
       </c>
       <c r="Q5">
-        <v>0.9868464939412346</v>
+        <v>1.045339252695417</v>
       </c>
       <c r="R5">
-        <v>1.013062541517367</v>
+        <v>0.9932243231841861</v>
       </c>
       <c r="S5">
-        <v>0.9897959564212592</v>
+        <v>0.9800394267511227</v>
       </c>
       <c r="T5">
-        <v>1.013062541517367</v>
+        <v>0.9932243231841861</v>
       </c>
       <c r="U5">
-        <v>1.007136197842853</v>
+        <v>0.9824016496792447</v>
       </c>
       <c r="V5">
-        <v>1.017540342695809</v>
+        <v>0.983818983436118</v>
       </c>
       <c r="W5">
-        <v>1.001577300942389</v>
+        <v>0.9885325652035035</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.020185042023071</v>
+        <v>0.9893967323295463</v>
       </c>
       <c r="D6">
-        <v>0.9792631889486066</v>
+        <v>0.8812615936931828</v>
       </c>
       <c r="E6">
-        <v>1.086265267232081</v>
+        <v>0.9921831303977272</v>
       </c>
       <c r="F6">
-        <v>1.086265267232081</v>
+        <v>0.9921831303977272</v>
       </c>
       <c r="G6">
-        <v>0.9843302767069035</v>
+        <v>0.9417710294886369</v>
       </c>
       <c r="H6">
-        <v>1.009580667013567</v>
+        <v>1.097334383295456</v>
       </c>
       <c r="I6">
-        <v>0.9781742537745723</v>
+        <v>1.160064808636363</v>
       </c>
       <c r="J6">
-        <v>0.9938665846233086</v>
+        <v>0.8287270578068171</v>
       </c>
       <c r="K6">
-        <v>1.086265267232081</v>
+        <v>0.9921831303977272</v>
       </c>
       <c r="L6">
-        <v>0.9938665846233086</v>
+        <v>0.8287270578068171</v>
       </c>
       <c r="M6">
-        <v>0.9675159691619543</v>
+        <v>1.006338170397727</v>
       </c>
       <c r="N6">
-        <v>1.086265267232081</v>
+        <v>0.9921831303977272</v>
       </c>
       <c r="O6">
-        <v>0.9781742537745723</v>
+        <v>1.160064808636363</v>
       </c>
       <c r="P6">
-        <v>0.9860204191989405</v>
+        <v>0.9943959332215899</v>
       </c>
       <c r="Q6">
-        <v>0.9812522652407379</v>
+        <v>1.0509179190625</v>
       </c>
       <c r="R6">
-        <v>1.019435368543321</v>
+        <v>0.9936583322803023</v>
       </c>
       <c r="S6">
-        <v>0.9854570383682614</v>
+        <v>0.9768542986439389</v>
       </c>
       <c r="T6">
-        <v>1.019435368543321</v>
+        <v>0.9936583322803024</v>
       </c>
       <c r="U6">
-        <v>1.010659095584216</v>
+        <v>0.9806865065823861</v>
       </c>
       <c r="V6">
-        <v>1.025780329913789</v>
+        <v>0.9829858313454544</v>
       </c>
       <c r="W6">
-        <v>1.002397656185508</v>
+        <v>0.987134613255682</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998821283470487</v>
+        <v>1.072660636094053</v>
       </c>
       <c r="D7">
-        <v>0.9993720869409428</v>
+        <v>0.5804218402811083</v>
       </c>
       <c r="E7">
-        <v>0.9997625979937256</v>
+        <v>1.124040236921675</v>
       </c>
       <c r="F7">
-        <v>0.9997625979937256</v>
+        <v>1.124040236921675</v>
       </c>
       <c r="G7">
-        <v>0.9996895889947981</v>
+        <v>0.8549083132252616</v>
       </c>
       <c r="H7">
-        <v>1.000543209599094</v>
+        <v>1.28970598367889</v>
       </c>
       <c r="I7">
-        <v>1.000986371767127</v>
+        <v>1.370201423681862</v>
       </c>
       <c r="J7">
-        <v>0.9990697219279138</v>
+        <v>0.3394515257765027</v>
       </c>
       <c r="K7">
-        <v>0.9997625979937256</v>
+        <v>1.124040236921675</v>
       </c>
       <c r="L7">
-        <v>0.9990697219279138</v>
+        <v>0.3394515257765027</v>
       </c>
       <c r="M7">
-        <v>1.00010119688614</v>
+        <v>0.9620825356561519</v>
       </c>
       <c r="N7">
-        <v>0.9997625979937256</v>
+        <v>1.124040236921675</v>
       </c>
       <c r="O7">
-        <v>1.000986371767127</v>
+        <v>1.370201423681862</v>
       </c>
       <c r="P7">
-        <v>1.00002804684752</v>
+        <v>0.8548264747291822</v>
       </c>
       <c r="Q7">
-        <v>1.000337980380962</v>
+        <v>1.112554868453562</v>
       </c>
       <c r="R7">
-        <v>0.9999395638962554</v>
+        <v>0.944564395460013</v>
       </c>
       <c r="S7">
-        <v>0.9999152275632796</v>
+        <v>0.8548537542278752</v>
       </c>
       <c r="T7">
-        <v>0.9999395638962554</v>
+        <v>0.944564395460013</v>
       </c>
       <c r="U7">
-        <v>0.999877070170891</v>
+        <v>0.9221503749013252</v>
       </c>
       <c r="V7">
-        <v>0.9998541757354579</v>
+        <v>0.9625283473053952</v>
       </c>
       <c r="W7">
-        <v>0.9999258628070986</v>
+        <v>0.9491840619144379</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998258957608835</v>
+        <v>1.072117955009372</v>
       </c>
       <c r="D8">
-        <v>0.9982727561479944</v>
+        <v>0.5801477425201567</v>
       </c>
       <c r="E8">
-        <v>0.9996898892476953</v>
+        <v>1.123028197876798</v>
       </c>
       <c r="F8">
-        <v>0.9996898892476953</v>
+        <v>1.123028197876798</v>
       </c>
       <c r="G8">
-        <v>0.9991933817415414</v>
+        <v>0.8545696076823004</v>
       </c>
       <c r="H8">
-        <v>1.001412849582889</v>
+        <v>1.290179768012821</v>
       </c>
       <c r="I8">
-        <v>1.002394473898902</v>
+        <v>1.371585332876997</v>
       </c>
       <c r="J8">
-        <v>0.997421418383615</v>
+        <v>0.339183016162964</v>
       </c>
       <c r="K8">
-        <v>0.9996898892476953</v>
+        <v>1.123028197876798</v>
       </c>
       <c r="L8">
-        <v>0.997421418383615</v>
+        <v>0.339183016162964</v>
       </c>
       <c r="M8">
-        <v>1.000168353179532</v>
+        <v>0.9624627609472416</v>
       </c>
       <c r="N8">
-        <v>0.9996898892476953</v>
+        <v>1.123028197876798</v>
       </c>
       <c r="O8">
-        <v>1.002394473898902</v>
+        <v>1.371585332876997</v>
       </c>
       <c r="P8">
-        <v>0.9999079461412587</v>
+        <v>0.8553841745199804</v>
       </c>
       <c r="Q8">
-        <v>1.000793927820222</v>
+        <v>1.113077470279649</v>
       </c>
       <c r="R8">
-        <v>0.9998352605100709</v>
+        <v>0.9445988489722529</v>
       </c>
       <c r="S8">
-        <v>0.9996697580080195</v>
+        <v>0.8551126522407536</v>
       </c>
       <c r="T8">
-        <v>0.9998352605100709</v>
+        <v>0.9445988489722529</v>
       </c>
       <c r="U8">
-        <v>0.9996747908179385</v>
+        <v>0.9220915386497648</v>
       </c>
       <c r="V8">
-        <v>0.9996778105038899</v>
+        <v>0.9622788704951712</v>
       </c>
       <c r="W8">
-        <v>0.9997973772428815</v>
+        <v>0.9491592976360813</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999511865547378</v>
+        <v>1.071072138597722</v>
       </c>
       <c r="D9">
-        <v>0.9976921624683397</v>
+        <v>0.579619490200479</v>
       </c>
       <c r="E9">
-        <v>0.9997901013639848</v>
+        <v>1.12107635463111</v>
       </c>
       <c r="F9">
-        <v>0.9997901013639848</v>
+        <v>1.12107635463111</v>
       </c>
       <c r="G9">
-        <v>0.9990372055934977</v>
+        <v>0.8539097698422363</v>
       </c>
       <c r="H9">
-        <v>1.001803156761627</v>
+        <v>1.291098250384843</v>
       </c>
       <c r="I9">
-        <v>1.002909503100483</v>
+        <v>1.374212999372325</v>
       </c>
       <c r="J9">
-        <v>0.9964453436298707</v>
+        <v>0.3386654889819333</v>
       </c>
       <c r="K9">
-        <v>0.9997901013639848</v>
+        <v>1.12107635463111</v>
       </c>
       <c r="L9">
-        <v>0.9964453436298707</v>
+        <v>0.3386654889819333</v>
       </c>
       <c r="M9">
-        <v>1.000127244341979</v>
+        <v>0.9631991574819135</v>
       </c>
       <c r="N9">
-        <v>0.9997901013639848</v>
+        <v>1.12107635463111</v>
       </c>
       <c r="O9">
-        <v>1.002909503100483</v>
+        <v>1.374212999372325</v>
       </c>
       <c r="P9">
-        <v>0.9996774233651766</v>
+        <v>0.8564392441771291</v>
       </c>
       <c r="Q9">
-        <v>1.00097335434699</v>
+        <v>1.114061384607281</v>
       </c>
       <c r="R9">
-        <v>0.9997149826981127</v>
+        <v>0.9446516143284561</v>
       </c>
       <c r="S9">
-        <v>0.9994640174412837</v>
+        <v>0.8555960860654982</v>
       </c>
       <c r="T9">
-        <v>0.9997149826981128</v>
+        <v>0.9446516143284561</v>
       </c>
       <c r="U9">
-        <v>0.999545538421959</v>
+        <v>0.9219661532069012</v>
       </c>
       <c r="V9">
-        <v>0.9995944510103643</v>
+        <v>0.9617881934917432</v>
       </c>
       <c r="W9">
-        <v>0.999719487976815</v>
+        <v>0.9491067061865704</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9997022456024759</v>
+        <v>1.071178690543507</v>
       </c>
       <c r="D10">
-        <v>0.9949354015100674</v>
+        <v>0.5796733951620002</v>
       </c>
       <c r="E10">
-        <v>0.9993053944382768</v>
+        <v>1.121280756287459</v>
       </c>
       <c r="F10">
-        <v>0.9993053944382768</v>
+        <v>1.121280756287459</v>
       </c>
       <c r="G10">
-        <v>0.9977729909417702</v>
+        <v>0.8540028510299111</v>
       </c>
       <c r="H10">
-        <v>1.004051860431201</v>
+        <v>1.290984895105011</v>
       </c>
       <c r="I10">
-        <v>1.006709563269323</v>
+        <v>1.374088362625604</v>
       </c>
       <c r="J10">
-        <v>0.9923094057506371</v>
+        <v>0.3387184586865318</v>
       </c>
       <c r="K10">
-        <v>0.9993053944382768</v>
+        <v>1.121280756287459</v>
       </c>
       <c r="L10">
-        <v>0.9923094057506371</v>
+        <v>0.3387184586865318</v>
       </c>
       <c r="M10">
-        <v>1.000375772064097</v>
+        <v>0.9631108272598178</v>
       </c>
       <c r="N10">
-        <v>0.9993053944382768</v>
+        <v>1.121280756287459</v>
       </c>
       <c r="O10">
-        <v>1.006709563269323</v>
+        <v>1.374088362625604</v>
       </c>
       <c r="P10">
-        <v>0.9995094845099803</v>
+        <v>0.856403410656068</v>
       </c>
       <c r="Q10">
-        <v>1.002241277105547</v>
+        <v>1.114045606827758</v>
       </c>
       <c r="R10">
-        <v>0.9994414544860791</v>
+        <v>0.9446958591998649</v>
       </c>
       <c r="S10">
-        <v>0.998930653320577</v>
+        <v>0.8556032241140157</v>
       </c>
       <c r="T10">
-        <v>0.9994414544860791</v>
+        <v>0.9446958591998649</v>
       </c>
       <c r="U10">
-        <v>0.9990243386000019</v>
+        <v>0.9220226071573765</v>
       </c>
       <c r="V10">
-        <v>0.9990805497676568</v>
+        <v>0.961874236983393</v>
       </c>
       <c r="W10">
-        <v>0.9993953292509811</v>
+        <v>0.9491297795874803</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000001291884228</v>
+        <v>1.004999639038635</v>
       </c>
       <c r="D11">
-        <v>0.9917682481732576</v>
+        <v>0.9945177927126422</v>
       </c>
       <c r="E11">
-        <v>0.9997819117626465</v>
+        <v>1.018325846367171</v>
       </c>
       <c r="F11">
-        <v>0.9997819117626465</v>
+        <v>1.018325846367171</v>
       </c>
       <c r="G11">
-        <v>0.9965827805488233</v>
+        <v>0.9969375506285837</v>
       </c>
       <c r="H11">
-        <v>1.00633787450157</v>
+        <v>1.002390551793556</v>
       </c>
       <c r="I11">
-        <v>1.009966695237587</v>
+        <v>0.9953876171527147</v>
       </c>
       <c r="J11">
-        <v>0.9873678988866682</v>
+        <v>0.9959378769054452</v>
       </c>
       <c r="K11">
-        <v>0.9997819117626465</v>
+        <v>1.018325846367171</v>
       </c>
       <c r="L11">
-        <v>0.9873678988866682</v>
+        <v>0.9959378769054452</v>
       </c>
       <c r="M11">
-        <v>1.000286567777674</v>
+        <v>0.9932280107118726</v>
       </c>
       <c r="N11">
-        <v>0.9997819117626465</v>
+        <v>1.018325846367171</v>
       </c>
       <c r="O11">
-        <v>1.009966695237587</v>
+        <v>0.9953876171527147</v>
       </c>
       <c r="P11">
-        <v>0.9986672970621275</v>
+        <v>0.99566274702908</v>
       </c>
       <c r="Q11">
-        <v>1.003274737893205</v>
+        <v>0.9961625838906492</v>
       </c>
       <c r="R11">
-        <v>0.9990388352956338</v>
+        <v>1.00321711347511</v>
       </c>
       <c r="S11">
-        <v>0.9979724582243595</v>
+        <v>0.9960876815622478</v>
       </c>
       <c r="T11">
-        <v>0.9990388352956338</v>
+        <v>1.00321711347511</v>
       </c>
       <c r="U11">
-        <v>0.9984248216089312</v>
+        <v>1.001647222763479</v>
       </c>
       <c r="V11">
-        <v>0.9986962396396744</v>
+        <v>1.004982947484217</v>
       </c>
       <c r="W11">
-        <v>0.9990116585965568</v>
+        <v>1.000215610663827</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.033949634534164</v>
+        <v>1.002227633507437</v>
       </c>
       <c r="D12">
-        <v>1.161706436847033</v>
+        <v>0.996086572755606</v>
       </c>
       <c r="E12">
-        <v>1.217105385593193</v>
+        <v>1.008702224818198</v>
       </c>
       <c r="F12">
-        <v>1.217105385593193</v>
+        <v>1.008702224818198</v>
       </c>
       <c r="G12">
-        <v>1.029849820501225</v>
+        <v>0.9978366061955019</v>
       </c>
       <c r="H12">
-        <v>0.872903140839448</v>
+        <v>1.002243428322628</v>
       </c>
       <c r="I12">
-        <v>0.7128589889762401</v>
+        <v>0.9996104077125991</v>
       </c>
       <c r="J12">
-        <v>1.348156913744501</v>
+        <v>0.996311820173584</v>
       </c>
       <c r="K12">
-        <v>1.217105385593193</v>
+        <v>1.008702224818198</v>
       </c>
       <c r="L12">
-        <v>1.348156913744501</v>
+        <v>0.996311820173584</v>
       </c>
       <c r="M12">
-        <v>0.9074179376914521</v>
+        <v>0.9968052101529868</v>
       </c>
       <c r="N12">
-        <v>1.217105385593193</v>
+        <v>1.008702224818198</v>
       </c>
       <c r="O12">
-        <v>0.7128589889762401</v>
+        <v>0.9996104077125991</v>
       </c>
       <c r="P12">
-        <v>1.030507951360371</v>
+        <v>0.9979611139430915</v>
       </c>
       <c r="Q12">
-        <v>0.8713544047387325</v>
+        <v>0.9987235069540505</v>
       </c>
       <c r="R12">
-        <v>1.092707096104645</v>
+        <v>1.001541484234794</v>
       </c>
       <c r="S12">
-        <v>1.030288574407322</v>
+        <v>0.9979196113605616</v>
       </c>
       <c r="T12">
-        <v>1.092707096104645</v>
+        <v>1.001541484234794</v>
       </c>
       <c r="U12">
-        <v>1.07699277720379</v>
+        <v>1.000615264724971</v>
       </c>
       <c r="V12">
-        <v>1.10501529888167</v>
+        <v>1.002232656743616</v>
       </c>
       <c r="W12">
-        <v>1.035493532340907</v>
+        <v>0.9999779879548176</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9761776961990948</v>
+        <v>1.007614853795951</v>
       </c>
       <c r="D13">
-        <v>0.9950978225115312</v>
+        <v>0.9873343356540372</v>
       </c>
       <c r="E13">
-        <v>0.828940782361655</v>
+        <v>1.031049504059212</v>
       </c>
       <c r="F13">
-        <v>0.828940782361655</v>
+        <v>1.031049504059212</v>
       </c>
       <c r="G13">
-        <v>1.027290513415777</v>
+        <v>0.9924650654655892</v>
       </c>
       <c r="H13">
-        <v>1.00892995531492</v>
+        <v>1.007247539838849</v>
       </c>
       <c r="I13">
-        <v>1.079846537532788</v>
+        <v>0.9975582885402163</v>
       </c>
       <c r="J13">
-        <v>0.9225558066167451</v>
+        <v>0.9893748551690275</v>
       </c>
       <c r="K13">
-        <v>0.828940782361655</v>
+        <v>1.031049504059212</v>
       </c>
       <c r="L13">
-        <v>0.9225558066167451</v>
+        <v>0.9893748551690275</v>
       </c>
       <c r="M13">
-        <v>1.062067058705677</v>
+        <v>0.9885138715257641</v>
       </c>
       <c r="N13">
-        <v>0.828940782361655</v>
+        <v>1.031049504059212</v>
       </c>
       <c r="O13">
-        <v>1.079846537532788</v>
+        <v>0.9975582885402163</v>
       </c>
       <c r="P13">
-        <v>1.001201172074767</v>
+        <v>0.9934665718546218</v>
       </c>
       <c r="Q13">
-        <v>1.053568525474283</v>
+        <v>0.9950116770029027</v>
       </c>
       <c r="R13">
-        <v>0.9437810421703962</v>
+        <v>1.005994215922818</v>
       </c>
       <c r="S13">
-        <v>1.009897619188437</v>
+        <v>0.9931327363916109</v>
       </c>
       <c r="T13">
-        <v>0.9437810421703962</v>
+        <v>1.005994215922818</v>
       </c>
       <c r="U13">
-        <v>0.9646584099817415</v>
+        <v>1.002611928308511</v>
       </c>
       <c r="V13">
-        <v>0.9375148844577241</v>
+        <v>1.008299443458651</v>
       </c>
       <c r="W13">
-        <v>0.9876132715822734</v>
+        <v>1.000144789256081</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9219487779012226</v>
+        <v>1.010447669434319</v>
       </c>
       <c r="D14">
-        <v>1.295290460465664</v>
+        <v>0.9891442552949965</v>
       </c>
       <c r="E14">
-        <v>0.7015374210446996</v>
+        <v>1.04400416256696</v>
       </c>
       <c r="F14">
-        <v>0.7015374210446996</v>
+        <v>1.04400416256696</v>
       </c>
       <c r="G14">
-        <v>1.136236563745995</v>
+        <v>0.9920485307226823</v>
       </c>
       <c r="H14">
-        <v>0.805875710571074</v>
+        <v>1.004900656894831</v>
       </c>
       <c r="I14">
-        <v>0.8310496254017812</v>
+        <v>0.9885372041366185</v>
       </c>
       <c r="J14">
-        <v>1.391790061090267</v>
+        <v>0.9960503833471434</v>
       </c>
       <c r="K14">
-        <v>0.7015374210446996</v>
+        <v>1.04400416256696</v>
       </c>
       <c r="L14">
-        <v>1.391790061090267</v>
+        <v>0.9960503833471434</v>
       </c>
       <c r="M14">
-        <v>1.0955653914674</v>
+        <v>0.9836514623768294</v>
       </c>
       <c r="N14">
-        <v>0.7015374210446996</v>
+        <v>1.04400416256696</v>
       </c>
       <c r="O14">
-        <v>0.8310496254017812</v>
+        <v>0.9885372041366185</v>
       </c>
       <c r="P14">
-        <v>1.111419843246024</v>
+        <v>0.992293793741881</v>
       </c>
       <c r="Q14">
-        <v>0.9836430945738879</v>
+        <v>0.9902928674296504</v>
       </c>
       <c r="R14">
-        <v>0.9747923691789159</v>
+        <v>1.009530583350241</v>
       </c>
       <c r="S14">
-        <v>1.119692083412681</v>
+        <v>0.9922120394021481</v>
       </c>
       <c r="T14">
-        <v>0.9747923691789159</v>
+        <v>1.009530583350241</v>
       </c>
       <c r="U14">
-        <v>1.015153417820686</v>
+        <v>1.005160070193351</v>
       </c>
       <c r="V14">
-        <v>0.9524302184654884</v>
+        <v>1.012928888668073</v>
       </c>
       <c r="W14">
-        <v>1.022411751461013</v>
+        <v>1.001098040596798</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9325502504588224</v>
+        <v>1.00387172680866</v>
       </c>
       <c r="D15">
-        <v>1.074553356201719</v>
+        <v>0.9962865034509609</v>
       </c>
       <c r="E15">
-        <v>0.9374712188066278</v>
+        <v>1.016421340582037</v>
       </c>
       <c r="F15">
-        <v>0.9374712188066278</v>
+        <v>1.016421340582037</v>
       </c>
       <c r="G15">
-        <v>0.9766400781447774</v>
+        <v>0.9971344667981248</v>
       </c>
       <c r="H15">
-        <v>0.9857736381519674</v>
+        <v>1.001605103480004</v>
       </c>
       <c r="I15">
-        <v>1.026561633756653</v>
+        <v>0.9953852549261133</v>
       </c>
       <c r="J15">
-        <v>1.193867717543105</v>
+        <v>0.9991325295795968</v>
       </c>
       <c r="K15">
-        <v>0.9374712188066278</v>
+        <v>1.016421340582037</v>
       </c>
       <c r="L15">
-        <v>1.193867717543105</v>
+        <v>0.9991325295795968</v>
       </c>
       <c r="M15">
-        <v>1.011818744426101</v>
+        <v>0.9938585013301442</v>
       </c>
       <c r="N15">
-        <v>0.9374712188066278</v>
+        <v>1.016421340582037</v>
       </c>
       <c r="O15">
-        <v>1.026561633756653</v>
+        <v>0.9953852549261133</v>
       </c>
       <c r="P15">
-        <v>1.110214675649879</v>
+        <v>0.997258892252855</v>
       </c>
       <c r="Q15">
-        <v>1.001600855950715</v>
+        <v>0.996259860862119</v>
       </c>
       <c r="R15">
-        <v>1.052633523368795</v>
+        <v>1.003646375029249</v>
       </c>
       <c r="S15">
-        <v>1.065689809814845</v>
+        <v>0.9972174171012783</v>
       </c>
       <c r="T15">
-        <v>1.052633523368795</v>
+        <v>1.003646375029249</v>
       </c>
       <c r="U15">
-        <v>1.033635162062791</v>
+        <v>1.002018397971468</v>
       </c>
       <c r="V15">
-        <v>1.014402373411558</v>
+        <v>1.004898986493582</v>
       </c>
       <c r="W15">
-        <v>1.017404579686222</v>
+        <v>1.000461928369455</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.072336514318615</v>
+        <v>1.007556517055868</v>
       </c>
       <c r="D16">
-        <v>0.9225607601385811</v>
+        <v>0.9927496651930401</v>
       </c>
       <c r="E16">
-        <v>1.29686017042893</v>
+        <v>1.03123331480209</v>
       </c>
       <c r="F16">
-        <v>1.29686017042893</v>
+        <v>1.03123331480209</v>
       </c>
       <c r="G16">
-        <v>0.9467880673625586</v>
+        <v>0.9947046624332286</v>
       </c>
       <c r="H16">
-        <v>1.034788200111894</v>
+        <v>1.003029873997071</v>
       </c>
       <c r="I16">
-        <v>0.9244589431065839</v>
+        <v>0.9911151812728898</v>
       </c>
       <c r="J16">
-        <v>0.9629752241015628</v>
+        <v>0.9976467536335345</v>
       </c>
       <c r="K16">
-        <v>1.29686017042893</v>
+        <v>1.03123331480209</v>
       </c>
       <c r="L16">
-        <v>0.9629752241015628</v>
+        <v>0.9976467536335345</v>
       </c>
       <c r="M16">
-        <v>0.8904687191705125</v>
+        <v>0.988399671845633</v>
       </c>
       <c r="N16">
-        <v>1.29686017042893</v>
+        <v>1.03123331480209</v>
       </c>
       <c r="O16">
-        <v>0.9244589431065839</v>
+        <v>0.9911151812728898</v>
       </c>
       <c r="P16">
-        <v>0.9437170836040734</v>
+        <v>0.9943809674532121</v>
       </c>
       <c r="Q16">
-        <v>0.9356235052345713</v>
+        <v>0.9929099218530593</v>
       </c>
       <c r="R16">
-        <v>1.061431445879026</v>
+        <v>1.006665083236171</v>
       </c>
       <c r="S16">
-        <v>0.9447407448569018</v>
+        <v>0.9944888657798843</v>
       </c>
       <c r="T16">
-        <v>1.061431445879026</v>
+        <v>1.006665083236171</v>
       </c>
       <c r="U16">
-        <v>1.032770601249909</v>
+        <v>1.003674978035436</v>
       </c>
       <c r="V16">
-        <v>1.085588515085713</v>
+        <v>1.009186645388767</v>
       </c>
       <c r="W16">
-        <v>1.006404574842405</v>
+        <v>1.000804455029169</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.045383150227498</v>
+        <v>1.013890409468209</v>
       </c>
       <c r="D17">
-        <v>0.9249055361032003</v>
+        <v>0.9858907144437271</v>
       </c>
       <c r="E17">
-        <v>1.192260723911668</v>
+        <v>1.059156922107634</v>
       </c>
       <c r="F17">
-        <v>1.192260723911668</v>
+        <v>1.059156922107634</v>
       </c>
       <c r="G17">
-        <v>0.9536650857880967</v>
+        <v>0.989357166819312</v>
       </c>
       <c r="H17">
-        <v>1.042466327861212</v>
+        <v>1.00633071712673</v>
       </c>
       <c r="I17">
-        <v>0.9830096790427154</v>
+        <v>0.9843358210631572</v>
       </c>
       <c r="J17">
-        <v>0.9395512277997345</v>
+        <v>0.9956948813813081</v>
       </c>
       <c r="K17">
-        <v>1.192260723911668</v>
+        <v>1.059156922107634</v>
       </c>
       <c r="L17">
-        <v>0.9395512277997345</v>
+        <v>0.9956948813813081</v>
       </c>
       <c r="M17">
-        <v>0.9300183128185383</v>
+        <v>0.9779617751290299</v>
       </c>
       <c r="N17">
-        <v>1.192260723911668</v>
+        <v>1.059156922107634</v>
       </c>
       <c r="O17">
-        <v>0.9830096790427154</v>
+        <v>0.9843358210631572</v>
       </c>
       <c r="P17">
-        <v>0.9612804534212249</v>
+        <v>0.9900153512222327</v>
       </c>
       <c r="Q17">
-        <v>0.968337382415406</v>
+        <v>0.9868464939412346</v>
       </c>
       <c r="R17">
-        <v>1.038273876918039</v>
+        <v>1.013062541517367</v>
       </c>
       <c r="S17">
-        <v>0.9587419975435155</v>
+        <v>0.9897959564212592</v>
       </c>
       <c r="T17">
-        <v>1.038273876918039</v>
+        <v>1.013062541517367</v>
       </c>
       <c r="U17">
-        <v>1.017121679135554</v>
+        <v>1.007136197842853</v>
       </c>
       <c r="V17">
-        <v>1.052149488090776</v>
+        <v>1.017540342695809</v>
       </c>
       <c r="W17">
-        <v>1.001407505444083</v>
+        <v>1.001577300942389</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9920527470682139</v>
+        <v>1.020185042023071</v>
       </c>
       <c r="D18">
-        <v>0.9300757341463965</v>
+        <v>0.9792631889486066</v>
       </c>
       <c r="E18">
-        <v>0.9845217857265035</v>
+        <v>1.086265267232081</v>
       </c>
       <c r="F18">
-        <v>0.9845217857265035</v>
+        <v>1.086265267232081</v>
       </c>
       <c r="G18">
-        <v>0.9677451444960421</v>
+        <v>0.9843302767069035</v>
       </c>
       <c r="H18">
-        <v>1.0571926213585</v>
+        <v>1.009580667013567</v>
       </c>
       <c r="I18">
-        <v>1.09837230081805</v>
+        <v>0.9781742537745723</v>
       </c>
       <c r="J18">
-        <v>0.8935146182478862</v>
+        <v>0.9938665846233086</v>
       </c>
       <c r="K18">
-        <v>0.9845217857265035</v>
+        <v>1.086265267232081</v>
       </c>
       <c r="L18">
-        <v>0.8935146182478862</v>
+        <v>0.9938665846233086</v>
       </c>
       <c r="M18">
-        <v>1.008560536492494</v>
+        <v>0.9675159691619543</v>
       </c>
       <c r="N18">
-        <v>0.9845217857265035</v>
+        <v>1.086265267232081</v>
       </c>
       <c r="O18">
-        <v>1.09837230081805</v>
+        <v>0.9781742537745723</v>
       </c>
       <c r="P18">
-        <v>0.9959434595329684</v>
+        <v>0.9860204191989405</v>
       </c>
       <c r="Q18">
-        <v>1.033058722657046</v>
+        <v>0.9812522652407379</v>
       </c>
       <c r="R18">
-        <v>0.9921362349308134</v>
+        <v>1.019435368543321</v>
       </c>
       <c r="S18">
-        <v>0.9865440211873263</v>
+        <v>0.9854570383682614</v>
       </c>
       <c r="T18">
-        <v>0.9921362349308134</v>
+        <v>1.019435368543321</v>
       </c>
       <c r="U18">
-        <v>0.9860384623221206</v>
+        <v>1.010659095584216</v>
       </c>
       <c r="V18">
-        <v>0.9857351270029971</v>
+        <v>1.025780329913789</v>
       </c>
       <c r="W18">
-        <v>0.9915044360442609</v>
+        <v>1.002397656185508</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9785751432987887</v>
+        <v>0.9998821283470487</v>
       </c>
       <c r="D19">
-        <v>0.9163596220995974</v>
+        <v>0.9993720869409428</v>
       </c>
       <c r="E19">
-        <v>0.9624967610013692</v>
+        <v>0.9997625979937256</v>
       </c>
       <c r="F19">
-        <v>0.9624967610013692</v>
+        <v>0.9997625979937256</v>
       </c>
       <c r="G19">
-        <v>0.9544469059718588</v>
+        <v>0.9996895889947981</v>
       </c>
       <c r="H19">
-        <v>1.075389940565219</v>
+        <v>1.000543209599094</v>
       </c>
       <c r="I19">
-        <v>1.139876858418984</v>
+        <v>1.000986371767127</v>
       </c>
       <c r="J19">
-        <v>0.8811225654583277</v>
+        <v>0.9990697219279138</v>
       </c>
       <c r="K19">
-        <v>0.9624967610013692</v>
+        <v>0.9997625979937256</v>
       </c>
       <c r="L19">
-        <v>0.8811225654583277</v>
+        <v>0.9990697219279138</v>
       </c>
       <c r="M19">
-        <v>1.01591441300503</v>
+        <v>1.00010119688614</v>
       </c>
       <c r="N19">
-        <v>0.9624967610013692</v>
+        <v>0.9997625979937256</v>
       </c>
       <c r="O19">
-        <v>1.139876858418984</v>
+        <v>1.000986371767127</v>
       </c>
       <c r="P19">
-        <v>1.010499711938656</v>
+        <v>1.00002804684752</v>
       </c>
       <c r="Q19">
-        <v>1.047161882195422</v>
+        <v>1.000337980380962</v>
       </c>
       <c r="R19">
-        <v>0.9944987282928937</v>
+        <v>0.9999395638962554</v>
       </c>
       <c r="S19">
-        <v>0.9918154432830568</v>
+        <v>0.9999152275632796</v>
       </c>
       <c r="T19">
-        <v>0.9944987282928937</v>
+        <v>0.9999395638962554</v>
       </c>
       <c r="U19">
-        <v>0.9844857727126349</v>
+        <v>0.999877070170891</v>
       </c>
       <c r="V19">
-        <v>0.9800879703703818</v>
+        <v>0.9998541757354579</v>
       </c>
       <c r="W19">
-        <v>0.9905227762273969</v>
+        <v>0.9999258628070986</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999265387079517</v>
+        <v>0.9998258957608835</v>
       </c>
       <c r="D20">
-        <v>1.000101587856418</v>
+        <v>0.9982727561479944</v>
       </c>
       <c r="E20">
-        <v>1.00083840824404</v>
+        <v>0.9996898892476953</v>
       </c>
       <c r="F20">
-        <v>1.00083840824404</v>
+        <v>0.9996898892476953</v>
       </c>
       <c r="G20">
-        <v>0.9997040263101528</v>
+        <v>0.9991933817415414</v>
       </c>
       <c r="H20">
-        <v>0.9999987020581944</v>
+        <v>1.001412849582889</v>
       </c>
       <c r="I20">
-        <v>0.9997786757532786</v>
+        <v>1.002394473898902</v>
       </c>
       <c r="J20">
-        <v>1.000786003710524</v>
+        <v>0.997421418383615</v>
       </c>
       <c r="K20">
-        <v>1.00083840824404</v>
+        <v>0.9996898892476953</v>
       </c>
       <c r="L20">
-        <v>1.000786003710524</v>
+        <v>0.997421418383615</v>
       </c>
       <c r="M20">
-        <v>0.9997064938301876</v>
+        <v>1.000168353179532</v>
       </c>
       <c r="N20">
-        <v>1.00083840824404</v>
+        <v>0.9996898892476953</v>
       </c>
       <c r="O20">
-        <v>0.9997786757532786</v>
+        <v>1.002394473898902</v>
       </c>
       <c r="P20">
-        <v>1.000282339731901</v>
+        <v>0.9999079461412587</v>
       </c>
       <c r="Q20">
-        <v>0.9997413510317157</v>
+        <v>1.000793927820222</v>
       </c>
       <c r="R20">
-        <v>1.000467695902614</v>
+        <v>0.9998352605100709</v>
       </c>
       <c r="S20">
-        <v>1.000089568591318</v>
+        <v>0.9996697580080195</v>
       </c>
       <c r="T20">
-        <v>1.000467695902614</v>
+        <v>0.9998352605100709</v>
       </c>
       <c r="U20">
-        <v>1.000276778504499</v>
+        <v>0.9996747908179385</v>
       </c>
       <c r="V20">
-        <v>1.000389104452407</v>
+        <v>0.9996778105038899</v>
       </c>
       <c r="W20">
-        <v>1.000105054558843</v>
+        <v>0.9997973772428815</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9996897879347689</v>
+        <v>0.9999511865547378</v>
       </c>
       <c r="D21">
-        <v>0.9989486485769008</v>
+        <v>0.9976921624683397</v>
       </c>
       <c r="E21">
-        <v>0.9979613041418013</v>
+        <v>0.9997901013639848</v>
       </c>
       <c r="F21">
-        <v>0.9979613041418013</v>
+        <v>0.9997901013639848</v>
       </c>
       <c r="G21">
-        <v>0.999858094052237</v>
+        <v>0.9990372055934977</v>
       </c>
       <c r="H21">
-        <v>1.000934691535844</v>
+        <v>1.001803156761627</v>
       </c>
       <c r="I21">
-        <v>1.00222171654902</v>
+        <v>1.002909503100483</v>
       </c>
       <c r="J21">
-        <v>0.9976617490141108</v>
+        <v>0.9964453436298707</v>
       </c>
       <c r="K21">
-        <v>0.9979613041418013</v>
+        <v>0.9997901013639848</v>
       </c>
       <c r="L21">
-        <v>0.9976617490141108</v>
+        <v>0.9964453436298707</v>
       </c>
       <c r="M21">
-        <v>1.00070828851611</v>
+        <v>1.000127244341979</v>
       </c>
       <c r="N21">
-        <v>0.9979613041418013</v>
+        <v>0.9997901013639848</v>
       </c>
       <c r="O21">
-        <v>1.00222171654902</v>
+        <v>1.002909503100483</v>
       </c>
       <c r="P21">
-        <v>0.9999417327815656</v>
+        <v>0.9996774233651766</v>
       </c>
       <c r="Q21">
-        <v>1.001039905300629</v>
+        <v>1.00097335434699</v>
       </c>
       <c r="R21">
-        <v>0.9992815899016442</v>
+        <v>0.9997149826981127</v>
       </c>
       <c r="S21">
-        <v>0.9999138532051228</v>
+        <v>0.9994640174412837</v>
       </c>
       <c r="T21">
-        <v>0.9992815899016442</v>
+        <v>0.9997149826981128</v>
       </c>
       <c r="U21">
-        <v>0.9994257159392923</v>
+        <v>0.999545538421959</v>
       </c>
       <c r="V21">
-        <v>0.9991328335797942</v>
+        <v>0.9995944510103643</v>
       </c>
       <c r="W21">
-        <v>0.9997480350400991</v>
+        <v>0.999719487976815</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.001580981631601</v>
+        <v>0.9997022456024759</v>
       </c>
       <c r="D22">
-        <v>0.9995792895407628</v>
+        <v>0.9949354015100674</v>
       </c>
       <c r="E22">
-        <v>1.00893285724104</v>
+        <v>0.9993053944382768</v>
       </c>
       <c r="F22">
-        <v>1.00893285724104</v>
+        <v>0.9993053944382768</v>
       </c>
       <c r="G22">
-        <v>0.998642645885893</v>
+        <v>0.9977729909417702</v>
       </c>
       <c r="H22">
-        <v>0.9997968813840361</v>
+        <v>1.004051860431201</v>
       </c>
       <c r="I22">
-        <v>0.9961798494967055</v>
+        <v>1.006709563269323</v>
       </c>
       <c r="J22">
-        <v>1.002558626827209</v>
+        <v>0.9923094057506371</v>
       </c>
       <c r="K22">
-        <v>1.00893285724104</v>
+        <v>0.9993053944382768</v>
       </c>
       <c r="L22">
-        <v>1.002558626827209</v>
+        <v>0.9923094057506371</v>
       </c>
       <c r="M22">
-        <v>0.9968157784088828</v>
+        <v>1.000375772064097</v>
       </c>
       <c r="N22">
-        <v>1.00893285724104</v>
+        <v>0.9993053944382768</v>
       </c>
       <c r="O22">
-        <v>0.9961798494967055</v>
+        <v>1.006709563269323</v>
       </c>
       <c r="P22">
-        <v>0.9993692381619572</v>
+        <v>0.9995094845099803</v>
       </c>
       <c r="Q22">
-        <v>0.9974112476912993</v>
+        <v>1.002241277105547</v>
       </c>
       <c r="R22">
-        <v>1.002557111188318</v>
+        <v>0.9994414544860791</v>
       </c>
       <c r="S22">
-        <v>0.9991270407366025</v>
+        <v>0.998930653320577</v>
       </c>
       <c r="T22">
-        <v>1.002557111188318</v>
+        <v>0.9994414544860791</v>
       </c>
       <c r="U22">
-        <v>1.001578494862712</v>
+        <v>0.9990243386000019</v>
       </c>
       <c r="V22">
-        <v>1.003049367338378</v>
+        <v>0.9990805497676568</v>
       </c>
       <c r="W22">
-        <v>1.000510863802016</v>
+        <v>0.9993953292509811</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000001291884228</v>
+      </c>
+      <c r="D23">
+        <v>0.9917682481732576</v>
+      </c>
+      <c r="E23">
+        <v>0.9997819117626465</v>
+      </c>
+      <c r="F23">
+        <v>0.9997819117626465</v>
+      </c>
+      <c r="G23">
+        <v>0.9965827805488233</v>
+      </c>
+      <c r="H23">
+        <v>1.00633787450157</v>
+      </c>
+      <c r="I23">
+        <v>1.009966695237587</v>
+      </c>
+      <c r="J23">
+        <v>0.9873678988866682</v>
+      </c>
+      <c r="K23">
+        <v>0.9997819117626465</v>
+      </c>
+      <c r="L23">
+        <v>0.9873678988866682</v>
+      </c>
+      <c r="M23">
+        <v>1.000286567777674</v>
+      </c>
+      <c r="N23">
+        <v>0.9997819117626465</v>
+      </c>
+      <c r="O23">
+        <v>1.009966695237587</v>
+      </c>
+      <c r="P23">
+        <v>0.9986672970621275</v>
+      </c>
+      <c r="Q23">
+        <v>1.003274737893205</v>
+      </c>
+      <c r="R23">
+        <v>0.9990388352956338</v>
+      </c>
+      <c r="S23">
+        <v>0.9979724582243595</v>
+      </c>
+      <c r="T23">
+        <v>0.9990388352956338</v>
+      </c>
+      <c r="U23">
+        <v>0.9984248216089312</v>
+      </c>
+      <c r="V23">
+        <v>0.9986962396396744</v>
+      </c>
+      <c r="W23">
+        <v>0.9990116585965568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.033949634534164</v>
+      </c>
+      <c r="D24">
+        <v>1.161706436847033</v>
+      </c>
+      <c r="E24">
+        <v>1.217105385593193</v>
+      </c>
+      <c r="F24">
+        <v>1.217105385593193</v>
+      </c>
+      <c r="G24">
+        <v>1.029849820501225</v>
+      </c>
+      <c r="H24">
+        <v>0.872903140839448</v>
+      </c>
+      <c r="I24">
+        <v>0.7128589889762401</v>
+      </c>
+      <c r="J24">
+        <v>1.348156913744501</v>
+      </c>
+      <c r="K24">
+        <v>1.217105385593193</v>
+      </c>
+      <c r="L24">
+        <v>1.348156913744501</v>
+      </c>
+      <c r="M24">
+        <v>0.9074179376914521</v>
+      </c>
+      <c r="N24">
+        <v>1.217105385593193</v>
+      </c>
+      <c r="O24">
+        <v>0.7128589889762401</v>
+      </c>
+      <c r="P24">
+        <v>1.030507951360371</v>
+      </c>
+      <c r="Q24">
+        <v>0.8713544047387325</v>
+      </c>
+      <c r="R24">
+        <v>1.092707096104645</v>
+      </c>
+      <c r="S24">
+        <v>1.030288574407322</v>
+      </c>
+      <c r="T24">
+        <v>1.092707096104645</v>
+      </c>
+      <c r="U24">
+        <v>1.07699277720379</v>
+      </c>
+      <c r="V24">
+        <v>1.10501529888167</v>
+      </c>
+      <c r="W24">
+        <v>1.035493532340907</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9761776961990948</v>
+      </c>
+      <c r="D25">
+        <v>0.9950978225115312</v>
+      </c>
+      <c r="E25">
+        <v>0.828940782361655</v>
+      </c>
+      <c r="F25">
+        <v>0.828940782361655</v>
+      </c>
+      <c r="G25">
+        <v>1.027290513415777</v>
+      </c>
+      <c r="H25">
+        <v>1.00892995531492</v>
+      </c>
+      <c r="I25">
+        <v>1.079846537532788</v>
+      </c>
+      <c r="J25">
+        <v>0.9225558066167451</v>
+      </c>
+      <c r="K25">
+        <v>0.828940782361655</v>
+      </c>
+      <c r="L25">
+        <v>0.9225558066167451</v>
+      </c>
+      <c r="M25">
+        <v>1.062067058705677</v>
+      </c>
+      <c r="N25">
+        <v>0.828940782361655</v>
+      </c>
+      <c r="O25">
+        <v>1.079846537532788</v>
+      </c>
+      <c r="P25">
+        <v>1.001201172074767</v>
+      </c>
+      <c r="Q25">
+        <v>1.053568525474283</v>
+      </c>
+      <c r="R25">
+        <v>0.9437810421703962</v>
+      </c>
+      <c r="S25">
+        <v>1.009897619188437</v>
+      </c>
+      <c r="T25">
+        <v>0.9437810421703962</v>
+      </c>
+      <c r="U25">
+        <v>0.9646584099817415</v>
+      </c>
+      <c r="V25">
+        <v>0.9375148844577241</v>
+      </c>
+      <c r="W25">
+        <v>0.9876132715822734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9219487779012226</v>
+      </c>
+      <c r="D26">
+        <v>1.295290460465664</v>
+      </c>
+      <c r="E26">
+        <v>0.7015374210446996</v>
+      </c>
+      <c r="F26">
+        <v>0.7015374210446996</v>
+      </c>
+      <c r="G26">
+        <v>1.136236563745995</v>
+      </c>
+      <c r="H26">
+        <v>0.805875710571074</v>
+      </c>
+      <c r="I26">
+        <v>0.8310496254017812</v>
+      </c>
+      <c r="J26">
+        <v>1.391790061090267</v>
+      </c>
+      <c r="K26">
+        <v>0.7015374210446996</v>
+      </c>
+      <c r="L26">
+        <v>1.391790061090267</v>
+      </c>
+      <c r="M26">
+        <v>1.0955653914674</v>
+      </c>
+      <c r="N26">
+        <v>0.7015374210446996</v>
+      </c>
+      <c r="O26">
+        <v>0.8310496254017812</v>
+      </c>
+      <c r="P26">
+        <v>1.111419843246024</v>
+      </c>
+      <c r="Q26">
+        <v>0.9836430945738879</v>
+      </c>
+      <c r="R26">
+        <v>0.9747923691789159</v>
+      </c>
+      <c r="S26">
+        <v>1.119692083412681</v>
+      </c>
+      <c r="T26">
+        <v>0.9747923691789159</v>
+      </c>
+      <c r="U26">
+        <v>1.015153417820686</v>
+      </c>
+      <c r="V26">
+        <v>0.9524302184654884</v>
+      </c>
+      <c r="W26">
+        <v>1.022411751461013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9325502504588224</v>
+      </c>
+      <c r="D27">
+        <v>1.074553356201719</v>
+      </c>
+      <c r="E27">
+        <v>0.9374712188066278</v>
+      </c>
+      <c r="F27">
+        <v>0.9374712188066278</v>
+      </c>
+      <c r="G27">
+        <v>0.9766400781447774</v>
+      </c>
+      <c r="H27">
+        <v>0.9857736381519674</v>
+      </c>
+      <c r="I27">
+        <v>1.026561633756653</v>
+      </c>
+      <c r="J27">
+        <v>1.193867717543105</v>
+      </c>
+      <c r="K27">
+        <v>0.9374712188066278</v>
+      </c>
+      <c r="L27">
+        <v>1.193867717543105</v>
+      </c>
+      <c r="M27">
+        <v>1.011818744426101</v>
+      </c>
+      <c r="N27">
+        <v>0.9374712188066278</v>
+      </c>
+      <c r="O27">
+        <v>1.026561633756653</v>
+      </c>
+      <c r="P27">
+        <v>1.110214675649879</v>
+      </c>
+      <c r="Q27">
+        <v>1.001600855950715</v>
+      </c>
+      <c r="R27">
+        <v>1.052633523368795</v>
+      </c>
+      <c r="S27">
+        <v>1.065689809814845</v>
+      </c>
+      <c r="T27">
+        <v>1.052633523368795</v>
+      </c>
+      <c r="U27">
+        <v>1.033635162062791</v>
+      </c>
+      <c r="V27">
+        <v>1.014402373411558</v>
+      </c>
+      <c r="W27">
+        <v>1.017404579686222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.072336514318615</v>
+      </c>
+      <c r="D28">
+        <v>0.9225607601385811</v>
+      </c>
+      <c r="E28">
+        <v>1.29686017042893</v>
+      </c>
+      <c r="F28">
+        <v>1.29686017042893</v>
+      </c>
+      <c r="G28">
+        <v>0.9467880673625586</v>
+      </c>
+      <c r="H28">
+        <v>1.034788200111894</v>
+      </c>
+      <c r="I28">
+        <v>0.9244589431065839</v>
+      </c>
+      <c r="J28">
+        <v>0.9629752241015628</v>
+      </c>
+      <c r="K28">
+        <v>1.29686017042893</v>
+      </c>
+      <c r="L28">
+        <v>0.9629752241015628</v>
+      </c>
+      <c r="M28">
+        <v>0.8904687191705125</v>
+      </c>
+      <c r="N28">
+        <v>1.29686017042893</v>
+      </c>
+      <c r="O28">
+        <v>0.9244589431065839</v>
+      </c>
+      <c r="P28">
+        <v>0.9437170836040734</v>
+      </c>
+      <c r="Q28">
+        <v>0.9356235052345713</v>
+      </c>
+      <c r="R28">
+        <v>1.061431445879026</v>
+      </c>
+      <c r="S28">
+        <v>0.9447407448569018</v>
+      </c>
+      <c r="T28">
+        <v>1.061431445879026</v>
+      </c>
+      <c r="U28">
+        <v>1.032770601249909</v>
+      </c>
+      <c r="V28">
+        <v>1.085588515085713</v>
+      </c>
+      <c r="W28">
+        <v>1.006404574842405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.045383150227498</v>
+      </c>
+      <c r="D29">
+        <v>0.9249055361032003</v>
+      </c>
+      <c r="E29">
+        <v>1.192260723911668</v>
+      </c>
+      <c r="F29">
+        <v>1.192260723911668</v>
+      </c>
+      <c r="G29">
+        <v>0.9536650857880967</v>
+      </c>
+      <c r="H29">
+        <v>1.042466327861212</v>
+      </c>
+      <c r="I29">
+        <v>0.9830096790427154</v>
+      </c>
+      <c r="J29">
+        <v>0.9395512277997345</v>
+      </c>
+      <c r="K29">
+        <v>1.192260723911668</v>
+      </c>
+      <c r="L29">
+        <v>0.9395512277997345</v>
+      </c>
+      <c r="M29">
+        <v>0.9300183128185383</v>
+      </c>
+      <c r="N29">
+        <v>1.192260723911668</v>
+      </c>
+      <c r="O29">
+        <v>0.9830096790427154</v>
+      </c>
+      <c r="P29">
+        <v>0.9612804534212249</v>
+      </c>
+      <c r="Q29">
+        <v>0.968337382415406</v>
+      </c>
+      <c r="R29">
+        <v>1.038273876918039</v>
+      </c>
+      <c r="S29">
+        <v>0.9587419975435155</v>
+      </c>
+      <c r="T29">
+        <v>1.038273876918039</v>
+      </c>
+      <c r="U29">
+        <v>1.017121679135554</v>
+      </c>
+      <c r="V29">
+        <v>1.052149488090776</v>
+      </c>
+      <c r="W29">
+        <v>1.001407505444083</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9920527470682139</v>
+      </c>
+      <c r="D30">
+        <v>0.9300757341463965</v>
+      </c>
+      <c r="E30">
+        <v>0.9845217857265035</v>
+      </c>
+      <c r="F30">
+        <v>0.9845217857265035</v>
+      </c>
+      <c r="G30">
+        <v>0.9677451444960421</v>
+      </c>
+      <c r="H30">
+        <v>1.0571926213585</v>
+      </c>
+      <c r="I30">
+        <v>1.09837230081805</v>
+      </c>
+      <c r="J30">
+        <v>0.8935146182478862</v>
+      </c>
+      <c r="K30">
+        <v>0.9845217857265035</v>
+      </c>
+      <c r="L30">
+        <v>0.8935146182478862</v>
+      </c>
+      <c r="M30">
+        <v>1.008560536492494</v>
+      </c>
+      <c r="N30">
+        <v>0.9845217857265035</v>
+      </c>
+      <c r="O30">
+        <v>1.09837230081805</v>
+      </c>
+      <c r="P30">
+        <v>0.9959434595329684</v>
+      </c>
+      <c r="Q30">
+        <v>1.033058722657046</v>
+      </c>
+      <c r="R30">
+        <v>0.9921362349308134</v>
+      </c>
+      <c r="S30">
+        <v>0.9865440211873263</v>
+      </c>
+      <c r="T30">
+        <v>0.9921362349308134</v>
+      </c>
+      <c r="U30">
+        <v>0.9860384623221206</v>
+      </c>
+      <c r="V30">
+        <v>0.9857351270029971</v>
+      </c>
+      <c r="W30">
+        <v>0.9915044360442609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9785751432987887</v>
+      </c>
+      <c r="D31">
+        <v>0.9163596220995974</v>
+      </c>
+      <c r="E31">
+        <v>0.9624967610013692</v>
+      </c>
+      <c r="F31">
+        <v>0.9624967610013692</v>
+      </c>
+      <c r="G31">
+        <v>0.9544469059718588</v>
+      </c>
+      <c r="H31">
+        <v>1.075389940565219</v>
+      </c>
+      <c r="I31">
+        <v>1.139876858418984</v>
+      </c>
+      <c r="J31">
+        <v>0.8811225654583277</v>
+      </c>
+      <c r="K31">
+        <v>0.9624967610013692</v>
+      </c>
+      <c r="L31">
+        <v>0.8811225654583277</v>
+      </c>
+      <c r="M31">
+        <v>1.01591441300503</v>
+      </c>
+      <c r="N31">
+        <v>0.9624967610013692</v>
+      </c>
+      <c r="O31">
+        <v>1.139876858418984</v>
+      </c>
+      <c r="P31">
+        <v>1.010499711938656</v>
+      </c>
+      <c r="Q31">
+        <v>1.047161882195422</v>
+      </c>
+      <c r="R31">
+        <v>0.9944987282928937</v>
+      </c>
+      <c r="S31">
+        <v>0.9918154432830568</v>
+      </c>
+      <c r="T31">
+        <v>0.9944987282928937</v>
+      </c>
+      <c r="U31">
+        <v>0.9844857727126349</v>
+      </c>
+      <c r="V31">
+        <v>0.9800879703703818</v>
+      </c>
+      <c r="W31">
+        <v>0.9905227762273969</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.101904251506849</v>
+      </c>
+      <c r="D32">
+        <v>0.9167814641095894</v>
+      </c>
+      <c r="E32">
+        <v>1.403178412876712</v>
+      </c>
+      <c r="F32">
+        <v>1.403178412876712</v>
+      </c>
+      <c r="G32">
+        <v>0.9405584327397262</v>
+      </c>
+      <c r="H32">
+        <v>1.028279855890411</v>
+      </c>
+      <c r="I32">
+        <v>0.8658982557534246</v>
+      </c>
+      <c r="J32">
+        <v>0.9785523473150687</v>
+      </c>
+      <c r="K32">
+        <v>1.403178412876712</v>
+      </c>
+      <c r="L32">
+        <v>0.9785523473150687</v>
+      </c>
+      <c r="M32">
+        <v>0.8503476847945206</v>
+      </c>
+      <c r="N32">
+        <v>1.403178412876712</v>
+      </c>
+      <c r="O32">
+        <v>0.8658982557534246</v>
+      </c>
+      <c r="P32">
+        <v>0.9222253015342466</v>
+      </c>
+      <c r="Q32">
+        <v>0.9032283442465754</v>
+      </c>
+      <c r="R32">
+        <v>1.082543005315069</v>
+      </c>
+      <c r="S32">
+        <v>0.9283363452694066</v>
+      </c>
+      <c r="T32">
+        <v>1.082543005315069</v>
+      </c>
+      <c r="U32">
+        <v>1.047046862171233</v>
+      </c>
+      <c r="V32">
+        <v>1.118273172312329</v>
+      </c>
+      <c r="W32">
+        <v>1.010687588123288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.050630331578947</v>
+      </c>
+      <c r="D33">
+        <v>0.8190911605263158</v>
+      </c>
+      <c r="E33">
+        <v>1.099792848421053</v>
+      </c>
+      <c r="F33">
+        <v>1.099792848421053</v>
+      </c>
+      <c r="G33">
+        <v>0.9561052968421052</v>
+      </c>
+      <c r="H33">
+        <v>1.099542388421053</v>
+      </c>
+      <c r="I33">
+        <v>1.111123873157895</v>
+      </c>
+      <c r="J33">
+        <v>0.669697714368421</v>
+      </c>
+      <c r="K33">
+        <v>1.099792848421053</v>
+      </c>
+      <c r="L33">
+        <v>0.669697714368421</v>
+      </c>
+      <c r="M33">
+        <v>0.9898064268421054</v>
+      </c>
+      <c r="N33">
+        <v>1.099792848421053</v>
+      </c>
+      <c r="O33">
+        <v>1.111123873157895</v>
+      </c>
+      <c r="P33">
+        <v>0.8904107937631578</v>
+      </c>
+      <c r="Q33">
+        <v>1.033614585</v>
+      </c>
+      <c r="R33">
+        <v>0.9602048119824561</v>
+      </c>
+      <c r="S33">
+        <v>0.9123089614561403</v>
+      </c>
+      <c r="T33">
+        <v>0.9602048119824561</v>
+      </c>
+      <c r="U33">
+        <v>0.9591799331973684</v>
+      </c>
+      <c r="V33">
+        <v>0.9873025162421053</v>
+      </c>
+      <c r="W33">
+        <v>0.9744737550197369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.06028958631579</v>
+      </c>
+      <c r="D34">
+        <v>0.5741731294736843</v>
+      </c>
+      <c r="E34">
+        <v>1.100960461052631</v>
+      </c>
+      <c r="F34">
+        <v>1.100960461052631</v>
+      </c>
+      <c r="G34">
+        <v>0.8471434842105265</v>
+      </c>
+      <c r="H34">
+        <v>1.300539889473684</v>
+      </c>
+      <c r="I34">
+        <v>1.401508647368421</v>
+      </c>
+      <c r="J34">
+        <v>0.3333299310526316</v>
+      </c>
+      <c r="K34">
+        <v>1.100960461052631</v>
+      </c>
+      <c r="L34">
+        <v>0.3333299310526316</v>
+      </c>
+      <c r="M34">
+        <v>0.9707725521052635</v>
+      </c>
+      <c r="N34">
+        <v>1.100960461052631</v>
+      </c>
+      <c r="O34">
+        <v>1.401508647368421</v>
+      </c>
+      <c r="P34">
+        <v>0.8674192892105264</v>
+      </c>
+      <c r="Q34">
+        <v>1.124326065789474</v>
+      </c>
+      <c r="R34">
+        <v>0.945266346491228</v>
+      </c>
+      <c r="S34">
+        <v>0.8606606875438597</v>
+      </c>
+      <c r="T34">
+        <v>0.945266346491228</v>
+      </c>
+      <c r="U34">
+        <v>0.9207356309210526</v>
+      </c>
+      <c r="V34">
+        <v>0.9567805969473684</v>
+      </c>
+      <c r="W34">
+        <v>0.948589710131579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9101295734298609</v>
+      </c>
+      <c r="D35">
+        <v>0.6942764105490954</v>
+      </c>
+      <c r="E35">
+        <v>0.8255712402562954</v>
+      </c>
+      <c r="F35">
+        <v>0.8255712402562954</v>
+      </c>
+      <c r="G35">
+        <v>0.8346181916493692</v>
+      </c>
+      <c r="H35">
+        <v>1.280236724522364</v>
+      </c>
+      <c r="I35">
+        <v>1.540020013310018</v>
+      </c>
+      <c r="J35">
+        <v>0.5567905117192362</v>
+      </c>
+      <c r="K35">
+        <v>0.8255712402562954</v>
+      </c>
+      <c r="L35">
+        <v>0.5567905117192362</v>
+      </c>
+      <c r="M35">
+        <v>1.071643881847428</v>
+      </c>
+      <c r="N35">
+        <v>0.8255712402562954</v>
+      </c>
+      <c r="O35">
+        <v>1.540020013310018</v>
+      </c>
+      <c r="P35">
+        <v>1.048405262514627</v>
+      </c>
+      <c r="Q35">
+        <v>1.187319102479694</v>
+      </c>
+      <c r="R35">
+        <v>0.9741272550951833</v>
+      </c>
+      <c r="S35">
+        <v>0.9771429055595412</v>
+      </c>
+      <c r="T35">
+        <v>0.9741272550951834</v>
+      </c>
+      <c r="U35">
+        <v>0.9392499892337298</v>
+      </c>
+      <c r="V35">
+        <v>0.9165142394382428</v>
+      </c>
+      <c r="W35">
+        <v>0.9641608184104586</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999265387079517</v>
+      </c>
+      <c r="D36">
+        <v>1.000101587856418</v>
+      </c>
+      <c r="E36">
+        <v>1.00083840824404</v>
+      </c>
+      <c r="F36">
+        <v>1.00083840824404</v>
+      </c>
+      <c r="G36">
+        <v>0.9997040263101528</v>
+      </c>
+      <c r="H36">
+        <v>0.9999987020581944</v>
+      </c>
+      <c r="I36">
+        <v>0.9997786757532786</v>
+      </c>
+      <c r="J36">
+        <v>1.000786003710524</v>
+      </c>
+      <c r="K36">
+        <v>1.00083840824404</v>
+      </c>
+      <c r="L36">
+        <v>1.000786003710524</v>
+      </c>
+      <c r="M36">
+        <v>0.9997064938301876</v>
+      </c>
+      <c r="N36">
+        <v>1.00083840824404</v>
+      </c>
+      <c r="O36">
+        <v>0.9997786757532786</v>
+      </c>
+      <c r="P36">
+        <v>1.000282339731901</v>
+      </c>
+      <c r="Q36">
+        <v>0.9997413510317157</v>
+      </c>
+      <c r="R36">
+        <v>1.000467695902614</v>
+      </c>
+      <c r="S36">
+        <v>1.000089568591318</v>
+      </c>
+      <c r="T36">
+        <v>1.000467695902614</v>
+      </c>
+      <c r="U36">
+        <v>1.000276778504499</v>
+      </c>
+      <c r="V36">
+        <v>1.000389104452407</v>
+      </c>
+      <c r="W36">
+        <v>1.000105054558843</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9996897879347689</v>
+      </c>
+      <c r="D37">
+        <v>0.9989486485769008</v>
+      </c>
+      <c r="E37">
+        <v>0.9979613041418013</v>
+      </c>
+      <c r="F37">
+        <v>0.9979613041418013</v>
+      </c>
+      <c r="G37">
+        <v>0.999858094052237</v>
+      </c>
+      <c r="H37">
+        <v>1.000934691535844</v>
+      </c>
+      <c r="I37">
+        <v>1.00222171654902</v>
+      </c>
+      <c r="J37">
+        <v>0.9976617490141108</v>
+      </c>
+      <c r="K37">
+        <v>0.9979613041418013</v>
+      </c>
+      <c r="L37">
+        <v>0.9976617490141108</v>
+      </c>
+      <c r="M37">
+        <v>1.00070828851611</v>
+      </c>
+      <c r="N37">
+        <v>0.9979613041418013</v>
+      </c>
+      <c r="O37">
+        <v>1.00222171654902</v>
+      </c>
+      <c r="P37">
+        <v>0.9999417327815656</v>
+      </c>
+      <c r="Q37">
+        <v>1.001039905300629</v>
+      </c>
+      <c r="R37">
+        <v>0.9992815899016442</v>
+      </c>
+      <c r="S37">
+        <v>0.9999138532051228</v>
+      </c>
+      <c r="T37">
+        <v>0.9992815899016442</v>
+      </c>
+      <c r="U37">
+        <v>0.9994257159392923</v>
+      </c>
+      <c r="V37">
+        <v>0.9991328335797942</v>
+      </c>
+      <c r="W37">
+        <v>0.9997480350400991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.001580981631601</v>
+      </c>
+      <c r="D38">
+        <v>0.9995792895407628</v>
+      </c>
+      <c r="E38">
+        <v>1.00893285724104</v>
+      </c>
+      <c r="F38">
+        <v>1.00893285724104</v>
+      </c>
+      <c r="G38">
+        <v>0.998642645885893</v>
+      </c>
+      <c r="H38">
+        <v>0.9997968813840361</v>
+      </c>
+      <c r="I38">
+        <v>0.9961798494967055</v>
+      </c>
+      <c r="J38">
+        <v>1.002558626827209</v>
+      </c>
+      <c r="K38">
+        <v>1.00893285724104</v>
+      </c>
+      <c r="L38">
+        <v>1.002558626827209</v>
+      </c>
+      <c r="M38">
+        <v>0.9968157784088828</v>
+      </c>
+      <c r="N38">
+        <v>1.00893285724104</v>
+      </c>
+      <c r="O38">
+        <v>0.9961798494967055</v>
+      </c>
+      <c r="P38">
+        <v>0.9993692381619572</v>
+      </c>
+      <c r="Q38">
+        <v>0.9974112476912993</v>
+      </c>
+      <c r="R38">
+        <v>1.002557111188318</v>
+      </c>
+      <c r="S38">
+        <v>0.9991270407366025</v>
+      </c>
+      <c r="T38">
+        <v>1.002557111188318</v>
+      </c>
+      <c r="U38">
+        <v>1.001578494862712</v>
+      </c>
+      <c r="V38">
+        <v>1.003049367338378</v>
+      </c>
+      <c r="W38">
+        <v>1.000510863802016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.005088711487063</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.001273106352097</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.032069807598054</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.032069807598054</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9956451957695673</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9976073728906452</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9837251662284302</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.0143468277888</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.032069807598054</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.0143468277888</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9883837538752742</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.032069807598054</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9837251662284302</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9990359970086151</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9896851809989988</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.010047267205095</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9979057299289326</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.010047267205095</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.006446749346213</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.011571360996581</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.002267492748741</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.067174664116203</v>
+      </c>
+      <c r="D40">
+        <v>0.88491021641209</v>
+      </c>
+      <c r="E40">
+        <v>1.212635046120556</v>
+      </c>
+      <c r="F40">
+        <v>1.212635046120556</v>
+      </c>
+      <c r="G40">
+        <v>0.9573561564975791</v>
+      </c>
+      <c r="H40">
+        <v>1.055205010782108</v>
+      </c>
+      <c r="I40">
+        <v>0.9887568196559763</v>
+      </c>
+      <c r="J40">
+        <v>0.8419480404493591</v>
+      </c>
+      <c r="K40">
+        <v>1.212635046120556</v>
+      </c>
+      <c r="L40">
+        <v>0.8419480404493591</v>
+      </c>
+      <c r="M40">
+        <v>0.9327661104567637</v>
+      </c>
+      <c r="N40">
+        <v>1.212635046120556</v>
+      </c>
+      <c r="O40">
+        <v>0.9887568196559763</v>
+      </c>
+      <c r="P40">
+        <v>0.9153524300526676</v>
+      </c>
+      <c r="Q40">
+        <v>0.9730564880767777</v>
+      </c>
+      <c r="R40">
+        <v>1.01444663540863</v>
+      </c>
+      <c r="S40">
+        <v>0.9293536722009715</v>
+      </c>
+      <c r="T40">
+        <v>1.01444663540863</v>
+      </c>
+      <c r="U40">
+        <v>1.000174015680868</v>
+      </c>
+      <c r="V40">
+        <v>1.042666221768805</v>
+      </c>
+      <c r="W40">
+        <v>0.9925940080613294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000954962129288</v>
+      </c>
+      <c r="D41">
+        <v>1.002915483791771</v>
+      </c>
+      <c r="E41">
+        <v>1.006101538278934</v>
+      </c>
+      <c r="F41">
+        <v>1.006101538278934</v>
+      </c>
+      <c r="G41">
+        <v>0.999968746103422</v>
+      </c>
+      <c r="H41">
+        <v>0.9979327248631562</v>
+      </c>
+      <c r="I41">
+        <v>0.9941546919933947</v>
+      </c>
+      <c r="J41">
+        <v>1.007969807094893</v>
+      </c>
+      <c r="K41">
+        <v>1.006101538278934</v>
+      </c>
+      <c r="L41">
+        <v>1.007969807094893</v>
+      </c>
+      <c r="M41">
+        <v>0.9970701406827434</v>
+      </c>
+      <c r="N41">
+        <v>1.006101538278934</v>
+      </c>
+      <c r="O41">
+        <v>0.9941546919933947</v>
+      </c>
+      <c r="P41">
+        <v>1.001062249544144</v>
+      </c>
+      <c r="Q41">
+        <v>0.9970617190484083</v>
+      </c>
+      <c r="R41">
+        <v>1.002742012455741</v>
+      </c>
+      <c r="S41">
+        <v>1.000697748397237</v>
+      </c>
+      <c r="T41">
+        <v>1.002742012455741</v>
+      </c>
+      <c r="U41">
+        <v>1.002048695867661</v>
+      </c>
+      <c r="V41">
+        <v>1.002859264349916</v>
+      </c>
+      <c r="W41">
+        <v>1.0008835118672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.06590023884143</v>
+      </c>
+      <c r="D42">
+        <v>0.8831377326986817</v>
+      </c>
+      <c r="E42">
+        <v>1.204817216838213</v>
+      </c>
+      <c r="F42">
+        <v>1.204817216838213</v>
+      </c>
+      <c r="G42">
+        <v>0.9580477946140895</v>
+      </c>
+      <c r="H42">
+        <v>1.056538235958367</v>
+      </c>
+      <c r="I42">
+        <v>0.9942503574043074</v>
+      </c>
+      <c r="J42">
+        <v>0.8353368799142815</v>
+      </c>
+      <c r="K42">
+        <v>1.204817216838213</v>
+      </c>
+      <c r="L42">
+        <v>0.8353368799142815</v>
+      </c>
+      <c r="M42">
+        <v>0.9361827919445544</v>
+      </c>
+      <c r="N42">
+        <v>1.204817216838213</v>
+      </c>
+      <c r="O42">
+        <v>0.9942503574043074</v>
+      </c>
+      <c r="P42">
+        <v>0.9147936186592944</v>
+      </c>
+      <c r="Q42">
+        <v>0.9761490760091984</v>
+      </c>
+      <c r="R42">
+        <v>1.011468151385601</v>
+      </c>
+      <c r="S42">
+        <v>0.9292116773108928</v>
+      </c>
+      <c r="T42">
+        <v>1.011468151385601</v>
+      </c>
+      <c r="U42">
+        <v>0.9981130621927228</v>
+      </c>
+      <c r="V42">
+        <v>1.039453893121821</v>
+      </c>
+      <c r="W42">
+        <v>0.9917764060267407</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,42 +85,45 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
   </si>
   <si>
@@ -95,12 +131,6 @@
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.016421340582036</v>
+        <v>0.9998258957608835</v>
       </c>
       <c r="D3">
-        <v>0.9991325295795968</v>
+        <v>0.9982727561479944</v>
       </c>
       <c r="E3">
-        <v>0.9953852549261134</v>
+        <v>0.9996898892476953</v>
       </c>
       <c r="F3">
-        <v>1.016421340582036</v>
+        <v>0.9996898892476953</v>
       </c>
       <c r="G3">
-        <v>0.9971344667981248</v>
+        <v>0.9991933817415414</v>
       </c>
       <c r="H3">
-        <v>1.001605103480004</v>
+        <v>1.001412849582889</v>
       </c>
       <c r="I3">
-        <v>1.016421340582036</v>
+        <v>1.002394473898902</v>
       </c>
       <c r="J3">
-        <v>0.9991325295795968</v>
+        <v>0.997421418383615</v>
       </c>
       <c r="K3">
-        <v>0.9938585013301442</v>
+        <v>0.9996898892476953</v>
       </c>
       <c r="L3">
-        <v>1.00387172680866</v>
+        <v>0.997421418383615</v>
       </c>
       <c r="M3">
-        <v>0.9962865034509609</v>
+        <v>1.000168353179532</v>
       </c>
       <c r="N3">
-        <v>1.016421340582036</v>
+        <v>0.9996898892476953</v>
       </c>
       <c r="O3">
-        <v>0.9953852549261134</v>
+        <v>1.002394473898902</v>
       </c>
       <c r="P3">
-        <v>0.9972588922528551</v>
+        <v>0.9999079461412587</v>
       </c>
       <c r="Q3">
-        <v>0.9962598608621192</v>
+        <v>1.000793927820222</v>
       </c>
       <c r="R3">
-        <v>1.003646375029249</v>
+        <v>0.9998352605100709</v>
       </c>
       <c r="S3">
-        <v>0.9972174171012783</v>
+        <v>0.9996697580080195</v>
       </c>
       <c r="T3">
-        <v>1.003646375029249</v>
+        <v>0.9998352605100709</v>
       </c>
       <c r="U3">
-        <v>1.002018397971468</v>
+        <v>0.9996747908179385</v>
       </c>
       <c r="V3">
-        <v>1.004898986493582</v>
+        <v>0.9996778105038899</v>
       </c>
       <c r="W3">
-        <v>1.000461928369455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9997973772428815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.03123331480209</v>
+        <v>1.067174664116203</v>
       </c>
       <c r="D4">
-        <v>0.9976467536335345</v>
+        <v>0.88491021641209</v>
       </c>
       <c r="E4">
-        <v>0.9911151812728898</v>
+        <v>1.212635046120556</v>
       </c>
       <c r="F4">
-        <v>1.03123331480209</v>
+        <v>1.212635046120556</v>
       </c>
       <c r="G4">
-        <v>0.9947046624332286</v>
+        <v>0.9573561564975791</v>
       </c>
       <c r="H4">
-        <v>1.003029873997071</v>
+        <v>1.055205010782108</v>
       </c>
       <c r="I4">
-        <v>1.03123331480209</v>
+        <v>0.9887568196559763</v>
       </c>
       <c r="J4">
-        <v>0.9976467536335345</v>
+        <v>0.8419480404493591</v>
       </c>
       <c r="K4">
-        <v>0.9883996718456332</v>
+        <v>1.212635046120556</v>
       </c>
       <c r="L4">
-        <v>1.007556517055868</v>
+        <v>0.8419480404493591</v>
       </c>
       <c r="M4">
-        <v>0.9927496651930401</v>
+        <v>0.9327661104567637</v>
       </c>
       <c r="N4">
-        <v>1.03123331480209</v>
+        <v>1.212635046120556</v>
       </c>
       <c r="O4">
-        <v>0.9911151812728898</v>
+        <v>0.9887568196559763</v>
       </c>
       <c r="P4">
-        <v>0.9943809674532121</v>
+        <v>0.9153524300526676</v>
       </c>
       <c r="Q4">
-        <v>0.9929099218530593</v>
+        <v>0.9730564880767777</v>
       </c>
       <c r="R4">
-        <v>1.006665083236171</v>
+        <v>1.01444663540863</v>
       </c>
       <c r="S4">
-        <v>0.9944888657798843</v>
+        <v>0.9293536722009715</v>
       </c>
       <c r="T4">
-        <v>1.006665083236171</v>
+        <v>1.01444663540863</v>
       </c>
       <c r="U4">
-        <v>1.003674978035436</v>
+        <v>1.000174015680868</v>
       </c>
       <c r="V4">
-        <v>1.009186645388767</v>
+        <v>1.042666221768805</v>
       </c>
       <c r="W4">
-        <v>1.000804455029169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9925940080613294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.059156922107634</v>
+        <v>0.9906922023559095</v>
       </c>
       <c r="D5">
-        <v>0.9956948813813081</v>
+        <v>0.9134233029538927</v>
       </c>
       <c r="E5">
-        <v>0.9843358210631572</v>
+        <v>0.9861159815201725</v>
       </c>
       <c r="F5">
-        <v>1.059156922107634</v>
+        <v>0.9861159815201725</v>
       </c>
       <c r="G5">
-        <v>0.989357166819312</v>
+        <v>0.9587449987680112</v>
       </c>
       <c r="H5">
-        <v>1.00633071712673</v>
+        <v>1.071099055864551</v>
       </c>
       <c r="I5">
-        <v>1.059156922107634</v>
+        <v>1.120289108357346</v>
       </c>
       <c r="J5">
-        <v>0.9956948813813081</v>
+        <v>0.8714259964596565</v>
       </c>
       <c r="K5">
-        <v>0.9779617751290299</v>
+        <v>0.9861159815201725</v>
       </c>
       <c r="L5">
-        <v>1.013890409468209</v>
+        <v>0.8714259964596565</v>
       </c>
       <c r="M5">
-        <v>0.9858907144437271</v>
+        <v>1.008186577788185</v>
       </c>
       <c r="N5">
-        <v>1.059156922107634</v>
+        <v>0.9861159815201725</v>
       </c>
       <c r="O5">
-        <v>0.9843358210631572</v>
+        <v>1.120289108357346</v>
       </c>
       <c r="P5">
-        <v>0.9900153512222327</v>
+        <v>0.995857552408501</v>
       </c>
       <c r="Q5">
-        <v>0.9868464939412346</v>
+        <v>1.039517053562678</v>
       </c>
       <c r="R5">
-        <v>1.013062541517367</v>
+        <v>0.9926103621123916</v>
       </c>
       <c r="S5">
-        <v>0.9897959564212592</v>
+        <v>0.9834867011950044</v>
       </c>
       <c r="T5">
-        <v>1.013062541517366</v>
+        <v>0.9926103621123916</v>
       </c>
       <c r="U5">
-        <v>1.007136197842853</v>
+        <v>0.9841440212762965</v>
       </c>
       <c r="V5">
-        <v>1.017540342695809</v>
+        <v>0.9845384133250719</v>
       </c>
       <c r="W5">
-        <v>1.001577300942388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9899971530084655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.086265267232081</v>
+        <v>0.9101295734298609</v>
       </c>
       <c r="D6">
-        <v>0.9938665846233086</v>
+        <v>0.6942764105490954</v>
       </c>
       <c r="E6">
-        <v>0.9781742537745725</v>
+        <v>0.8255712402562954</v>
       </c>
       <c r="F6">
-        <v>1.086265267232081</v>
+        <v>0.8255712402562954</v>
       </c>
       <c r="G6">
-        <v>0.9843302767069039</v>
+        <v>0.8346181916493692</v>
       </c>
       <c r="H6">
-        <v>1.009580667013567</v>
+        <v>1.280236724522364</v>
       </c>
       <c r="I6">
-        <v>1.086265267232081</v>
+        <v>1.540020013310018</v>
       </c>
       <c r="J6">
-        <v>0.9938665846233086</v>
+        <v>0.5567905117192362</v>
       </c>
       <c r="K6">
-        <v>0.9675159691619543</v>
+        <v>0.8255712402562954</v>
       </c>
       <c r="L6">
-        <v>1.020185042023071</v>
+        <v>0.5567905117192362</v>
       </c>
       <c r="M6">
-        <v>0.9792631889486066</v>
+        <v>1.071643881847428</v>
       </c>
       <c r="N6">
-        <v>1.086265267232081</v>
+        <v>0.8255712402562954</v>
       </c>
       <c r="O6">
-        <v>0.9781742537745725</v>
+        <v>1.540020013310018</v>
       </c>
       <c r="P6">
-        <v>0.9860204191989406</v>
+        <v>1.048405262514627</v>
       </c>
       <c r="Q6">
-        <v>0.9812522652407382</v>
+        <v>1.187319102479694</v>
       </c>
       <c r="R6">
-        <v>1.019435368543321</v>
+        <v>0.9741272550951833</v>
       </c>
       <c r="S6">
-        <v>0.9854570383682617</v>
+        <v>0.9771429055595412</v>
       </c>
       <c r="T6">
-        <v>1.019435368543321</v>
+        <v>0.9741272550951834</v>
       </c>
       <c r="U6">
-        <v>1.010659095584216</v>
+        <v>0.9392499892337298</v>
       </c>
       <c r="V6">
-        <v>1.025780329913789</v>
+        <v>0.9165142394382428</v>
       </c>
       <c r="W6">
-        <v>1.002397656185508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9641608184104586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997625979937265</v>
+        <v>1.004999639038635</v>
       </c>
       <c r="D7">
-        <v>0.9990697219279134</v>
+        <v>0.9945177927126422</v>
       </c>
       <c r="E7">
-        <v>1.000986371767127</v>
+        <v>1.018325846367171</v>
       </c>
       <c r="F7">
-        <v>0.9997625979937265</v>
+        <v>1.018325846367171</v>
       </c>
       <c r="G7">
-        <v>0.9996895889947981</v>
+        <v>0.9969375506285837</v>
       </c>
       <c r="H7">
-        <v>1.000543209599094</v>
+        <v>1.002390551793556</v>
       </c>
       <c r="I7">
-        <v>0.9997625979937265</v>
+        <v>0.9953876171527147</v>
       </c>
       <c r="J7">
-        <v>0.9990697219279134</v>
+        <v>0.9959378769054452</v>
       </c>
       <c r="K7">
-        <v>1.00010119688614</v>
+        <v>1.018325846367171</v>
       </c>
       <c r="L7">
-        <v>0.999882128347049</v>
+        <v>0.9959378769054452</v>
       </c>
       <c r="M7">
-        <v>0.9993720869409428</v>
+        <v>0.9932280107118726</v>
       </c>
       <c r="N7">
-        <v>0.9997625979937265</v>
+        <v>1.018325846367171</v>
       </c>
       <c r="O7">
-        <v>1.000986371767127</v>
+        <v>0.9953876171527147</v>
       </c>
       <c r="P7">
-        <v>1.00002804684752</v>
+        <v>0.99566274702908</v>
       </c>
       <c r="Q7">
-        <v>1.000337980380962</v>
+        <v>0.9961625838906492</v>
       </c>
       <c r="R7">
-        <v>0.9999395638962555</v>
+        <v>1.00321711347511</v>
       </c>
       <c r="S7">
-        <v>0.9999152275632793</v>
+        <v>0.9960876815622478</v>
       </c>
       <c r="T7">
-        <v>0.9999395638962555</v>
+        <v>1.00321711347511</v>
       </c>
       <c r="U7">
-        <v>0.9998770701708912</v>
+        <v>1.001647222763479</v>
       </c>
       <c r="V7">
-        <v>0.9998541757354582</v>
+        <v>1.004982947484217</v>
       </c>
       <c r="W7">
-        <v>0.9999258628070987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>1.000215610663827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9996898892476951</v>
+        <v>0.9996897879347689</v>
       </c>
       <c r="D8">
-        <v>0.997421418383615</v>
+        <v>0.9989486485769008</v>
       </c>
       <c r="E8">
-        <v>1.002394473898902</v>
+        <v>0.9979613041418013</v>
       </c>
       <c r="F8">
-        <v>0.9996898892476951</v>
+        <v>0.9979613041418013</v>
       </c>
       <c r="G8">
-        <v>0.9991933817415416</v>
+        <v>0.999858094052237</v>
       </c>
       <c r="H8">
-        <v>1.001412849582888</v>
+        <v>1.000934691535844</v>
       </c>
       <c r="I8">
-        <v>0.9996898892476951</v>
+        <v>1.00222171654902</v>
       </c>
       <c r="J8">
-        <v>0.997421418383615</v>
+        <v>0.9976617490141108</v>
       </c>
       <c r="K8">
-        <v>1.000168353179532</v>
+        <v>0.9979613041418013</v>
       </c>
       <c r="L8">
-        <v>0.9998258957608839</v>
+        <v>0.9976617490141108</v>
       </c>
       <c r="M8">
-        <v>0.9982727561479945</v>
+        <v>1.00070828851611</v>
       </c>
       <c r="N8">
-        <v>0.9996898892476951</v>
+        <v>0.9979613041418013</v>
       </c>
       <c r="O8">
-        <v>1.002394473898902</v>
+        <v>1.00222171654902</v>
       </c>
       <c r="P8">
-        <v>0.9999079461412586</v>
+        <v>0.9999417327815656</v>
       </c>
       <c r="Q8">
-        <v>1.000793927820222</v>
+        <v>1.001039905300629</v>
       </c>
       <c r="R8">
-        <v>0.9998352605100708</v>
+        <v>0.9992815899016442</v>
       </c>
       <c r="S8">
-        <v>0.9996697580080195</v>
+        <v>0.9999138532051228</v>
       </c>
       <c r="T8">
-        <v>0.9998352605100708</v>
+        <v>0.9992815899016442</v>
       </c>
       <c r="U8">
-        <v>0.9996747908179384</v>
+        <v>0.9994257159392923</v>
       </c>
       <c r="V8">
-        <v>0.9996778105038897</v>
+        <v>0.9991328335797942</v>
       </c>
       <c r="W8">
-        <v>0.9997973772428815</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9997480350400991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9997901013639848</v>
+        <v>1.007556517055868</v>
       </c>
       <c r="D9">
-        <v>0.9964453436298707</v>
+        <v>0.9927496651930401</v>
       </c>
       <c r="E9">
-        <v>1.002909503100483</v>
+        <v>1.03123331480209</v>
       </c>
       <c r="F9">
-        <v>0.9997901013639848</v>
+        <v>1.03123331480209</v>
       </c>
       <c r="G9">
-        <v>0.9990372055934977</v>
+        <v>0.9947046624332286</v>
       </c>
       <c r="H9">
-        <v>1.001803156761627</v>
+        <v>1.003029873997071</v>
       </c>
       <c r="I9">
-        <v>0.9997901013639848</v>
+        <v>0.9911151812728898</v>
       </c>
       <c r="J9">
-        <v>0.9964453436298707</v>
+        <v>0.9976467536335345</v>
       </c>
       <c r="K9">
-        <v>1.000127244341979</v>
+        <v>1.03123331480209</v>
       </c>
       <c r="L9">
-        <v>0.9999511865547378</v>
+        <v>0.9976467536335345</v>
       </c>
       <c r="M9">
-        <v>0.9976921624683397</v>
+        <v>0.988399671845633</v>
       </c>
       <c r="N9">
-        <v>0.9997901013639848</v>
+        <v>1.03123331480209</v>
       </c>
       <c r="O9">
-        <v>1.002909503100483</v>
+        <v>0.9911151812728898</v>
       </c>
       <c r="P9">
-        <v>0.9996774233651766</v>
+        <v>0.9943809674532121</v>
       </c>
       <c r="Q9">
-        <v>1.00097335434699</v>
+        <v>0.9929099218530593</v>
       </c>
       <c r="R9">
-        <v>0.9997149826981127</v>
+        <v>1.006665083236171</v>
       </c>
       <c r="S9">
-        <v>0.9994640174412837</v>
+        <v>0.9944888657798843</v>
       </c>
       <c r="T9">
-        <v>0.9997149826981128</v>
+        <v>1.006665083236171</v>
       </c>
       <c r="U9">
-        <v>0.999545538421959</v>
+        <v>1.003674978035436</v>
       </c>
       <c r="V9">
-        <v>0.9995944510103643</v>
+        <v>1.009186645388767</v>
       </c>
       <c r="W9">
-        <v>0.999719487976815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>1.000804455029169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9993053944382768</v>
+        <v>0.9045154913733892</v>
       </c>
       <c r="D10">
-        <v>0.9923094057506371</v>
+        <v>0.688089402875846</v>
       </c>
       <c r="E10">
-        <v>1.006709563269323</v>
+        <v>0.8177201464344402</v>
       </c>
       <c r="F10">
-        <v>0.9993053944382768</v>
+        <v>0.8177201464344402</v>
       </c>
       <c r="G10">
-        <v>0.9977729909417702</v>
+        <v>0.8283942881752734</v>
       </c>
       <c r="H10">
-        <v>1.004051860431201</v>
+        <v>1.288325310451233</v>
       </c>
       <c r="I10">
-        <v>0.9993053944382768</v>
+        <v>1.557611190155619</v>
       </c>
       <c r="J10">
-        <v>0.9923094057506371</v>
+        <v>0.5519567306539361</v>
       </c>
       <c r="K10">
-        <v>1.000375772064097</v>
+        <v>0.8177201464344402</v>
       </c>
       <c r="L10">
-        <v>0.9997022456024759</v>
+        <v>0.5519567306539361</v>
       </c>
       <c r="M10">
-        <v>0.9949354015100674</v>
+        <v>1.074135335894856</v>
       </c>
       <c r="N10">
-        <v>0.9993053944382768</v>
+        <v>0.8177201464344402</v>
       </c>
       <c r="O10">
-        <v>1.006709563269323</v>
+        <v>1.557611190155619</v>
       </c>
       <c r="P10">
-        <v>0.9995094845099803</v>
+        <v>1.054783960404778</v>
       </c>
       <c r="Q10">
-        <v>1.002241277105547</v>
+        <v>1.193002739165446</v>
       </c>
       <c r="R10">
-        <v>0.9994414544860791</v>
+        <v>0.9757626890813317</v>
       </c>
       <c r="S10">
-        <v>0.998930653320577</v>
+        <v>0.9793207363282761</v>
       </c>
       <c r="T10">
-        <v>0.9994414544860791</v>
+        <v>0.9757626890813317</v>
       </c>
       <c r="U10">
-        <v>0.9990243386000019</v>
+        <v>0.9389205888548171</v>
       </c>
       <c r="V10">
-        <v>0.9990805497676568</v>
+        <v>0.9146805003707417</v>
       </c>
       <c r="W10">
-        <v>0.9993953292509811</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9638434870018242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9997819117626465</v>
+        <v>1.069106825396741</v>
       </c>
       <c r="D11">
-        <v>0.9873678988866682</v>
+        <v>0.887319790843442</v>
       </c>
       <c r="E11">
-        <v>1.009966695237587</v>
+        <v>1.223706659970056</v>
       </c>
       <c r="F11">
-        <v>0.9997819117626465</v>
+        <v>1.223706659970056</v>
       </c>
       <c r="G11">
-        <v>0.9965827805488233</v>
+        <v>0.9564934018544036</v>
       </c>
       <c r="H11">
-        <v>1.00633787450157</v>
+        <v>1.053291119301545</v>
       </c>
       <c r="I11">
-        <v>0.9997819117626465</v>
+        <v>0.9809885397728934</v>
       </c>
       <c r="J11">
-        <v>0.9873678988866682</v>
+        <v>0.8509239102585893</v>
       </c>
       <c r="K11">
-        <v>1.000286567777674</v>
+        <v>1.223706659970056</v>
       </c>
       <c r="L11">
-        <v>1.000001291884228</v>
+        <v>0.8509239102585893</v>
       </c>
       <c r="M11">
-        <v>0.9917682481732576</v>
+        <v>0.927944805535866</v>
       </c>
       <c r="N11">
-        <v>0.9997819117626465</v>
+        <v>1.223706659970056</v>
       </c>
       <c r="O11">
-        <v>1.009966695237587</v>
+        <v>0.9809885397728934</v>
       </c>
       <c r="P11">
-        <v>0.9986672970621275</v>
+        <v>0.9159562250157414</v>
       </c>
       <c r="Q11">
-        <v>1.003274737893205</v>
+        <v>0.9687409708136485</v>
       </c>
       <c r="R11">
-        <v>0.9990388352956338</v>
+        <v>1.018539703333846</v>
       </c>
       <c r="S11">
-        <v>0.9979724582243595</v>
+        <v>0.9294686172952954</v>
       </c>
       <c r="T11">
-        <v>0.9990388352956338</v>
+        <v>1.018539703333846</v>
       </c>
       <c r="U11">
-        <v>0.9984248216089312</v>
+        <v>1.003028127963985</v>
       </c>
       <c r="V11">
-        <v>0.9986962396396744</v>
+        <v>1.047163834365199</v>
       </c>
       <c r="W11">
-        <v>0.9990116585965568</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9937218816166919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.217105385593193</v>
+        <v>0.9717642568842105</v>
       </c>
       <c r="D12">
-        <v>1.348156913744501</v>
+        <v>0.9009334056526329</v>
       </c>
       <c r="E12">
-        <v>0.7128589889762401</v>
+        <v>0.9436101702</v>
       </c>
       <c r="F12">
-        <v>1.217105385593193</v>
+        <v>0.9436101702</v>
       </c>
       <c r="G12">
-        <v>1.029849820501225</v>
+        <v>0.9469412183263162</v>
       </c>
       <c r="H12">
-        <v>0.872903140839448</v>
+        <v>1.090393243768419</v>
       </c>
       <c r="I12">
-        <v>1.217105385593193</v>
+        <v>1.172913973273684</v>
       </c>
       <c r="J12">
-        <v>1.348156913744501</v>
+        <v>0.8559833833052636</v>
       </c>
       <c r="K12">
-        <v>0.9074179376914524</v>
+        <v>0.9436101702</v>
       </c>
       <c r="L12">
-        <v>1.033949634534164</v>
+        <v>0.8559833833052636</v>
       </c>
       <c r="M12">
-        <v>1.161706436847032</v>
+        <v>1.02310806743158</v>
       </c>
       <c r="N12">
-        <v>1.217105385593193</v>
+        <v>0.9436101702</v>
       </c>
       <c r="O12">
-        <v>0.7128589889762401</v>
+        <v>1.172913973273684</v>
       </c>
       <c r="P12">
-        <v>1.030507951360371</v>
+        <v>1.014448678289474</v>
       </c>
       <c r="Q12">
-        <v>0.8713544047387323</v>
+        <v>1.0599275958</v>
       </c>
       <c r="R12">
-        <v>1.092707096104645</v>
+        <v>0.9908358422596492</v>
       </c>
       <c r="S12">
-        <v>1.030288574407322</v>
+        <v>0.9919461916350878</v>
       </c>
       <c r="T12">
-        <v>1.092707096104645</v>
+        <v>0.9908358422596492</v>
       </c>
       <c r="U12">
-        <v>1.07699277720379</v>
+        <v>0.9798621862763159</v>
       </c>
       <c r="V12">
-        <v>1.10501529888167</v>
+        <v>0.9726117830610528</v>
       </c>
       <c r="W12">
-        <v>1.035493532340907</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9882059648552634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.828940782361655</v>
+        <v>0.9850695531656497</v>
       </c>
       <c r="D13">
-        <v>0.9225558066167451</v>
+        <v>1.045452488143977</v>
       </c>
       <c r="E13">
-        <v>1.079846537532788</v>
+        <v>0.9780065690577695</v>
       </c>
       <c r="F13">
-        <v>0.828940782361655</v>
+        <v>0.9780065690577695</v>
       </c>
       <c r="G13">
-        <v>1.027290513415777</v>
+        <v>1.009035260022745</v>
       </c>
       <c r="H13">
-        <v>1.00892995531492</v>
+        <v>0.9747757883213122</v>
       </c>
       <c r="I13">
-        <v>0.828940782361655</v>
+        <v>0.9736771888546587</v>
       </c>
       <c r="J13">
-        <v>0.9225558066167451</v>
+        <v>1.084222810130702</v>
       </c>
       <c r="K13">
-        <v>1.062067058705677</v>
+        <v>0.9780065690577695</v>
       </c>
       <c r="L13">
-        <v>0.9761776961990947</v>
+        <v>1.084222810130702</v>
       </c>
       <c r="M13">
-        <v>0.9950978225115312</v>
+        <v>1.003716399059779</v>
       </c>
       <c r="N13">
-        <v>0.828940782361655</v>
+        <v>0.9780065690577695</v>
       </c>
       <c r="O13">
-        <v>1.079846537532788</v>
+        <v>0.9736771888546587</v>
       </c>
       <c r="P13">
-        <v>1.001201172074767</v>
+        <v>1.028949999492681</v>
       </c>
       <c r="Q13">
-        <v>1.053568525474283</v>
+        <v>0.9913562244387019</v>
       </c>
       <c r="R13">
-        <v>0.9437810421703962</v>
+        <v>1.011968856014377</v>
       </c>
       <c r="S13">
-        <v>1.009897619188437</v>
+        <v>1.022311753002702</v>
       </c>
       <c r="T13">
-        <v>0.9437810421703962</v>
+        <v>1.011968856014377</v>
       </c>
       <c r="U13">
-        <v>0.9646584099817415</v>
+        <v>1.011235457016469</v>
       </c>
       <c r="V13">
-        <v>0.9375148844577241</v>
+        <v>1.004589679424729</v>
       </c>
       <c r="W13">
-        <v>0.9876132715822734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.006744507094574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7015374210446996</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="D14">
-        <v>1.391790061090266</v>
+        <v>0.4573315399999993</v>
       </c>
       <c r="E14">
-        <v>0.8310496254017812</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="F14">
-        <v>0.7015374210446996</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="G14">
-        <v>1.136236563745995</v>
+        <v>0.7009649700000007</v>
       </c>
       <c r="H14">
-        <v>0.805875710571074</v>
+        <v>1.503870000000002</v>
       </c>
       <c r="I14">
-        <v>0.7015374210446996</v>
+        <v>1.9813918</v>
       </c>
       <c r="J14">
-        <v>1.391790061090266</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="K14">
-        <v>1.0955653914674</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="L14">
-        <v>0.9219487779012226</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="M14">
-        <v>1.295290460465664</v>
+        <v>1.133766800000002</v>
       </c>
       <c r="N14">
-        <v>0.7015374210446996</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="O14">
-        <v>0.8310496254017812</v>
+        <v>1.9813918</v>
       </c>
       <c r="P14">
-        <v>1.111419843246024</v>
+        <v>1.100125385</v>
       </c>
       <c r="Q14">
-        <v>0.9836430945738879</v>
+        <v>1.341178385</v>
       </c>
       <c r="R14">
-        <v>0.9747923691789158</v>
+        <v>0.9564866533333328</v>
       </c>
       <c r="S14">
-        <v>1.119692083412681</v>
+        <v>0.9670719133333335</v>
       </c>
       <c r="T14">
-        <v>0.9747923691789158</v>
+        <v>0.9564866533333328</v>
       </c>
       <c r="U14">
-        <v>1.015153417820685</v>
+        <v>0.8926062324999998</v>
       </c>
       <c r="V14">
-        <v>0.9524302184654883</v>
+        <v>0.8479268239999996</v>
       </c>
       <c r="W14">
-        <v>1.022411751461013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9367964900000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9374712188066278</v>
+        <v>1.2942026</v>
       </c>
       <c r="D15">
-        <v>1.193867717543105</v>
+        <v>0.69233592</v>
       </c>
       <c r="E15">
-        <v>1.026561633756653</v>
+        <v>1.5381067</v>
       </c>
       <c r="F15">
-        <v>0.9374712188066278</v>
+        <v>1.5381067</v>
       </c>
       <c r="G15">
-        <v>0.9766400781447774</v>
+        <v>0.99747251</v>
       </c>
       <c r="H15">
-        <v>0.9857736381519673</v>
+        <v>1.093006</v>
       </c>
       <c r="I15">
-        <v>0.9374712188066278</v>
+        <v>0.8289779500000001</v>
       </c>
       <c r="J15">
-        <v>1.193867717543105</v>
+        <v>0.44911069</v>
       </c>
       <c r="K15">
-        <v>1.011818744426101</v>
+        <v>1.5381067</v>
       </c>
       <c r="L15">
-        <v>0.9325502504588224</v>
+        <v>0.44911069</v>
       </c>
       <c r="M15">
-        <v>1.074553356201719</v>
+        <v>0.8046543299999999</v>
       </c>
       <c r="N15">
-        <v>0.9374712188066278</v>
+        <v>1.5381067</v>
       </c>
       <c r="O15">
-        <v>1.026561633756653</v>
+        <v>0.8289779500000001</v>
       </c>
       <c r="P15">
-        <v>1.110214675649879</v>
+        <v>0.63904432</v>
       </c>
       <c r="Q15">
-        <v>1.001600855950715</v>
+        <v>0.9132252300000001</v>
       </c>
       <c r="R15">
-        <v>1.052633523368795</v>
+        <v>0.93873178</v>
       </c>
       <c r="S15">
-        <v>1.065689809814845</v>
+        <v>0.7585203833333334</v>
       </c>
       <c r="T15">
-        <v>1.052633523368795</v>
+        <v>0.93873178</v>
       </c>
       <c r="U15">
-        <v>1.033635162062791</v>
+        <v>0.9534169625000001</v>
       </c>
       <c r="V15">
-        <v>1.014402373411558</v>
+        <v>1.07035491</v>
       </c>
       <c r="W15">
-        <v>1.017404579686222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.9622333375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.00083840824404</v>
+        <v>1.538147</v>
       </c>
       <c r="D16">
-        <v>1.000786003710523</v>
+        <v>0.22565214</v>
       </c>
       <c r="E16">
-        <v>0.9997786757532786</v>
+        <v>2.955281</v>
       </c>
       <c r="F16">
-        <v>1.00083840824404</v>
+        <v>2.955281</v>
       </c>
       <c r="G16">
-        <v>0.9997040263101532</v>
+        <v>0.66032449</v>
       </c>
       <c r="H16">
-        <v>0.9999987020581947</v>
+        <v>1.3207022</v>
       </c>
       <c r="I16">
-        <v>1.00083840824404</v>
+        <v>0.66920919</v>
       </c>
       <c r="J16">
-        <v>1.000786003710523</v>
+        <v>0.054357122</v>
       </c>
       <c r="K16">
-        <v>0.9997064938301879</v>
+        <v>2.955281</v>
       </c>
       <c r="L16">
-        <v>0.9999265387079517</v>
+        <v>0.054357122</v>
       </c>
       <c r="M16">
-        <v>1.000101587856418</v>
+        <v>0.39464802</v>
       </c>
       <c r="N16">
-        <v>1.00083840824404</v>
+        <v>2.955281</v>
       </c>
       <c r="O16">
-        <v>0.9997786757532786</v>
+        <v>0.66920919</v>
       </c>
       <c r="P16">
-        <v>1.000282339731901</v>
+        <v>0.361783156</v>
       </c>
       <c r="Q16">
-        <v>0.9997413510317159</v>
+        <v>0.66476684</v>
       </c>
       <c r="R16">
-        <v>1.000467695902614</v>
+        <v>1.226282437333333</v>
       </c>
       <c r="S16">
-        <v>1.000089568591318</v>
+        <v>0.461296934</v>
       </c>
       <c r="T16">
-        <v>1.000467695902614</v>
+        <v>1.226282437333333</v>
       </c>
       <c r="U16">
-        <v>1.000276778504499</v>
+        <v>1.0847929505</v>
       </c>
       <c r="V16">
-        <v>1.000389104452407</v>
+        <v>1.4588905604</v>
       </c>
       <c r="W16">
-        <v>1.000105054558843</v>
+        <v>0.9772901452499999</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9979613041418012</v>
+        <v>0.9378026800000001</v>
       </c>
       <c r="D17">
-        <v>0.9976617490141112</v>
+        <v>0.8999009799999999</v>
       </c>
       <c r="E17">
-        <v>1.00222171654902</v>
+        <v>0.6864832199999999</v>
       </c>
       <c r="F17">
-        <v>0.9979613041418012</v>
+        <v>0.6864832199999999</v>
       </c>
       <c r="G17">
-        <v>0.999858094052237</v>
+        <v>1.0032798</v>
       </c>
       <c r="H17">
-        <v>1.000934691535845</v>
+        <v>1.0796096</v>
       </c>
       <c r="I17">
-        <v>0.9979613041418012</v>
+        <v>1.2651246</v>
       </c>
       <c r="J17">
-        <v>0.9976617490141112</v>
+        <v>0.71014449</v>
       </c>
       <c r="K17">
-        <v>1.00070828851611</v>
+        <v>0.6864832199999999</v>
       </c>
       <c r="L17">
-        <v>0.9996897879347689</v>
+        <v>0.71014449</v>
       </c>
       <c r="M17">
-        <v>0.9989486485769007</v>
+        <v>1.1412633</v>
       </c>
       <c r="N17">
-        <v>0.9979613041418012</v>
+        <v>0.6864832199999999</v>
       </c>
       <c r="O17">
-        <v>1.00222171654902</v>
+        <v>1.2651246</v>
       </c>
       <c r="P17">
-        <v>0.9999417327815658</v>
+        <v>0.987634545</v>
       </c>
       <c r="Q17">
-        <v>1.001039905300629</v>
+        <v>1.1342022</v>
       </c>
       <c r="R17">
-        <v>0.9992815899016443</v>
+        <v>0.88725077</v>
       </c>
       <c r="S17">
-        <v>0.9999138532051228</v>
+        <v>0.9928496299999999</v>
       </c>
       <c r="T17">
-        <v>0.9992815899016442</v>
+        <v>0.88725077</v>
       </c>
       <c r="U17">
-        <v>0.9994257159392923</v>
+        <v>0.9162580275</v>
       </c>
       <c r="V17">
-        <v>0.9991328335797942</v>
+        <v>0.870303066</v>
       </c>
       <c r="W17">
-        <v>0.9997480350400993</v>
+        <v>0.96545108375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00893285724104</v>
+        <v>1.101904251506849</v>
       </c>
       <c r="D18">
-        <v>1.002558626827209</v>
+        <v>0.9167814641095894</v>
       </c>
       <c r="E18">
-        <v>0.9961798494967057</v>
+        <v>1.403178412876712</v>
       </c>
       <c r="F18">
-        <v>1.00893285724104</v>
+        <v>1.403178412876712</v>
       </c>
       <c r="G18">
-        <v>0.998642645885893</v>
+        <v>0.9405584327397262</v>
       </c>
       <c r="H18">
-        <v>0.9997968813840361</v>
+        <v>1.028279855890411</v>
       </c>
       <c r="I18">
-        <v>1.00893285724104</v>
+        <v>0.8658982557534246</v>
       </c>
       <c r="J18">
-        <v>1.002558626827209</v>
+        <v>0.9785523473150687</v>
       </c>
       <c r="K18">
-        <v>0.9968157784088825</v>
+        <v>1.403178412876712</v>
       </c>
       <c r="L18">
-        <v>1.001580981631601</v>
+        <v>0.9785523473150687</v>
       </c>
       <c r="M18">
-        <v>0.9995792895407628</v>
+        <v>0.8503476847945206</v>
       </c>
       <c r="N18">
-        <v>1.00893285724104</v>
+        <v>1.403178412876712</v>
       </c>
       <c r="O18">
-        <v>0.9961798494967057</v>
+        <v>0.8658982557534246</v>
       </c>
       <c r="P18">
-        <v>0.9993692381619572</v>
+        <v>0.9222253015342466</v>
       </c>
       <c r="Q18">
-        <v>0.9974112476912993</v>
+        <v>0.9032283442465754</v>
       </c>
       <c r="R18">
-        <v>1.002557111188318</v>
+        <v>1.082543005315069</v>
       </c>
       <c r="S18">
-        <v>0.9991270407366025</v>
+        <v>0.9283363452694066</v>
       </c>
       <c r="T18">
-        <v>1.002557111188318</v>
+        <v>1.082543005315069</v>
       </c>
       <c r="U18">
-        <v>1.001578494862712</v>
+        <v>1.047046862171233</v>
       </c>
       <c r="V18">
-        <v>1.003049367338378</v>
+        <v>1.118273172312329</v>
       </c>
       <c r="W18">
-        <v>1.000510863802016</v>
+        <v>1.010687588123288</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.032069807598054</v>
+        <v>1.050630331578947</v>
       </c>
       <c r="D19">
-        <v>1.0143468277888</v>
+        <v>0.8190911605263158</v>
       </c>
       <c r="E19">
-        <v>0.9837251662284303</v>
+        <v>1.099792848421053</v>
       </c>
       <c r="F19">
-        <v>1.032069807598054</v>
+        <v>1.099792848421053</v>
       </c>
       <c r="G19">
-        <v>0.9956451957695673</v>
+        <v>0.9561052968421052</v>
       </c>
       <c r="H19">
-        <v>0.9976073728906454</v>
+        <v>1.099542388421053</v>
       </c>
       <c r="I19">
-        <v>1.032069807598054</v>
+        <v>1.111123873157895</v>
       </c>
       <c r="J19">
-        <v>1.0143468277888</v>
+        <v>0.669697714368421</v>
       </c>
       <c r="K19">
-        <v>0.9883837538752742</v>
+        <v>1.099792848421053</v>
       </c>
       <c r="L19">
-        <v>1.005088711487063</v>
+        <v>0.669697714368421</v>
       </c>
       <c r="M19">
-        <v>1.001273106352097</v>
+        <v>0.9898064268421054</v>
       </c>
       <c r="N19">
-        <v>1.032069807598054</v>
+        <v>1.099792848421053</v>
       </c>
       <c r="O19">
-        <v>0.9837251662284303</v>
+        <v>1.111123873157895</v>
       </c>
       <c r="P19">
-        <v>0.9990359970086152</v>
+        <v>0.8904107937631578</v>
       </c>
       <c r="Q19">
-        <v>0.9896851809989988</v>
+        <v>1.033614585</v>
       </c>
       <c r="R19">
-        <v>1.010047267205095</v>
+        <v>0.9602048119824561</v>
       </c>
       <c r="S19">
-        <v>0.9979057299289327</v>
+        <v>0.9123089614561403</v>
       </c>
       <c r="T19">
-        <v>1.010047267205095</v>
+        <v>0.9602048119824561</v>
       </c>
       <c r="U19">
-        <v>1.006446749346213</v>
+        <v>0.9591799331973684</v>
       </c>
       <c r="V19">
-        <v>1.011571360996581</v>
+        <v>0.9873025162421053</v>
       </c>
       <c r="W19">
-        <v>1.002267492748741</v>
+        <v>0.9744737550197369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.06028958631579</v>
+      </c>
+      <c r="D20">
+        <v>0.5741731294736843</v>
+      </c>
+      <c r="E20">
+        <v>1.100960461052631</v>
+      </c>
+      <c r="F20">
+        <v>1.100960461052631</v>
+      </c>
+      <c r="G20">
+        <v>0.8471434842105265</v>
+      </c>
+      <c r="H20">
+        <v>1.300539889473684</v>
+      </c>
+      <c r="I20">
+        <v>1.401508647368421</v>
+      </c>
+      <c r="J20">
+        <v>0.3333299310526316</v>
+      </c>
+      <c r="K20">
+        <v>1.100960461052631</v>
+      </c>
+      <c r="L20">
+        <v>0.3333299310526316</v>
+      </c>
+      <c r="M20">
+        <v>0.9707725521052635</v>
+      </c>
+      <c r="N20">
+        <v>1.100960461052631</v>
+      </c>
+      <c r="O20">
+        <v>1.401508647368421</v>
+      </c>
+      <c r="P20">
+        <v>0.8674192892105264</v>
+      </c>
+      <c r="Q20">
+        <v>1.124326065789474</v>
+      </c>
+      <c r="R20">
+        <v>0.945266346491228</v>
+      </c>
+      <c r="S20">
+        <v>0.8606606875438597</v>
+      </c>
+      <c r="T20">
+        <v>0.945266346491228</v>
+      </c>
+      <c r="U20">
+        <v>0.9207356309210526</v>
+      </c>
+      <c r="V20">
+        <v>0.9567805969473684</v>
+      </c>
+      <c r="W20">
+        <v>0.948589710131579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9219487779012226</v>
+      </c>
+      <c r="D21">
+        <v>1.295290460465664</v>
+      </c>
+      <c r="E21">
+        <v>0.7015374210446996</v>
+      </c>
+      <c r="F21">
+        <v>0.7015374210446996</v>
+      </c>
+      <c r="G21">
+        <v>1.136236563745995</v>
+      </c>
+      <c r="H21">
+        <v>0.805875710571074</v>
+      </c>
+      <c r="I21">
+        <v>0.8310496254017812</v>
+      </c>
+      <c r="J21">
+        <v>1.391790061090267</v>
+      </c>
+      <c r="K21">
+        <v>0.7015374210446996</v>
+      </c>
+      <c r="L21">
+        <v>1.391790061090267</v>
+      </c>
+      <c r="M21">
+        <v>1.0955653914674</v>
+      </c>
+      <c r="N21">
+        <v>0.7015374210446996</v>
+      </c>
+      <c r="O21">
+        <v>0.8310496254017812</v>
+      </c>
+      <c r="P21">
+        <v>1.111419843246024</v>
+      </c>
+      <c r="Q21">
+        <v>0.9836430945738879</v>
+      </c>
+      <c r="R21">
+        <v>0.9747923691789159</v>
+      </c>
+      <c r="S21">
+        <v>1.119692083412681</v>
+      </c>
+      <c r="T21">
+        <v>0.9747923691789159</v>
+      </c>
+      <c r="U21">
+        <v>1.015153417820686</v>
+      </c>
+      <c r="V21">
+        <v>0.9524302184654884</v>
+      </c>
+      <c r="W21">
+        <v>1.022411751461013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9325502504588224</v>
+      </c>
+      <c r="D22">
+        <v>1.074553356201719</v>
+      </c>
+      <c r="E22">
+        <v>0.9374712188066278</v>
+      </c>
+      <c r="F22">
+        <v>0.9374712188066278</v>
+      </c>
+      <c r="G22">
+        <v>0.9766400781447774</v>
+      </c>
+      <c r="H22">
+        <v>0.9857736381519674</v>
+      </c>
+      <c r="I22">
+        <v>1.026561633756653</v>
+      </c>
+      <c r="J22">
+        <v>1.193867717543105</v>
+      </c>
+      <c r="K22">
+        <v>0.9374712188066278</v>
+      </c>
+      <c r="L22">
+        <v>1.193867717543105</v>
+      </c>
+      <c r="M22">
+        <v>1.011818744426101</v>
+      </c>
+      <c r="N22">
+        <v>0.9374712188066278</v>
+      </c>
+      <c r="O22">
+        <v>1.026561633756653</v>
+      </c>
+      <c r="P22">
+        <v>1.110214675649879</v>
+      </c>
+      <c r="Q22">
+        <v>1.001600855950715</v>
+      </c>
+      <c r="R22">
+        <v>1.052633523368795</v>
+      </c>
+      <c r="S22">
+        <v>1.065689809814845</v>
+      </c>
+      <c r="T22">
+        <v>1.052633523368795</v>
+      </c>
+      <c r="U22">
+        <v>1.033635162062791</v>
+      </c>
+      <c r="V22">
+        <v>1.014402373411558</v>
+      </c>
+      <c r="W22">
+        <v>1.017404579686222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.033949634534164</v>
+      </c>
+      <c r="D23">
+        <v>1.161706436847033</v>
+      </c>
+      <c r="E23">
+        <v>1.217105385593193</v>
+      </c>
+      <c r="F23">
+        <v>1.217105385593193</v>
+      </c>
+      <c r="G23">
+        <v>1.029849820501225</v>
+      </c>
+      <c r="H23">
+        <v>0.872903140839448</v>
+      </c>
+      <c r="I23">
+        <v>0.7128589889762401</v>
+      </c>
+      <c r="J23">
+        <v>1.348156913744501</v>
+      </c>
+      <c r="K23">
+        <v>1.217105385593193</v>
+      </c>
+      <c r="L23">
+        <v>1.348156913744501</v>
+      </c>
+      <c r="M23">
+        <v>0.9074179376914521</v>
+      </c>
+      <c r="N23">
+        <v>1.217105385593193</v>
+      </c>
+      <c r="O23">
+        <v>0.7128589889762401</v>
+      </c>
+      <c r="P23">
+        <v>1.030507951360371</v>
+      </c>
+      <c r="Q23">
+        <v>0.8713544047387325</v>
+      </c>
+      <c r="R23">
+        <v>1.092707096104645</v>
+      </c>
+      <c r="S23">
+        <v>1.030288574407322</v>
+      </c>
+      <c r="T23">
+        <v>1.092707096104645</v>
+      </c>
+      <c r="U23">
+        <v>1.07699277720379</v>
+      </c>
+      <c r="V23">
+        <v>1.10501529888167</v>
+      </c>
+      <c r="W23">
+        <v>1.035493532340907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9761776961990948</v>
+      </c>
+      <c r="D24">
+        <v>0.9950978225115312</v>
+      </c>
+      <c r="E24">
+        <v>0.828940782361655</v>
+      </c>
+      <c r="F24">
+        <v>0.828940782361655</v>
+      </c>
+      <c r="G24">
+        <v>1.027290513415777</v>
+      </c>
+      <c r="H24">
+        <v>1.00892995531492</v>
+      </c>
+      <c r="I24">
+        <v>1.079846537532788</v>
+      </c>
+      <c r="J24">
+        <v>0.9225558066167451</v>
+      </c>
+      <c r="K24">
+        <v>0.828940782361655</v>
+      </c>
+      <c r="L24">
+        <v>0.9225558066167451</v>
+      </c>
+      <c r="M24">
+        <v>1.062067058705677</v>
+      </c>
+      <c r="N24">
+        <v>0.828940782361655</v>
+      </c>
+      <c r="O24">
+        <v>1.079846537532788</v>
+      </c>
+      <c r="P24">
+        <v>1.001201172074767</v>
+      </c>
+      <c r="Q24">
+        <v>1.053568525474283</v>
+      </c>
+      <c r="R24">
+        <v>0.9437810421703962</v>
+      </c>
+      <c r="S24">
+        <v>1.009897619188437</v>
+      </c>
+      <c r="T24">
+        <v>0.9437810421703962</v>
+      </c>
+      <c r="U24">
+        <v>0.9646584099817415</v>
+      </c>
+      <c r="V24">
+        <v>0.9375148844577241</v>
+      </c>
+      <c r="W24">
+        <v>0.9876132715822734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.156481651295952</v>
+      </c>
+      <c r="D25">
+        <v>0.7382717107585843</v>
+      </c>
+      <c r="E25">
+        <v>1.374388750088731</v>
+      </c>
+      <c r="F25">
+        <v>1.374388750088731</v>
+      </c>
+      <c r="G25">
+        <v>0.938594902621513</v>
+      </c>
+      <c r="H25">
+        <v>1.120994693002168</v>
+      </c>
+      <c r="I25">
+        <v>0.9957594263529308</v>
+      </c>
+      <c r="J25">
+        <v>0.5757880817733935</v>
+      </c>
+      <c r="K25">
+        <v>1.374388750088731</v>
+      </c>
+      <c r="L25">
+        <v>0.5757880817733935</v>
+      </c>
+      <c r="M25">
+        <v>0.8820026930849519</v>
+      </c>
+      <c r="N25">
+        <v>1.374388750088731</v>
+      </c>
+      <c r="O25">
+        <v>0.9957594263529308</v>
+      </c>
+      <c r="P25">
+        <v>0.7857737540631622</v>
+      </c>
+      <c r="Q25">
+        <v>0.9671771644872219</v>
+      </c>
+      <c r="R25">
+        <v>0.9819787527383518</v>
+      </c>
+      <c r="S25">
+        <v>0.8367141369159459</v>
+      </c>
+      <c r="T25">
+        <v>0.9819787527383518</v>
+      </c>
+      <c r="U25">
+        <v>0.971132790209142</v>
+      </c>
+      <c r="V25">
+        <v>1.05178398218506</v>
+      </c>
+      <c r="W25">
+        <v>0.9727852386222779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9914780764629814</v>
+      </c>
+      <c r="D26">
+        <v>0.9134811699867391</v>
+      </c>
+      <c r="E26">
+        <v>1.060471122451527</v>
+      </c>
+      <c r="F26">
+        <v>1.060471122451527</v>
+      </c>
+      <c r="G26">
+        <v>0.9389106914159655</v>
+      </c>
+      <c r="H26">
+        <v>1.07077751739178</v>
+      </c>
+      <c r="I26">
+        <v>1.097971815194462</v>
+      </c>
+      <c r="J26">
+        <v>0.9062847425983253</v>
+      </c>
+      <c r="K26">
+        <v>1.060471122451527</v>
+      </c>
+      <c r="L26">
+        <v>0.9062847425983253</v>
+      </c>
+      <c r="M26">
+        <v>0.9868659218219799</v>
+      </c>
+      <c r="N26">
+        <v>1.060471122451527</v>
+      </c>
+      <c r="O26">
+        <v>1.097971815194462</v>
+      </c>
+      <c r="P26">
+        <v>1.002128278896394</v>
+      </c>
+      <c r="Q26">
+        <v>1.018441253305214</v>
+      </c>
+      <c r="R26">
+        <v>1.021575893414771</v>
+      </c>
+      <c r="S26">
+        <v>0.981055749736251</v>
+      </c>
+      <c r="T26">
+        <v>1.021575893414771</v>
+      </c>
+      <c r="U26">
+        <v>1.00090959291507</v>
+      </c>
+      <c r="V26">
+        <v>1.012821898822361</v>
+      </c>
+      <c r="W26">
+        <v>0.99578013216547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.029937368561811</v>
+      </c>
+      <c r="D27">
+        <v>0.9832651571651162</v>
+      </c>
+      <c r="E27">
+        <v>1.028693132840334</v>
+      </c>
+      <c r="F27">
+        <v>1.028693132840334</v>
+      </c>
+      <c r="G27">
+        <v>1.018525054978972</v>
+      </c>
+      <c r="H27">
+        <v>0.9931239769697576</v>
+      </c>
+      <c r="I27">
+        <v>0.9703215794797941</v>
+      </c>
+      <c r="J27">
+        <v>0.9348002888265984</v>
+      </c>
+      <c r="K27">
+        <v>1.028693132840334</v>
+      </c>
+      <c r="L27">
+        <v>0.9348002888265984</v>
+      </c>
+      <c r="M27">
+        <v>0.9947747097487536</v>
+      </c>
+      <c r="N27">
+        <v>1.028693132840334</v>
+      </c>
+      <c r="O27">
+        <v>0.9703215794797941</v>
+      </c>
+      <c r="P27">
+        <v>0.9525609341531962</v>
+      </c>
+      <c r="Q27">
+        <v>0.994423317229383</v>
+      </c>
+      <c r="R27">
+        <v>0.9779383337155755</v>
+      </c>
+      <c r="S27">
+        <v>0.9745489744284548</v>
+      </c>
+      <c r="T27">
+        <v>0.9779383337155755</v>
+      </c>
+      <c r="U27">
+        <v>0.9880850140314246</v>
+      </c>
+      <c r="V27">
+        <v>0.9962066377932064</v>
+      </c>
+      <c r="W27">
+        <v>0.9941801585713922</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.01791027920647</v>
+      </c>
+      <c r="D28">
+        <v>0.9726580939426227</v>
+      </c>
+      <c r="E28">
+        <v>1.095117857590238</v>
+      </c>
+      <c r="F28">
+        <v>1.095117857590238</v>
+      </c>
+      <c r="G28">
+        <v>0.9787271024587394</v>
+      </c>
+      <c r="H28">
+        <v>1.012852611559424</v>
+      </c>
+      <c r="I28">
+        <v>0.9846160227565751</v>
+      </c>
+      <c r="J28">
+        <v>0.9851925052516288</v>
+      </c>
+      <c r="K28">
+        <v>1.095117857590238</v>
+      </c>
+      <c r="L28">
+        <v>0.9851925052516288</v>
+      </c>
+      <c r="M28">
+        <v>0.9693861807739196</v>
+      </c>
+      <c r="N28">
+        <v>1.095117857590238</v>
+      </c>
+      <c r="O28">
+        <v>0.9846160227565751</v>
+      </c>
+      <c r="P28">
+        <v>0.9849042640041019</v>
+      </c>
+      <c r="Q28">
+        <v>0.9816715626076573</v>
+      </c>
+      <c r="R28">
+        <v>1.021642128532814</v>
+      </c>
+      <c r="S28">
+        <v>0.9828452101556477</v>
+      </c>
+      <c r="T28">
+        <v>1.021642128532814</v>
+      </c>
+      <c r="U28">
+        <v>1.010913372014295</v>
+      </c>
+      <c r="V28">
+        <v>1.027754269129484</v>
+      </c>
+      <c r="W28">
+        <v>1.002057581692452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.04419496526287</v>
+      </c>
+      <c r="D29">
+        <v>1.048600077695949</v>
+      </c>
+      <c r="E29">
+        <v>1.017967333308792</v>
+      </c>
+      <c r="F29">
+        <v>1.017967333308792</v>
+      </c>
+      <c r="G29">
+        <v>1.064031396155725</v>
+      </c>
+      <c r="H29">
+        <v>0.9304185275131891</v>
+      </c>
+      <c r="I29">
+        <v>0.8704714118015916</v>
+      </c>
+      <c r="J29">
+        <v>1.008741711032877</v>
+      </c>
+      <c r="K29">
+        <v>1.017967333308792</v>
+      </c>
+      <c r="L29">
+        <v>1.008741711032877</v>
+      </c>
+      <c r="M29">
+        <v>1.000092424338533</v>
+      </c>
+      <c r="N29">
+        <v>1.017967333308792</v>
+      </c>
+      <c r="O29">
+        <v>0.8704714118015916</v>
+      </c>
+      <c r="P29">
+        <v>0.9396065614172344</v>
+      </c>
+      <c r="Q29">
+        <v>0.9672514039786582</v>
+      </c>
+      <c r="R29">
+        <v>0.9657268187144205</v>
+      </c>
+      <c r="S29">
+        <v>0.9810815063300645</v>
+      </c>
+      <c r="T29">
+        <v>0.9657268187144203</v>
+      </c>
+      <c r="U29">
+        <v>0.9903029630747464</v>
+      </c>
+      <c r="V29">
+        <v>0.9958358371215557</v>
+      </c>
+      <c r="W29">
+        <v>0.9980647308886909</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.067174664116203</v>
+        <v>0.9901185788781623</v>
       </c>
       <c r="D4">
-        <v>0.88491021641209</v>
+        <v>0.930680722263085</v>
       </c>
       <c r="E4">
-        <v>1.212635046120556</v>
+        <v>0.9801797652900129</v>
       </c>
       <c r="F4">
-        <v>1.212635046120556</v>
+        <v>0.9801797652900129</v>
       </c>
       <c r="G4">
-        <v>0.9573561564975791</v>
+        <v>0.967345155701159</v>
       </c>
       <c r="H4">
-        <v>1.055205010782108</v>
+        <v>1.05769437293166</v>
       </c>
       <c r="I4">
-        <v>0.9887568196559763</v>
+        <v>1.101420529237525</v>
       </c>
       <c r="J4">
-        <v>0.8419480404493591</v>
+        <v>0.8947333064830572</v>
       </c>
       <c r="K4">
-        <v>1.212635046120556</v>
+        <v>0.9801797652900129</v>
       </c>
       <c r="L4">
-        <v>0.8419480404493591</v>
+        <v>0.8947333064830572</v>
       </c>
       <c r="M4">
-        <v>0.9327661104567637</v>
+        <v>1.010075202876872</v>
       </c>
       <c r="N4">
-        <v>1.212635046120556</v>
+        <v>0.9801797652900129</v>
       </c>
       <c r="O4">
-        <v>0.9887568196559763</v>
+        <v>1.101420529237525</v>
       </c>
       <c r="P4">
-        <v>0.9153524300526676</v>
+        <v>0.9980769178602913</v>
       </c>
       <c r="Q4">
-        <v>0.9730564880767777</v>
+        <v>1.034382842469342</v>
       </c>
       <c r="R4">
-        <v>1.01444663540863</v>
+        <v>0.9921112003368652</v>
       </c>
       <c r="S4">
-        <v>0.9293536722009715</v>
+        <v>0.9878329971405805</v>
       </c>
       <c r="T4">
-        <v>1.01444663540863</v>
+        <v>0.9921112003368652</v>
       </c>
       <c r="U4">
-        <v>1.000174015680868</v>
+        <v>0.9859196891779386</v>
       </c>
       <c r="V4">
-        <v>1.042666221768805</v>
+        <v>0.9847717044003534</v>
       </c>
       <c r="W4">
-        <v>0.9925940080613294</v>
+        <v>0.9915309542076918</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9906922023559095</v>
+        <v>1.072117955009372</v>
       </c>
       <c r="D5">
-        <v>0.9134233029538927</v>
+        <v>0.5801477425201567</v>
       </c>
       <c r="E5">
-        <v>0.9861159815201725</v>
+        <v>1.123028197876798</v>
       </c>
       <c r="F5">
-        <v>0.9861159815201725</v>
+        <v>1.123028197876798</v>
       </c>
       <c r="G5">
-        <v>0.9587449987680112</v>
+        <v>0.8545696076823004</v>
       </c>
       <c r="H5">
-        <v>1.071099055864551</v>
+        <v>1.290179768012821</v>
       </c>
       <c r="I5">
-        <v>1.120289108357346</v>
+        <v>1.371585332876997</v>
       </c>
       <c r="J5">
-        <v>0.8714259964596565</v>
+        <v>0.339183016162964</v>
       </c>
       <c r="K5">
-        <v>0.9861159815201725</v>
+        <v>1.123028197876798</v>
       </c>
       <c r="L5">
-        <v>0.8714259964596565</v>
+        <v>0.339183016162964</v>
       </c>
       <c r="M5">
-        <v>1.008186577788185</v>
+        <v>0.9624627609472416</v>
       </c>
       <c r="N5">
-        <v>0.9861159815201725</v>
+        <v>1.123028197876798</v>
       </c>
       <c r="O5">
-        <v>1.120289108357346</v>
+        <v>1.371585332876997</v>
       </c>
       <c r="P5">
-        <v>0.995857552408501</v>
+        <v>0.8553841745199804</v>
       </c>
       <c r="Q5">
-        <v>1.039517053562678</v>
+        <v>1.113077470279649</v>
       </c>
       <c r="R5">
-        <v>0.9926103621123916</v>
+        <v>0.9445988489722529</v>
       </c>
       <c r="S5">
-        <v>0.9834867011950044</v>
+        <v>0.8551126522407536</v>
       </c>
       <c r="T5">
-        <v>0.9926103621123916</v>
+        <v>0.9445988489722529</v>
       </c>
       <c r="U5">
-        <v>0.9841440212762965</v>
+        <v>0.9220915386497648</v>
       </c>
       <c r="V5">
-        <v>0.9845384133250719</v>
+        <v>0.9622788704951712</v>
       </c>
       <c r="W5">
-        <v>0.9899971530084655</v>
+        <v>0.9491592976360813</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9101295734298609</v>
+        <v>1.067174664116203</v>
       </c>
       <c r="D6">
-        <v>0.6942764105490954</v>
+        <v>0.88491021641209</v>
       </c>
       <c r="E6">
-        <v>0.8255712402562954</v>
+        <v>1.212635046120556</v>
       </c>
       <c r="F6">
-        <v>0.8255712402562954</v>
+        <v>1.212635046120556</v>
       </c>
       <c r="G6">
-        <v>0.8346181916493692</v>
+        <v>0.9573561564975791</v>
       </c>
       <c r="H6">
-        <v>1.280236724522364</v>
+        <v>1.055205010782108</v>
       </c>
       <c r="I6">
-        <v>1.540020013310018</v>
+        <v>0.9887568196559763</v>
       </c>
       <c r="J6">
-        <v>0.5567905117192362</v>
+        <v>0.8419480404493591</v>
       </c>
       <c r="K6">
-        <v>0.8255712402562954</v>
+        <v>1.212635046120556</v>
       </c>
       <c r="L6">
-        <v>0.5567905117192362</v>
+        <v>0.8419480404493591</v>
       </c>
       <c r="M6">
-        <v>1.071643881847428</v>
+        <v>0.9327661104567637</v>
       </c>
       <c r="N6">
-        <v>0.8255712402562954</v>
+        <v>1.212635046120556</v>
       </c>
       <c r="O6">
-        <v>1.540020013310018</v>
+        <v>0.9887568196559763</v>
       </c>
       <c r="P6">
-        <v>1.048405262514627</v>
+        <v>0.9153524300526676</v>
       </c>
       <c r="Q6">
-        <v>1.187319102479694</v>
+        <v>0.9730564880767777</v>
       </c>
       <c r="R6">
-        <v>0.9741272550951833</v>
+        <v>1.01444663540863</v>
       </c>
       <c r="S6">
-        <v>0.9771429055595412</v>
+        <v>0.9293536722009715</v>
       </c>
       <c r="T6">
-        <v>0.9741272550951834</v>
+        <v>1.01444663540863</v>
       </c>
       <c r="U6">
-        <v>0.9392499892337298</v>
+        <v>1.000174015680868</v>
       </c>
       <c r="V6">
-        <v>0.9165142394382428</v>
+        <v>1.042666221768805</v>
       </c>
       <c r="W6">
-        <v>0.9641608184104586</v>
+        <v>0.9925940080613294</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.004999639038635</v>
+        <v>0.9906922023559095</v>
       </c>
       <c r="D7">
-        <v>0.9945177927126422</v>
+        <v>0.9134233029538927</v>
       </c>
       <c r="E7">
-        <v>1.018325846367171</v>
+        <v>0.9861159815201725</v>
       </c>
       <c r="F7">
-        <v>1.018325846367171</v>
+        <v>0.9861159815201725</v>
       </c>
       <c r="G7">
-        <v>0.9969375506285837</v>
+        <v>0.9587449987680112</v>
       </c>
       <c r="H7">
-        <v>1.002390551793556</v>
+        <v>1.071099055864551</v>
       </c>
       <c r="I7">
-        <v>0.9953876171527147</v>
+        <v>1.120289108357346</v>
       </c>
       <c r="J7">
-        <v>0.9959378769054452</v>
+        <v>0.8714259964596565</v>
       </c>
       <c r="K7">
-        <v>1.018325846367171</v>
+        <v>0.9861159815201725</v>
       </c>
       <c r="L7">
-        <v>0.9959378769054452</v>
+        <v>0.8714259964596565</v>
       </c>
       <c r="M7">
-        <v>0.9932280107118726</v>
+        <v>1.008186577788185</v>
       </c>
       <c r="N7">
-        <v>1.018325846367171</v>
+        <v>0.9861159815201725</v>
       </c>
       <c r="O7">
-        <v>0.9953876171527147</v>
+        <v>1.120289108357346</v>
       </c>
       <c r="P7">
-        <v>0.99566274702908</v>
+        <v>0.995857552408501</v>
       </c>
       <c r="Q7">
-        <v>0.9961625838906492</v>
+        <v>1.039517053562678</v>
       </c>
       <c r="R7">
-        <v>1.00321711347511</v>
+        <v>0.9926103621123916</v>
       </c>
       <c r="S7">
-        <v>0.9960876815622478</v>
+        <v>0.9834867011950044</v>
       </c>
       <c r="T7">
-        <v>1.00321711347511</v>
+        <v>0.9926103621123916</v>
       </c>
       <c r="U7">
-        <v>1.001647222763479</v>
+        <v>0.9841440212762965</v>
       </c>
       <c r="V7">
-        <v>1.004982947484217</v>
+        <v>0.9845384133250719</v>
       </c>
       <c r="W7">
-        <v>1.000215610663827</v>
+        <v>0.9899971530084655</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9996897879347689</v>
+        <v>0.9101295734298609</v>
       </c>
       <c r="D8">
-        <v>0.9989486485769008</v>
+        <v>0.6942764105490954</v>
       </c>
       <c r="E8">
-        <v>0.9979613041418013</v>
+        <v>0.8255712402562954</v>
       </c>
       <c r="F8">
-        <v>0.9979613041418013</v>
+        <v>0.8255712402562954</v>
       </c>
       <c r="G8">
-        <v>0.999858094052237</v>
+        <v>0.8346181916493692</v>
       </c>
       <c r="H8">
-        <v>1.000934691535844</v>
+        <v>1.280236724522364</v>
       </c>
       <c r="I8">
-        <v>1.00222171654902</v>
+        <v>1.540020013310018</v>
       </c>
       <c r="J8">
-        <v>0.9976617490141108</v>
+        <v>0.5567905117192362</v>
       </c>
       <c r="K8">
-        <v>0.9979613041418013</v>
+        <v>0.8255712402562954</v>
       </c>
       <c r="L8">
-        <v>0.9976617490141108</v>
+        <v>0.5567905117192362</v>
       </c>
       <c r="M8">
-        <v>1.00070828851611</v>
+        <v>1.071643881847428</v>
       </c>
       <c r="N8">
-        <v>0.9979613041418013</v>
+        <v>0.8255712402562954</v>
       </c>
       <c r="O8">
-        <v>1.00222171654902</v>
+        <v>1.540020013310018</v>
       </c>
       <c r="P8">
-        <v>0.9999417327815656</v>
+        <v>1.048405262514627</v>
       </c>
       <c r="Q8">
-        <v>1.001039905300629</v>
+        <v>1.187319102479694</v>
       </c>
       <c r="R8">
-        <v>0.9992815899016442</v>
+        <v>0.9741272550951833</v>
       </c>
       <c r="S8">
-        <v>0.9999138532051228</v>
+        <v>0.9771429055595412</v>
       </c>
       <c r="T8">
-        <v>0.9992815899016442</v>
+        <v>0.9741272550951834</v>
       </c>
       <c r="U8">
-        <v>0.9994257159392923</v>
+        <v>0.9392499892337298</v>
       </c>
       <c r="V8">
-        <v>0.9991328335797942</v>
+        <v>0.9165142394382428</v>
       </c>
       <c r="W8">
-        <v>0.9997480350400991</v>
+        <v>0.9641608184104586</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.007556517055868</v>
+        <v>1.004999639038635</v>
       </c>
       <c r="D9">
-        <v>0.9927496651930401</v>
+        <v>0.9945177927126422</v>
       </c>
       <c r="E9">
-        <v>1.03123331480209</v>
+        <v>1.018325846367171</v>
       </c>
       <c r="F9">
-        <v>1.03123331480209</v>
+        <v>1.018325846367171</v>
       </c>
       <c r="G9">
-        <v>0.9947046624332286</v>
+        <v>0.9969375506285837</v>
       </c>
       <c r="H9">
-        <v>1.003029873997071</v>
+        <v>1.002390551793556</v>
       </c>
       <c r="I9">
-        <v>0.9911151812728898</v>
+        <v>0.9953876171527147</v>
       </c>
       <c r="J9">
-        <v>0.9976467536335345</v>
+        <v>0.9959378769054452</v>
       </c>
       <c r="K9">
-        <v>1.03123331480209</v>
+        <v>1.018325846367171</v>
       </c>
       <c r="L9">
-        <v>0.9976467536335345</v>
+        <v>0.9959378769054452</v>
       </c>
       <c r="M9">
-        <v>0.988399671845633</v>
+        <v>0.9932280107118726</v>
       </c>
       <c r="N9">
-        <v>1.03123331480209</v>
+        <v>1.018325846367171</v>
       </c>
       <c r="O9">
-        <v>0.9911151812728898</v>
+        <v>0.9953876171527147</v>
       </c>
       <c r="P9">
-        <v>0.9943809674532121</v>
+        <v>0.99566274702908</v>
       </c>
       <c r="Q9">
-        <v>0.9929099218530593</v>
+        <v>0.9961625838906492</v>
       </c>
       <c r="R9">
-        <v>1.006665083236171</v>
+        <v>1.00321711347511</v>
       </c>
       <c r="S9">
-        <v>0.9944888657798843</v>
+        <v>0.9960876815622478</v>
       </c>
       <c r="T9">
-        <v>1.006665083236171</v>
+        <v>1.00321711347511</v>
       </c>
       <c r="U9">
-        <v>1.003674978035436</v>
+        <v>1.001647222763479</v>
       </c>
       <c r="V9">
-        <v>1.009186645388767</v>
+        <v>1.004982947484217</v>
       </c>
       <c r="W9">
-        <v>1.000804455029169</v>
+        <v>1.000215610663827</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9045154913733892</v>
+        <v>0.9996897879347689</v>
       </c>
       <c r="D10">
-        <v>0.688089402875846</v>
+        <v>0.9989486485769008</v>
       </c>
       <c r="E10">
-        <v>0.8177201464344402</v>
+        <v>0.9979613041418013</v>
       </c>
       <c r="F10">
-        <v>0.8177201464344402</v>
+        <v>0.9979613041418013</v>
       </c>
       <c r="G10">
-        <v>0.8283942881752734</v>
+        <v>0.999858094052237</v>
       </c>
       <c r="H10">
-        <v>1.288325310451233</v>
+        <v>1.000934691535844</v>
       </c>
       <c r="I10">
-        <v>1.557611190155619</v>
+        <v>1.00222171654902</v>
       </c>
       <c r="J10">
-        <v>0.5519567306539361</v>
+        <v>0.9976617490141108</v>
       </c>
       <c r="K10">
-        <v>0.8177201464344402</v>
+        <v>0.9979613041418013</v>
       </c>
       <c r="L10">
-        <v>0.5519567306539361</v>
+        <v>0.9976617490141108</v>
       </c>
       <c r="M10">
-        <v>1.074135335894856</v>
+        <v>1.00070828851611</v>
       </c>
       <c r="N10">
-        <v>0.8177201464344402</v>
+        <v>0.9979613041418013</v>
       </c>
       <c r="O10">
-        <v>1.557611190155619</v>
+        <v>1.00222171654902</v>
       </c>
       <c r="P10">
-        <v>1.054783960404778</v>
+        <v>0.9999417327815656</v>
       </c>
       <c r="Q10">
-        <v>1.193002739165446</v>
+        <v>1.001039905300629</v>
       </c>
       <c r="R10">
-        <v>0.9757626890813317</v>
+        <v>0.9992815899016442</v>
       </c>
       <c r="S10">
-        <v>0.9793207363282761</v>
+        <v>0.9999138532051228</v>
       </c>
       <c r="T10">
-        <v>0.9757626890813317</v>
+        <v>0.9992815899016442</v>
       </c>
       <c r="U10">
-        <v>0.9389205888548171</v>
+        <v>0.9994257159392923</v>
       </c>
       <c r="V10">
-        <v>0.9146805003707417</v>
+        <v>0.9991328335797942</v>
       </c>
       <c r="W10">
-        <v>0.9638434870018242</v>
+        <v>0.9997480350400991</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.069106825396741</v>
+        <v>1.007556517055868</v>
       </c>
       <c r="D11">
-        <v>0.887319790843442</v>
+        <v>0.9927496651930401</v>
       </c>
       <c r="E11">
-        <v>1.223706659970056</v>
+        <v>1.03123331480209</v>
       </c>
       <c r="F11">
-        <v>1.223706659970056</v>
+        <v>1.03123331480209</v>
       </c>
       <c r="G11">
-        <v>0.9564934018544036</v>
+        <v>0.9947046624332286</v>
       </c>
       <c r="H11">
-        <v>1.053291119301545</v>
+        <v>1.003029873997071</v>
       </c>
       <c r="I11">
-        <v>0.9809885397728934</v>
+        <v>0.9911151812728898</v>
       </c>
       <c r="J11">
-        <v>0.8509239102585893</v>
+        <v>0.9976467536335345</v>
       </c>
       <c r="K11">
-        <v>1.223706659970056</v>
+        <v>1.03123331480209</v>
       </c>
       <c r="L11">
-        <v>0.8509239102585893</v>
+        <v>0.9976467536335345</v>
       </c>
       <c r="M11">
-        <v>0.927944805535866</v>
+        <v>0.988399671845633</v>
       </c>
       <c r="N11">
-        <v>1.223706659970056</v>
+        <v>1.03123331480209</v>
       </c>
       <c r="O11">
-        <v>0.9809885397728934</v>
+        <v>0.9911151812728898</v>
       </c>
       <c r="P11">
-        <v>0.9159562250157414</v>
+        <v>0.9943809674532121</v>
       </c>
       <c r="Q11">
-        <v>0.9687409708136485</v>
+        <v>0.9929099218530593</v>
       </c>
       <c r="R11">
-        <v>1.018539703333846</v>
+        <v>1.006665083236171</v>
       </c>
       <c r="S11">
-        <v>0.9294686172952954</v>
+        <v>0.9944888657798843</v>
       </c>
       <c r="T11">
-        <v>1.018539703333846</v>
+        <v>1.006665083236171</v>
       </c>
       <c r="U11">
-        <v>1.003028127963985</v>
+        <v>1.003674978035436</v>
       </c>
       <c r="V11">
-        <v>1.047163834365199</v>
+        <v>1.009186645388767</v>
       </c>
       <c r="W11">
-        <v>0.9937218816166919</v>
+        <v>1.000804455029169</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9717642568842105</v>
+        <v>0.9045154913733892</v>
       </c>
       <c r="D12">
-        <v>0.9009334056526329</v>
+        <v>0.688089402875846</v>
       </c>
       <c r="E12">
-        <v>0.9436101702</v>
+        <v>0.8177201464344402</v>
       </c>
       <c r="F12">
-        <v>0.9436101702</v>
+        <v>0.8177201464344402</v>
       </c>
       <c r="G12">
-        <v>0.9469412183263162</v>
+        <v>0.8283942881752734</v>
       </c>
       <c r="H12">
-        <v>1.090393243768419</v>
+        <v>1.288325310451233</v>
       </c>
       <c r="I12">
-        <v>1.172913973273684</v>
+        <v>1.557611190155619</v>
       </c>
       <c r="J12">
-        <v>0.8559833833052636</v>
+        <v>0.5519567306539361</v>
       </c>
       <c r="K12">
-        <v>0.9436101702</v>
+        <v>0.8177201464344402</v>
       </c>
       <c r="L12">
-        <v>0.8559833833052636</v>
+        <v>0.5519567306539361</v>
       </c>
       <c r="M12">
-        <v>1.02310806743158</v>
+        <v>1.074135335894856</v>
       </c>
       <c r="N12">
-        <v>0.9436101702</v>
+        <v>0.8177201464344402</v>
       </c>
       <c r="O12">
-        <v>1.172913973273684</v>
+        <v>1.557611190155619</v>
       </c>
       <c r="P12">
-        <v>1.014448678289474</v>
+        <v>1.054783960404778</v>
       </c>
       <c r="Q12">
-        <v>1.0599275958</v>
+        <v>1.193002739165446</v>
       </c>
       <c r="R12">
-        <v>0.9908358422596492</v>
+        <v>0.9757626890813317</v>
       </c>
       <c r="S12">
-        <v>0.9919461916350878</v>
+        <v>0.9793207363282761</v>
       </c>
       <c r="T12">
-        <v>0.9908358422596492</v>
+        <v>0.9757626890813317</v>
       </c>
       <c r="U12">
-        <v>0.9798621862763159</v>
+        <v>0.9389205888548171</v>
       </c>
       <c r="V12">
-        <v>0.9726117830610528</v>
+        <v>0.9146805003707417</v>
       </c>
       <c r="W12">
-        <v>0.9882059648552634</v>
+        <v>0.9638434870018242</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9850695531656497</v>
+        <v>1.069106825396741</v>
       </c>
       <c r="D13">
-        <v>1.045452488143977</v>
+        <v>0.887319790843442</v>
       </c>
       <c r="E13">
-        <v>0.9780065690577695</v>
+        <v>1.223706659970056</v>
       </c>
       <c r="F13">
-        <v>0.9780065690577695</v>
+        <v>1.223706659970056</v>
       </c>
       <c r="G13">
-        <v>1.009035260022745</v>
+        <v>0.9564934018544036</v>
       </c>
       <c r="H13">
-        <v>0.9747757883213122</v>
+        <v>1.053291119301545</v>
       </c>
       <c r="I13">
-        <v>0.9736771888546587</v>
+        <v>0.9809885397728934</v>
       </c>
       <c r="J13">
-        <v>1.084222810130702</v>
+        <v>0.8509239102585893</v>
       </c>
       <c r="K13">
-        <v>0.9780065690577695</v>
+        <v>1.223706659970056</v>
       </c>
       <c r="L13">
-        <v>1.084222810130702</v>
+        <v>0.8509239102585893</v>
       </c>
       <c r="M13">
-        <v>1.003716399059779</v>
+        <v>0.927944805535866</v>
       </c>
       <c r="N13">
-        <v>0.9780065690577695</v>
+        <v>1.223706659970056</v>
       </c>
       <c r="O13">
-        <v>0.9736771888546587</v>
+        <v>0.9809885397728934</v>
       </c>
       <c r="P13">
-        <v>1.028949999492681</v>
+        <v>0.9159562250157414</v>
       </c>
       <c r="Q13">
-        <v>0.9913562244387019</v>
+        <v>0.9687409708136485</v>
       </c>
       <c r="R13">
-        <v>1.011968856014377</v>
+        <v>1.018539703333846</v>
       </c>
       <c r="S13">
-        <v>1.022311753002702</v>
+        <v>0.9294686172952954</v>
       </c>
       <c r="T13">
-        <v>1.011968856014377</v>
+        <v>1.018539703333846</v>
       </c>
       <c r="U13">
-        <v>1.011235457016469</v>
+        <v>1.003028127963985</v>
       </c>
       <c r="V13">
-        <v>1.004589679424729</v>
+        <v>1.047163834365199</v>
       </c>
       <c r="W13">
-        <v>1.006744507094574</v>
+        <v>0.9937218816166919</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8289786500000015</v>
+        <v>0.9717642568842105</v>
       </c>
       <c r="D14">
-        <v>0.4573315399999993</v>
+        <v>0.9009334056526329</v>
       </c>
       <c r="E14">
-        <v>0.6692091899999988</v>
+        <v>0.9436101702</v>
       </c>
       <c r="F14">
-        <v>0.6692091899999988</v>
+        <v>0.9436101702</v>
       </c>
       <c r="G14">
-        <v>0.7009649700000007</v>
+        <v>0.9469412183263162</v>
       </c>
       <c r="H14">
-        <v>1.503870000000002</v>
+        <v>1.090393243768419</v>
       </c>
       <c r="I14">
-        <v>1.9813918</v>
+        <v>1.172913973273684</v>
       </c>
       <c r="J14">
-        <v>0.2188589699999998</v>
+        <v>0.8559833833052636</v>
       </c>
       <c r="K14">
-        <v>0.6692091899999988</v>
+        <v>0.9436101702</v>
       </c>
       <c r="L14">
-        <v>0.2188589699999998</v>
+        <v>0.8559833833052636</v>
       </c>
       <c r="M14">
-        <v>1.133766800000002</v>
+        <v>1.02310806743158</v>
       </c>
       <c r="N14">
-        <v>0.6692091899999988</v>
+        <v>0.9436101702</v>
       </c>
       <c r="O14">
-        <v>1.9813918</v>
+        <v>1.172913973273684</v>
       </c>
       <c r="P14">
-        <v>1.100125385</v>
+        <v>1.014448678289474</v>
       </c>
       <c r="Q14">
-        <v>1.341178385</v>
+        <v>1.0599275958</v>
       </c>
       <c r="R14">
-        <v>0.9564866533333328</v>
+        <v>0.9908358422596492</v>
       </c>
       <c r="S14">
-        <v>0.9670719133333335</v>
+        <v>0.9919461916350878</v>
       </c>
       <c r="T14">
-        <v>0.9564866533333328</v>
+        <v>0.9908358422596492</v>
       </c>
       <c r="U14">
-        <v>0.8926062324999998</v>
+        <v>0.9798621862763159</v>
       </c>
       <c r="V14">
-        <v>0.8479268239999996</v>
+        <v>0.9726117830610528</v>
       </c>
       <c r="W14">
-        <v>0.9367964900000005</v>
+        <v>0.9882059648552634</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.2942026</v>
+        <v>0.9850695531656497</v>
       </c>
       <c r="D15">
-        <v>0.69233592</v>
+        <v>1.045452488143977</v>
       </c>
       <c r="E15">
-        <v>1.5381067</v>
+        <v>0.9780065690577695</v>
       </c>
       <c r="F15">
-        <v>1.5381067</v>
+        <v>0.9780065690577695</v>
       </c>
       <c r="G15">
-        <v>0.99747251</v>
+        <v>1.009035260022745</v>
       </c>
       <c r="H15">
-        <v>1.093006</v>
+        <v>0.9747757883213122</v>
       </c>
       <c r="I15">
-        <v>0.8289779500000001</v>
+        <v>0.9736771888546587</v>
       </c>
       <c r="J15">
-        <v>0.44911069</v>
+        <v>1.084222810130702</v>
       </c>
       <c r="K15">
-        <v>1.5381067</v>
+        <v>0.9780065690577695</v>
       </c>
       <c r="L15">
-        <v>0.44911069</v>
+        <v>1.084222810130702</v>
       </c>
       <c r="M15">
-        <v>0.8046543299999999</v>
+        <v>1.003716399059779</v>
       </c>
       <c r="N15">
-        <v>1.5381067</v>
+        <v>0.9780065690577695</v>
       </c>
       <c r="O15">
-        <v>0.8289779500000001</v>
+        <v>0.9736771888546587</v>
       </c>
       <c r="P15">
-        <v>0.63904432</v>
+        <v>1.028949999492681</v>
       </c>
       <c r="Q15">
-        <v>0.9132252300000001</v>
+        <v>0.9913562244387019</v>
       </c>
       <c r="R15">
-        <v>0.93873178</v>
+        <v>1.011968856014377</v>
       </c>
       <c r="S15">
-        <v>0.7585203833333334</v>
+        <v>1.022311753002702</v>
       </c>
       <c r="T15">
-        <v>0.93873178</v>
+        <v>1.011968856014377</v>
       </c>
       <c r="U15">
-        <v>0.9534169625000001</v>
+        <v>1.011235457016469</v>
       </c>
       <c r="V15">
-        <v>1.07035491</v>
+        <v>1.004589679424729</v>
       </c>
       <c r="W15">
-        <v>0.9622333375</v>
+        <v>1.006744507094574</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.538147</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="D16">
-        <v>0.22565214</v>
+        <v>0.4573315399999993</v>
       </c>
       <c r="E16">
-        <v>2.955281</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="F16">
-        <v>2.955281</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="G16">
-        <v>0.66032449</v>
+        <v>0.7009649700000007</v>
       </c>
       <c r="H16">
-        <v>1.3207022</v>
+        <v>1.503870000000002</v>
       </c>
       <c r="I16">
-        <v>0.66920919</v>
+        <v>1.9813918</v>
       </c>
       <c r="J16">
-        <v>0.054357122</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="K16">
-        <v>2.955281</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="L16">
-        <v>0.054357122</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="M16">
-        <v>0.39464802</v>
+        <v>1.133766800000002</v>
       </c>
       <c r="N16">
-        <v>2.955281</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="O16">
-        <v>0.66920919</v>
+        <v>1.9813918</v>
       </c>
       <c r="P16">
-        <v>0.361783156</v>
+        <v>1.100125385</v>
       </c>
       <c r="Q16">
-        <v>0.66476684</v>
+        <v>1.341178385</v>
       </c>
       <c r="R16">
-        <v>1.226282437333333</v>
+        <v>0.9564866533333328</v>
       </c>
       <c r="S16">
-        <v>0.461296934</v>
+        <v>0.9670719133333335</v>
       </c>
       <c r="T16">
-        <v>1.226282437333333</v>
+        <v>0.9564866533333328</v>
       </c>
       <c r="U16">
-        <v>1.0847929505</v>
+        <v>0.8926062324999998</v>
       </c>
       <c r="V16">
-        <v>1.4588905604</v>
+        <v>0.8479268239999996</v>
       </c>
       <c r="W16">
-        <v>0.9772901452499999</v>
+        <v>0.9367964900000005</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9378026800000001</v>
+        <v>1.2942026</v>
       </c>
       <c r="D17">
-        <v>0.8999009799999999</v>
+        <v>0.69233592</v>
       </c>
       <c r="E17">
-        <v>0.6864832199999999</v>
+        <v>1.5381067</v>
       </c>
       <c r="F17">
-        <v>0.6864832199999999</v>
+        <v>1.5381067</v>
       </c>
       <c r="G17">
-        <v>1.0032798</v>
+        <v>0.99747251</v>
       </c>
       <c r="H17">
-        <v>1.0796096</v>
+        <v>1.093006</v>
       </c>
       <c r="I17">
-        <v>1.2651246</v>
+        <v>0.8289779500000001</v>
       </c>
       <c r="J17">
-        <v>0.71014449</v>
+        <v>0.44911069</v>
       </c>
       <c r="K17">
-        <v>0.6864832199999999</v>
+        <v>1.5381067</v>
       </c>
       <c r="L17">
-        <v>0.71014449</v>
+        <v>0.44911069</v>
       </c>
       <c r="M17">
-        <v>1.1412633</v>
+        <v>0.8046543299999999</v>
       </c>
       <c r="N17">
-        <v>0.6864832199999999</v>
+        <v>1.5381067</v>
       </c>
       <c r="O17">
-        <v>1.2651246</v>
+        <v>0.8289779500000001</v>
       </c>
       <c r="P17">
-        <v>0.987634545</v>
+        <v>0.63904432</v>
       </c>
       <c r="Q17">
-        <v>1.1342022</v>
+        <v>0.9132252300000001</v>
       </c>
       <c r="R17">
-        <v>0.88725077</v>
+        <v>0.93873178</v>
       </c>
       <c r="S17">
-        <v>0.9928496299999999</v>
+        <v>0.7585203833333334</v>
       </c>
       <c r="T17">
-        <v>0.88725077</v>
+        <v>0.93873178</v>
       </c>
       <c r="U17">
-        <v>0.9162580275</v>
+        <v>0.9534169625000001</v>
       </c>
       <c r="V17">
-        <v>0.870303066</v>
+        <v>1.07035491</v>
       </c>
       <c r="W17">
-        <v>0.96545108375</v>
+        <v>0.9622333375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.101904251506849</v>
+        <v>1.538147</v>
       </c>
       <c r="D18">
-        <v>0.9167814641095894</v>
+        <v>0.22565214</v>
       </c>
       <c r="E18">
-        <v>1.403178412876712</v>
+        <v>2.955281</v>
       </c>
       <c r="F18">
-        <v>1.403178412876712</v>
+        <v>2.955281</v>
       </c>
       <c r="G18">
-        <v>0.9405584327397262</v>
+        <v>0.66032449</v>
       </c>
       <c r="H18">
-        <v>1.028279855890411</v>
+        <v>1.3207022</v>
       </c>
       <c r="I18">
-        <v>0.8658982557534246</v>
+        <v>0.66920919</v>
       </c>
       <c r="J18">
-        <v>0.9785523473150687</v>
+        <v>0.054357122</v>
       </c>
       <c r="K18">
-        <v>1.403178412876712</v>
+        <v>2.955281</v>
       </c>
       <c r="L18">
-        <v>0.9785523473150687</v>
+        <v>0.054357122</v>
       </c>
       <c r="M18">
-        <v>0.8503476847945206</v>
+        <v>0.39464802</v>
       </c>
       <c r="N18">
-        <v>1.403178412876712</v>
+        <v>2.955281</v>
       </c>
       <c r="O18">
-        <v>0.8658982557534246</v>
+        <v>0.66920919</v>
       </c>
       <c r="P18">
-        <v>0.9222253015342466</v>
+        <v>0.361783156</v>
       </c>
       <c r="Q18">
-        <v>0.9032283442465754</v>
+        <v>0.66476684</v>
       </c>
       <c r="R18">
-        <v>1.082543005315069</v>
+        <v>1.226282437333333</v>
       </c>
       <c r="S18">
-        <v>0.9283363452694066</v>
+        <v>0.461296934</v>
       </c>
       <c r="T18">
-        <v>1.082543005315069</v>
+        <v>1.226282437333333</v>
       </c>
       <c r="U18">
-        <v>1.047046862171233</v>
+        <v>1.0847929505</v>
       </c>
       <c r="V18">
-        <v>1.118273172312329</v>
+        <v>1.4588905604</v>
       </c>
       <c r="W18">
-        <v>1.010687588123288</v>
+        <v>0.9772901452499999</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.050630331578947</v>
+        <v>0.9378026800000001</v>
       </c>
       <c r="D19">
-        <v>0.8190911605263158</v>
+        <v>0.8999009799999999</v>
       </c>
       <c r="E19">
-        <v>1.099792848421053</v>
+        <v>0.6864832199999999</v>
       </c>
       <c r="F19">
-        <v>1.099792848421053</v>
+        <v>0.6864832199999999</v>
       </c>
       <c r="G19">
-        <v>0.9561052968421052</v>
+        <v>1.0032798</v>
       </c>
       <c r="H19">
-        <v>1.099542388421053</v>
+        <v>1.0796096</v>
       </c>
       <c r="I19">
-        <v>1.111123873157895</v>
+        <v>1.2651246</v>
       </c>
       <c r="J19">
-        <v>0.669697714368421</v>
+        <v>0.71014449</v>
       </c>
       <c r="K19">
-        <v>1.099792848421053</v>
+        <v>0.6864832199999999</v>
       </c>
       <c r="L19">
-        <v>0.669697714368421</v>
+        <v>0.71014449</v>
       </c>
       <c r="M19">
-        <v>0.9898064268421054</v>
+        <v>1.1412633</v>
       </c>
       <c r="N19">
-        <v>1.099792848421053</v>
+        <v>0.6864832199999999</v>
       </c>
       <c r="O19">
-        <v>1.111123873157895</v>
+        <v>1.2651246</v>
       </c>
       <c r="P19">
-        <v>0.8904107937631578</v>
+        <v>0.987634545</v>
       </c>
       <c r="Q19">
-        <v>1.033614585</v>
+        <v>1.1342022</v>
       </c>
       <c r="R19">
-        <v>0.9602048119824561</v>
+        <v>0.88725077</v>
       </c>
       <c r="S19">
-        <v>0.9123089614561403</v>
+        <v>0.9928496299999999</v>
       </c>
       <c r="T19">
-        <v>0.9602048119824561</v>
+        <v>0.88725077</v>
       </c>
       <c r="U19">
-        <v>0.9591799331973684</v>
+        <v>0.9162580275</v>
       </c>
       <c r="V19">
-        <v>0.9873025162421053</v>
+        <v>0.870303066</v>
       </c>
       <c r="W19">
-        <v>0.9744737550197369</v>
+        <v>0.96545108375</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.06028958631579</v>
+        <v>1.101904251506849</v>
       </c>
       <c r="D20">
-        <v>0.5741731294736843</v>
+        <v>0.9167814641095894</v>
       </c>
       <c r="E20">
-        <v>1.100960461052631</v>
+        <v>1.403178412876712</v>
       </c>
       <c r="F20">
-        <v>1.100960461052631</v>
+        <v>1.403178412876712</v>
       </c>
       <c r="G20">
-        <v>0.8471434842105265</v>
+        <v>0.9405584327397262</v>
       </c>
       <c r="H20">
-        <v>1.300539889473684</v>
+        <v>1.028279855890411</v>
       </c>
       <c r="I20">
-        <v>1.401508647368421</v>
+        <v>0.8658982557534246</v>
       </c>
       <c r="J20">
-        <v>0.3333299310526316</v>
+        <v>0.9785523473150687</v>
       </c>
       <c r="K20">
-        <v>1.100960461052631</v>
+        <v>1.403178412876712</v>
       </c>
       <c r="L20">
-        <v>0.3333299310526316</v>
+        <v>0.9785523473150687</v>
       </c>
       <c r="M20">
-        <v>0.9707725521052635</v>
+        <v>0.8503476847945206</v>
       </c>
       <c r="N20">
-        <v>1.100960461052631</v>
+        <v>1.403178412876712</v>
       </c>
       <c r="O20">
-        <v>1.401508647368421</v>
+        <v>0.8658982557534246</v>
       </c>
       <c r="P20">
-        <v>0.8674192892105264</v>
+        <v>0.9222253015342466</v>
       </c>
       <c r="Q20">
-        <v>1.124326065789474</v>
+        <v>0.9032283442465754</v>
       </c>
       <c r="R20">
-        <v>0.945266346491228</v>
+        <v>1.082543005315069</v>
       </c>
       <c r="S20">
-        <v>0.8606606875438597</v>
+        <v>0.9283363452694066</v>
       </c>
       <c r="T20">
-        <v>0.945266346491228</v>
+        <v>1.082543005315069</v>
       </c>
       <c r="U20">
-        <v>0.9207356309210526</v>
+        <v>1.047046862171233</v>
       </c>
       <c r="V20">
-        <v>0.9567805969473684</v>
+        <v>1.118273172312329</v>
       </c>
       <c r="W20">
-        <v>0.948589710131579</v>
+        <v>1.010687588123288</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9219487779012226</v>
+        <v>1.050630331578947</v>
       </c>
       <c r="D21">
-        <v>1.295290460465664</v>
+        <v>0.8190911605263158</v>
       </c>
       <c r="E21">
-        <v>0.7015374210446996</v>
+        <v>1.099792848421053</v>
       </c>
       <c r="F21">
-        <v>0.7015374210446996</v>
+        <v>1.099792848421053</v>
       </c>
       <c r="G21">
-        <v>1.136236563745995</v>
+        <v>0.9561052968421052</v>
       </c>
       <c r="H21">
-        <v>0.805875710571074</v>
+        <v>1.099542388421053</v>
       </c>
       <c r="I21">
-        <v>0.8310496254017812</v>
+        <v>1.111123873157895</v>
       </c>
       <c r="J21">
-        <v>1.391790061090267</v>
+        <v>0.669697714368421</v>
       </c>
       <c r="K21">
-        <v>0.7015374210446996</v>
+        <v>1.099792848421053</v>
       </c>
       <c r="L21">
-        <v>1.391790061090267</v>
+        <v>0.669697714368421</v>
       </c>
       <c r="M21">
-        <v>1.0955653914674</v>
+        <v>0.9898064268421054</v>
       </c>
       <c r="N21">
-        <v>0.7015374210446996</v>
+        <v>1.099792848421053</v>
       </c>
       <c r="O21">
-        <v>0.8310496254017812</v>
+        <v>1.111123873157895</v>
       </c>
       <c r="P21">
-        <v>1.111419843246024</v>
+        <v>0.8904107937631578</v>
       </c>
       <c r="Q21">
-        <v>0.9836430945738879</v>
+        <v>1.033614585</v>
       </c>
       <c r="R21">
-        <v>0.9747923691789159</v>
+        <v>0.9602048119824561</v>
       </c>
       <c r="S21">
-        <v>1.119692083412681</v>
+        <v>0.9123089614561403</v>
       </c>
       <c r="T21">
-        <v>0.9747923691789159</v>
+        <v>0.9602048119824561</v>
       </c>
       <c r="U21">
-        <v>1.015153417820686</v>
+        <v>0.9591799331973684</v>
       </c>
       <c r="V21">
-        <v>0.9524302184654884</v>
+        <v>0.9873025162421053</v>
       </c>
       <c r="W21">
-        <v>1.022411751461013</v>
+        <v>0.9744737550197369</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9325502504588224</v>
+        <v>1.06028958631579</v>
       </c>
       <c r="D22">
-        <v>1.074553356201719</v>
+        <v>0.5741731294736843</v>
       </c>
       <c r="E22">
-        <v>0.9374712188066278</v>
+        <v>1.100960461052631</v>
       </c>
       <c r="F22">
-        <v>0.9374712188066278</v>
+        <v>1.100960461052631</v>
       </c>
       <c r="G22">
-        <v>0.9766400781447774</v>
+        <v>0.8471434842105265</v>
       </c>
       <c r="H22">
-        <v>0.9857736381519674</v>
+        <v>1.300539889473684</v>
       </c>
       <c r="I22">
-        <v>1.026561633756653</v>
+        <v>1.401508647368421</v>
       </c>
       <c r="J22">
-        <v>1.193867717543105</v>
+        <v>0.3333299310526316</v>
       </c>
       <c r="K22">
-        <v>0.9374712188066278</v>
+        <v>1.100960461052631</v>
       </c>
       <c r="L22">
-        <v>1.193867717543105</v>
+        <v>0.3333299310526316</v>
       </c>
       <c r="M22">
-        <v>1.011818744426101</v>
+        <v>0.9707725521052635</v>
       </c>
       <c r="N22">
-        <v>0.9374712188066278</v>
+        <v>1.100960461052631</v>
       </c>
       <c r="O22">
-        <v>1.026561633756653</v>
+        <v>1.401508647368421</v>
       </c>
       <c r="P22">
-        <v>1.110214675649879</v>
+        <v>0.8674192892105264</v>
       </c>
       <c r="Q22">
-        <v>1.001600855950715</v>
+        <v>1.124326065789474</v>
       </c>
       <c r="R22">
-        <v>1.052633523368795</v>
+        <v>0.945266346491228</v>
       </c>
       <c r="S22">
-        <v>1.065689809814845</v>
+        <v>0.8606606875438597</v>
       </c>
       <c r="T22">
-        <v>1.052633523368795</v>
+        <v>0.945266346491228</v>
       </c>
       <c r="U22">
-        <v>1.033635162062791</v>
+        <v>0.9207356309210526</v>
       </c>
       <c r="V22">
-        <v>1.014402373411558</v>
+        <v>0.9567805969473684</v>
       </c>
       <c r="W22">
-        <v>1.017404579686222</v>
+        <v>0.948589710131579</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.033949634534164</v>
+        <v>0.9219487779012226</v>
       </c>
       <c r="D23">
-        <v>1.161706436847033</v>
+        <v>1.295290460465664</v>
       </c>
       <c r="E23">
-        <v>1.217105385593193</v>
+        <v>0.7015374210446996</v>
       </c>
       <c r="F23">
-        <v>1.217105385593193</v>
+        <v>0.7015374210446996</v>
       </c>
       <c r="G23">
-        <v>1.029849820501225</v>
+        <v>1.136236563745995</v>
       </c>
       <c r="H23">
-        <v>0.872903140839448</v>
+        <v>0.805875710571074</v>
       </c>
       <c r="I23">
-        <v>0.7128589889762401</v>
+        <v>0.8310496254017812</v>
       </c>
       <c r="J23">
-        <v>1.348156913744501</v>
+        <v>1.391790061090267</v>
       </c>
       <c r="K23">
-        <v>1.217105385593193</v>
+        <v>0.7015374210446996</v>
       </c>
       <c r="L23">
-        <v>1.348156913744501</v>
+        <v>1.391790061090267</v>
       </c>
       <c r="M23">
-        <v>0.9074179376914521</v>
+        <v>1.0955653914674</v>
       </c>
       <c r="N23">
-        <v>1.217105385593193</v>
+        <v>0.7015374210446996</v>
       </c>
       <c r="O23">
-        <v>0.7128589889762401</v>
+        <v>0.8310496254017812</v>
       </c>
       <c r="P23">
-        <v>1.030507951360371</v>
+        <v>1.111419843246024</v>
       </c>
       <c r="Q23">
-        <v>0.8713544047387325</v>
+        <v>0.9836430945738879</v>
       </c>
       <c r="R23">
-        <v>1.092707096104645</v>
+        <v>0.9747923691789159</v>
       </c>
       <c r="S23">
-        <v>1.030288574407322</v>
+        <v>1.119692083412681</v>
       </c>
       <c r="T23">
-        <v>1.092707096104645</v>
+        <v>0.9747923691789159</v>
       </c>
       <c r="U23">
-        <v>1.07699277720379</v>
+        <v>1.015153417820686</v>
       </c>
       <c r="V23">
-        <v>1.10501529888167</v>
+        <v>0.9524302184654884</v>
       </c>
       <c r="W23">
-        <v>1.035493532340907</v>
+        <v>1.022411751461013</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9761776961990948</v>
+        <v>0.9325502504588224</v>
       </c>
       <c r="D24">
-        <v>0.9950978225115312</v>
+        <v>1.074553356201719</v>
       </c>
       <c r="E24">
-        <v>0.828940782361655</v>
+        <v>0.9374712188066278</v>
       </c>
       <c r="F24">
-        <v>0.828940782361655</v>
+        <v>0.9374712188066278</v>
       </c>
       <c r="G24">
-        <v>1.027290513415777</v>
+        <v>0.9766400781447774</v>
       </c>
       <c r="H24">
-        <v>1.00892995531492</v>
+        <v>0.9857736381519674</v>
       </c>
       <c r="I24">
-        <v>1.079846537532788</v>
+        <v>1.026561633756653</v>
       </c>
       <c r="J24">
-        <v>0.9225558066167451</v>
+        <v>1.193867717543105</v>
       </c>
       <c r="K24">
-        <v>0.828940782361655</v>
+        <v>0.9374712188066278</v>
       </c>
       <c r="L24">
-        <v>0.9225558066167451</v>
+        <v>1.193867717543105</v>
       </c>
       <c r="M24">
-        <v>1.062067058705677</v>
+        <v>1.011818744426101</v>
       </c>
       <c r="N24">
-        <v>0.828940782361655</v>
+        <v>0.9374712188066278</v>
       </c>
       <c r="O24">
-        <v>1.079846537532788</v>
+        <v>1.026561633756653</v>
       </c>
       <c r="P24">
-        <v>1.001201172074767</v>
+        <v>1.110214675649879</v>
       </c>
       <c r="Q24">
-        <v>1.053568525474283</v>
+        <v>1.001600855950715</v>
       </c>
       <c r="R24">
-        <v>0.9437810421703962</v>
+        <v>1.052633523368795</v>
       </c>
       <c r="S24">
-        <v>1.009897619188437</v>
+        <v>1.065689809814845</v>
       </c>
       <c r="T24">
-        <v>0.9437810421703962</v>
+        <v>1.052633523368795</v>
       </c>
       <c r="U24">
-        <v>0.9646584099817415</v>
+        <v>1.033635162062791</v>
       </c>
       <c r="V24">
-        <v>0.9375148844577241</v>
+        <v>1.014402373411558</v>
       </c>
       <c r="W24">
-        <v>0.9876132715822734</v>
+        <v>1.017404579686222</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.156481651295952</v>
+        <v>1.033949634534164</v>
       </c>
       <c r="D25">
-        <v>0.7382717107585843</v>
+        <v>1.161706436847033</v>
       </c>
       <c r="E25">
-        <v>1.374388750088731</v>
+        <v>1.217105385593193</v>
       </c>
       <c r="F25">
-        <v>1.374388750088731</v>
+        <v>1.217105385593193</v>
       </c>
       <c r="G25">
-        <v>0.938594902621513</v>
+        <v>1.029849820501225</v>
       </c>
       <c r="H25">
-        <v>1.120994693002168</v>
+        <v>0.872903140839448</v>
       </c>
       <c r="I25">
-        <v>0.9957594263529308</v>
+        <v>0.7128589889762401</v>
       </c>
       <c r="J25">
-        <v>0.5757880817733935</v>
+        <v>1.348156913744501</v>
       </c>
       <c r="K25">
-        <v>1.374388750088731</v>
+        <v>1.217105385593193</v>
       </c>
       <c r="L25">
-        <v>0.5757880817733935</v>
+        <v>1.348156913744501</v>
       </c>
       <c r="M25">
-        <v>0.8820026930849519</v>
+        <v>0.9074179376914521</v>
       </c>
       <c r="N25">
-        <v>1.374388750088731</v>
+        <v>1.217105385593193</v>
       </c>
       <c r="O25">
-        <v>0.9957594263529308</v>
+        <v>0.7128589889762401</v>
       </c>
       <c r="P25">
-        <v>0.7857737540631622</v>
+        <v>1.030507951360371</v>
       </c>
       <c r="Q25">
-        <v>0.9671771644872219</v>
+        <v>0.8713544047387325</v>
       </c>
       <c r="R25">
-        <v>0.9819787527383518</v>
+        <v>1.092707096104645</v>
       </c>
       <c r="S25">
-        <v>0.8367141369159459</v>
+        <v>1.030288574407322</v>
       </c>
       <c r="T25">
-        <v>0.9819787527383518</v>
+        <v>1.092707096104645</v>
       </c>
       <c r="U25">
-        <v>0.971132790209142</v>
+        <v>1.07699277720379</v>
       </c>
       <c r="V25">
-        <v>1.05178398218506</v>
+        <v>1.10501529888167</v>
       </c>
       <c r="W25">
-        <v>0.9727852386222779</v>
+        <v>1.035493532340907</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9914780764629814</v>
+        <v>0.9761776961990948</v>
       </c>
       <c r="D26">
-        <v>0.9134811699867391</v>
+        <v>0.9950978225115312</v>
       </c>
       <c r="E26">
-        <v>1.060471122451527</v>
+        <v>0.828940782361655</v>
       </c>
       <c r="F26">
-        <v>1.060471122451527</v>
+        <v>0.828940782361655</v>
       </c>
       <c r="G26">
-        <v>0.9389106914159655</v>
+        <v>1.027290513415777</v>
       </c>
       <c r="H26">
-        <v>1.07077751739178</v>
+        <v>1.00892995531492</v>
       </c>
       <c r="I26">
-        <v>1.097971815194462</v>
+        <v>1.079846537532788</v>
       </c>
       <c r="J26">
-        <v>0.9062847425983253</v>
+        <v>0.9225558066167451</v>
       </c>
       <c r="K26">
-        <v>1.060471122451527</v>
+        <v>0.828940782361655</v>
       </c>
       <c r="L26">
-        <v>0.9062847425983253</v>
+        <v>0.9225558066167451</v>
       </c>
       <c r="M26">
-        <v>0.9868659218219799</v>
+        <v>1.062067058705677</v>
       </c>
       <c r="N26">
-        <v>1.060471122451527</v>
+        <v>0.828940782361655</v>
       </c>
       <c r="O26">
-        <v>1.097971815194462</v>
+        <v>1.079846537532788</v>
       </c>
       <c r="P26">
-        <v>1.002128278896394</v>
+        <v>1.001201172074767</v>
       </c>
       <c r="Q26">
-        <v>1.018441253305214</v>
+        <v>1.053568525474283</v>
       </c>
       <c r="R26">
-        <v>1.021575893414771</v>
+        <v>0.9437810421703962</v>
       </c>
       <c r="S26">
-        <v>0.981055749736251</v>
+        <v>1.009897619188437</v>
       </c>
       <c r="T26">
-        <v>1.021575893414771</v>
+        <v>0.9437810421703962</v>
       </c>
       <c r="U26">
-        <v>1.00090959291507</v>
+        <v>0.9646584099817415</v>
       </c>
       <c r="V26">
-        <v>1.012821898822361</v>
+        <v>0.9375148844577241</v>
       </c>
       <c r="W26">
-        <v>0.99578013216547</v>
+        <v>0.9876132715822734</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.029937368561811</v>
+        <v>1.156481651295952</v>
       </c>
       <c r="D27">
-        <v>0.9832651571651162</v>
+        <v>0.7382717107585843</v>
       </c>
       <c r="E27">
-        <v>1.028693132840334</v>
+        <v>1.374388750088731</v>
       </c>
       <c r="F27">
-        <v>1.028693132840334</v>
+        <v>1.374388750088731</v>
       </c>
       <c r="G27">
-        <v>1.018525054978972</v>
+        <v>0.938594902621513</v>
       </c>
       <c r="H27">
-        <v>0.9931239769697576</v>
+        <v>1.120994693002168</v>
       </c>
       <c r="I27">
-        <v>0.9703215794797941</v>
+        <v>0.9957594263529308</v>
       </c>
       <c r="J27">
-        <v>0.9348002888265984</v>
+        <v>0.5757880817733935</v>
       </c>
       <c r="K27">
-        <v>1.028693132840334</v>
+        <v>1.374388750088731</v>
       </c>
       <c r="L27">
-        <v>0.9348002888265984</v>
+        <v>0.5757880817733935</v>
       </c>
       <c r="M27">
-        <v>0.9947747097487536</v>
+        <v>0.8820026930849519</v>
       </c>
       <c r="N27">
-        <v>1.028693132840334</v>
+        <v>1.374388750088731</v>
       </c>
       <c r="O27">
-        <v>0.9703215794797941</v>
+        <v>0.9957594263529308</v>
       </c>
       <c r="P27">
-        <v>0.9525609341531962</v>
+        <v>0.7857737540631622</v>
       </c>
       <c r="Q27">
-        <v>0.994423317229383</v>
+        <v>0.9671771644872219</v>
       </c>
       <c r="R27">
-        <v>0.9779383337155755</v>
+        <v>0.9819787527383518</v>
       </c>
       <c r="S27">
-        <v>0.9745489744284548</v>
+        <v>0.8367141369159459</v>
       </c>
       <c r="T27">
-        <v>0.9779383337155755</v>
+        <v>0.9819787527383518</v>
       </c>
       <c r="U27">
-        <v>0.9880850140314246</v>
+        <v>0.971132790209142</v>
       </c>
       <c r="V27">
-        <v>0.9962066377932064</v>
+        <v>1.05178398218506</v>
       </c>
       <c r="W27">
-        <v>0.9941801585713922</v>
+        <v>0.9727852386222779</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.01791027920647</v>
+        <v>0.9914780764629814</v>
       </c>
       <c r="D28">
-        <v>0.9726580939426227</v>
+        <v>0.9134811699867391</v>
       </c>
       <c r="E28">
-        <v>1.095117857590238</v>
+        <v>1.060471122451527</v>
       </c>
       <c r="F28">
-        <v>1.095117857590238</v>
+        <v>1.060471122451527</v>
       </c>
       <c r="G28">
-        <v>0.9787271024587394</v>
+        <v>0.9389106914159655</v>
       </c>
       <c r="H28">
-        <v>1.012852611559424</v>
+        <v>1.07077751739178</v>
       </c>
       <c r="I28">
-        <v>0.9846160227565751</v>
+        <v>1.097971815194462</v>
       </c>
       <c r="J28">
-        <v>0.9851925052516288</v>
+        <v>0.9062847425983253</v>
       </c>
       <c r="K28">
-        <v>1.095117857590238</v>
+        <v>1.060471122451527</v>
       </c>
       <c r="L28">
-        <v>0.9851925052516288</v>
+        <v>0.9062847425983253</v>
       </c>
       <c r="M28">
-        <v>0.9693861807739196</v>
+        <v>0.9868659218219799</v>
       </c>
       <c r="N28">
-        <v>1.095117857590238</v>
+        <v>1.060471122451527</v>
       </c>
       <c r="O28">
-        <v>0.9846160227565751</v>
+        <v>1.097971815194462</v>
       </c>
       <c r="P28">
-        <v>0.9849042640041019</v>
+        <v>1.002128278896394</v>
       </c>
       <c r="Q28">
-        <v>0.9816715626076573</v>
+        <v>1.018441253305214</v>
       </c>
       <c r="R28">
-        <v>1.021642128532814</v>
+        <v>1.021575893414771</v>
       </c>
       <c r="S28">
-        <v>0.9828452101556477</v>
+        <v>0.981055749736251</v>
       </c>
       <c r="T28">
-        <v>1.021642128532814</v>
+        <v>1.021575893414771</v>
       </c>
       <c r="U28">
-        <v>1.010913372014295</v>
+        <v>1.00090959291507</v>
       </c>
       <c r="V28">
-        <v>1.027754269129484</v>
+        <v>1.012821898822361</v>
       </c>
       <c r="W28">
-        <v>1.002057581692452</v>
+        <v>0.99578013216547</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.029937368561811</v>
+      </c>
+      <c r="D29">
+        <v>0.9832651571651162</v>
+      </c>
+      <c r="E29">
+        <v>1.028693132840334</v>
+      </c>
+      <c r="F29">
+        <v>1.028693132840334</v>
+      </c>
+      <c r="G29">
+        <v>1.018525054978972</v>
+      </c>
+      <c r="H29">
+        <v>0.9931239769697576</v>
+      </c>
+      <c r="I29">
+        <v>0.9703215794797941</v>
+      </c>
+      <c r="J29">
+        <v>0.9348002888265984</v>
+      </c>
+      <c r="K29">
+        <v>1.028693132840334</v>
+      </c>
+      <c r="L29">
+        <v>0.9348002888265984</v>
+      </c>
+      <c r="M29">
+        <v>0.9947747097487536</v>
+      </c>
+      <c r="N29">
+        <v>1.028693132840334</v>
+      </c>
+      <c r="O29">
+        <v>0.9703215794797941</v>
+      </c>
+      <c r="P29">
+        <v>0.9525609341531962</v>
+      </c>
+      <c r="Q29">
+        <v>0.994423317229383</v>
+      </c>
+      <c r="R29">
+        <v>0.9779383337155755</v>
+      </c>
+      <c r="S29">
+        <v>0.9745489744284548</v>
+      </c>
+      <c r="T29">
+        <v>0.9779383337155755</v>
+      </c>
+      <c r="U29">
+        <v>0.9880850140314246</v>
+      </c>
+      <c r="V29">
+        <v>0.9962066377932064</v>
+      </c>
+      <c r="W29">
+        <v>0.9941801585713922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.01791027920647</v>
+      </c>
+      <c r="D30">
+        <v>0.9726580939426227</v>
+      </c>
+      <c r="E30">
+        <v>1.095117857590238</v>
+      </c>
+      <c r="F30">
+        <v>1.095117857590238</v>
+      </c>
+      <c r="G30">
+        <v>0.9787271024587394</v>
+      </c>
+      <c r="H30">
+        <v>1.012852611559424</v>
+      </c>
+      <c r="I30">
+        <v>0.9846160227565751</v>
+      </c>
+      <c r="J30">
+        <v>0.9851925052516288</v>
+      </c>
+      <c r="K30">
+        <v>1.095117857590238</v>
+      </c>
+      <c r="L30">
+        <v>0.9851925052516288</v>
+      </c>
+      <c r="M30">
+        <v>0.9693861807739196</v>
+      </c>
+      <c r="N30">
+        <v>1.095117857590238</v>
+      </c>
+      <c r="O30">
+        <v>0.9846160227565751</v>
+      </c>
+      <c r="P30">
+        <v>0.9849042640041019</v>
+      </c>
+      <c r="Q30">
+        <v>0.9816715626076573</v>
+      </c>
+      <c r="R30">
+        <v>1.021642128532814</v>
+      </c>
+      <c r="S30">
+        <v>0.9828452101556477</v>
+      </c>
+      <c r="T30">
+        <v>1.021642128532814</v>
+      </c>
+      <c r="U30">
+        <v>1.010913372014295</v>
+      </c>
+      <c r="V30">
+        <v>1.027754269129484</v>
+      </c>
+      <c r="W30">
+        <v>1.002057581692452</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.04419496526287</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.048600077695949</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.017967333308792</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.017967333308792</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.064031396155725</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9304185275131891</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.8704714118015916</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.008741711032877</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.017967333308792</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.008741711032877</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.000092424338533</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.017967333308792</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.8704714118015916</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9396065614172344</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9672514039786582</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9657268187144205</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9810815063300645</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9657268187144203</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.9903029630747464</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9958358371215557</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.9980647308886909</v>
       </c>
     </row>
